--- a/サンプルアプリケーション/設計書/02_方式設計/20_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルアプリケーション/設計書/02_方式設計/20_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="16560" windowHeight="14760" tabRatio="641" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="16560" windowHeight="14760" tabRatio="641"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="33" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="220">
   <si>
     <t>自動テスト</t>
     <rPh sb="0" eb="2">
@@ -973,10 +973,6 @@
   </si>
   <si>
     <t>2.1.</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1142,35 +1138,6 @@
 (ディレード)</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メッセージ同期応答</t>
-    <rPh sb="5" eb="7">
-      <t>ドウキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メッセージ無応答・ディレード
-※3</t>
-    <rPh sb="5" eb="8">
-      <t>ムオウトウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>メッセージ同期応答・ディレード
-※2</t>
-    <rPh sb="5" eb="7">
-      <t>ドウキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウトウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2354,10 +2321,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>リクエスト単位のテスト。
 クラス単体テストでForm、Entity、Actionおよび一部の共通コンポーネントの品質を確保したのち、それらのクラスを組み合わせ、
 ひとつの処理リクエストを受け取って正しく動作するかを確認する。</t>
@@ -2482,6 +2445,25 @@
     <rPh sb="17" eb="19">
       <t>フヨウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>EST</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3081,7 +3063,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3399,6 +3381,15 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3417,24 +3408,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3501,12 +3537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3532,15 +3562,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3549,45 +3570,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3615,21 +3597,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3672,71 +3729,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3783,57 +3885,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3843,66 +3894,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3927,6 +3918,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3945,61 +3984,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7329,7 +7314,7 @@
   </sheetPr>
   <dimension ref="A1:S512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
@@ -7476,7 +7461,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="40"/>
       <c r="J34" s="41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K34" s="40"/>
       <c r="L34" s="42"/>
@@ -8029,57 +8014,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="188" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="141" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="179" t="str">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="171" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
@@ -8087,53 +8072,53 @@
       <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="188" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="141" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="185" t="str">
+      <c r="A2" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="159" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="150" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="147" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
@@ -8141,45 +8126,45 @@
       <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25">
-      <c r="A3" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="162" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="46"/>
       <c r="AK3" s="47"/>
       <c r="AL3" s="47"/>
@@ -8316,1030 +8301,1030 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="189" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="191"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="189" t="s">
+      <c r="E7" s="131"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="191"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="189" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="189" t="s">
+      <c r="H7" s="131"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="191"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="189" t="s">
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
+      <c r="T7" s="131"/>
+      <c r="U7" s="131"/>
+      <c r="V7" s="131"/>
+      <c r="W7" s="131"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="131"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="190"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="131"/>
+      <c r="AI7" s="130"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="102">
         <v>1</v>
       </c>
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="181" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="182"/>
+      <c r="D8" s="183">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="184"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="186" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="187"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="156" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="189" t="s">
+        <v>168</v>
+      </c>
+      <c r="R8" s="190"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="190"/>
+      <c r="U8" s="190"/>
+      <c r="V8" s="190"/>
+      <c r="W8" s="190"/>
+      <c r="X8" s="190"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="190"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="191"/>
+      <c r="AF8" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="166"/>
-      <c r="D8" s="167">
-        <v>43643</v>
-      </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="170" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="176" t="s">
-        <v>172</v>
-      </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="178"/>
-      <c r="AF8" s="173" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="175"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="158"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="76"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="133"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="134"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="131"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="136"/>
+      <c r="W9" s="136"/>
+      <c r="X9" s="136"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="136"/>
+      <c r="AA9" s="136"/>
+      <c r="AB9" s="136"/>
+      <c r="AC9" s="136"/>
+      <c r="AD9" s="136"/>
+      <c r="AE9" s="137"/>
+      <c r="AF9" s="132"/>
+      <c r="AG9" s="133"/>
+      <c r="AH9" s="133"/>
+      <c r="AI9" s="134"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="76"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="133"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="134"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="130"/>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="131"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="136"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="136"/>
+      <c r="AA10" s="136"/>
+      <c r="AB10" s="136"/>
+      <c r="AC10" s="136"/>
+      <c r="AD10" s="136"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="133"/>
+      <c r="AH10" s="133"/>
+      <c r="AI10" s="134"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="76"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="134"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="131"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="136"/>
+      <c r="T11" s="136"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="136"/>
+      <c r="W11" s="136"/>
+      <c r="X11" s="136"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="136"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="133"/>
+      <c r="AH11" s="133"/>
+      <c r="AI11" s="134"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="76"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="133"/>
-      <c r="V12" s="133"/>
-      <c r="W12" s="133"/>
-      <c r="X12" s="133"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="133"/>
-      <c r="AA12" s="133"/>
-      <c r="AB12" s="133"/>
-      <c r="AC12" s="133"/>
-      <c r="AD12" s="133"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="130"/>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="131"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="136"/>
+      <c r="AC12" s="136"/>
+      <c r="AD12" s="136"/>
+      <c r="AE12" s="137"/>
+      <c r="AF12" s="132"/>
+      <c r="AG12" s="133"/>
+      <c r="AH12" s="133"/>
+      <c r="AI12" s="134"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="76"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="133"/>
-      <c r="AA13" s="133"/>
-      <c r="AB13" s="133"/>
-      <c r="AC13" s="133"/>
-      <c r="AD13" s="133"/>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="129"/>
-      <c r="AG13" s="130"/>
-      <c r="AH13" s="130"/>
-      <c r="AI13" s="131"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="136"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="132"/>
+      <c r="AG13" s="133"/>
+      <c r="AH13" s="133"/>
+      <c r="AI13" s="134"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="76"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="133"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="133"/>
-      <c r="AC14" s="133"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="134"/>
-      <c r="AF14" s="129"/>
-      <c r="AG14" s="130"/>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="131"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="136"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="137"/>
+      <c r="AF14" s="132"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="134"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="76"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-      <c r="W15" s="133"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="133"/>
-      <c r="Z15" s="133"/>
-      <c r="AA15" s="133"/>
-      <c r="AB15" s="133"/>
-      <c r="AC15" s="133"/>
-      <c r="AD15" s="133"/>
-      <c r="AE15" s="134"/>
-      <c r="AF15" s="129"/>
-      <c r="AG15" s="130"/>
-      <c r="AH15" s="130"/>
-      <c r="AI15" s="131"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="134"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="137"/>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="133"/>
+      <c r="AH15" s="133"/>
+      <c r="AI15" s="134"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="76"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="132"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="133"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="134"/>
-      <c r="AF16" s="129"/>
-      <c r="AG16" s="130"/>
-      <c r="AH16" s="130"/>
-      <c r="AI16" s="131"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="137"/>
+      <c r="AF16" s="132"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="134"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="76"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="133"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="134"/>
-      <c r="AF17" s="129"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="131"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="136"/>
+      <c r="S17" s="136"/>
+      <c r="T17" s="136"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="136"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="136"/>
+      <c r="Z17" s="136"/>
+      <c r="AA17" s="136"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="136"/>
+      <c r="AD17" s="136"/>
+      <c r="AE17" s="137"/>
+      <c r="AF17" s="132"/>
+      <c r="AG17" s="133"/>
+      <c r="AH17" s="133"/>
+      <c r="AI17" s="134"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="76"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="133"/>
-      <c r="AA18" s="133"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="133"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="134"/>
-      <c r="AF18" s="129"/>
-      <c r="AG18" s="130"/>
-      <c r="AH18" s="130"/>
-      <c r="AI18" s="131"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="136"/>
+      <c r="Z18" s="136"/>
+      <c r="AA18" s="136"/>
+      <c r="AB18" s="136"/>
+      <c r="AC18" s="136"/>
+      <c r="AD18" s="136"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="132"/>
+      <c r="AG18" s="133"/>
+      <c r="AH18" s="133"/>
+      <c r="AI18" s="134"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="76"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="133"/>
-      <c r="AB19" s="133"/>
-      <c r="AC19" s="133"/>
-      <c r="AD19" s="133"/>
-      <c r="AE19" s="134"/>
-      <c r="AF19" s="129"/>
-      <c r="AG19" s="130"/>
-      <c r="AH19" s="130"/>
-      <c r="AI19" s="131"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="136"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="136"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="136"/>
+      <c r="Z19" s="136"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="137"/>
+      <c r="AF19" s="132"/>
+      <c r="AG19" s="133"/>
+      <c r="AH19" s="133"/>
+      <c r="AI19" s="134"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="76"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="133"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="133"/>
-      <c r="AA20" s="133"/>
-      <c r="AB20" s="133"/>
-      <c r="AC20" s="133"/>
-      <c r="AD20" s="133"/>
-      <c r="AE20" s="134"/>
-      <c r="AF20" s="129"/>
-      <c r="AG20" s="130"/>
-      <c r="AH20" s="130"/>
-      <c r="AI20" s="131"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="136"/>
+      <c r="S20" s="136"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="136"/>
+      <c r="X20" s="136"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="136"/>
+      <c r="AA20" s="136"/>
+      <c r="AB20" s="136"/>
+      <c r="AC20" s="136"/>
+      <c r="AD20" s="136"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="132"/>
+      <c r="AG20" s="133"/>
+      <c r="AH20" s="133"/>
+      <c r="AI20" s="134"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="76"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="133"/>
-      <c r="AA21" s="133"/>
-      <c r="AB21" s="133"/>
-      <c r="AC21" s="133"/>
-      <c r="AD21" s="133"/>
-      <c r="AE21" s="134"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="131"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="136"/>
+      <c r="S21" s="136"/>
+      <c r="T21" s="136"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="136"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="136"/>
+      <c r="Z21" s="136"/>
+      <c r="AA21" s="136"/>
+      <c r="AB21" s="136"/>
+      <c r="AC21" s="136"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="132"/>
+      <c r="AG21" s="133"/>
+      <c r="AH21" s="133"/>
+      <c r="AI21" s="134"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="76"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="133"/>
-      <c r="AA22" s="133"/>
-      <c r="AB22" s="133"/>
-      <c r="AC22" s="133"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="134"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="130"/>
-      <c r="AH22" s="130"/>
-      <c r="AI22" s="131"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="136"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="136"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="136"/>
+      <c r="Z22" s="136"/>
+      <c r="AA22" s="136"/>
+      <c r="AB22" s="136"/>
+      <c r="AC22" s="136"/>
+      <c r="AD22" s="136"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="132"/>
+      <c r="AG22" s="133"/>
+      <c r="AH22" s="133"/>
+      <c r="AI22" s="134"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="76"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="133"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="133"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="133"/>
-      <c r="Z23" s="133"/>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="133"/>
-      <c r="AC23" s="133"/>
-      <c r="AD23" s="133"/>
-      <c r="AE23" s="134"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="131"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="135"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
+      <c r="T23" s="136"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="136"/>
+      <c r="X23" s="136"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="132"/>
+      <c r="AG23" s="133"/>
+      <c r="AH23" s="133"/>
+      <c r="AI23" s="134"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="76"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="134"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="131"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="135"/>
+      <c r="R24" s="136"/>
+      <c r="S24" s="136"/>
+      <c r="T24" s="136"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="136"/>
+      <c r="AD24" s="136"/>
+      <c r="AE24" s="137"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="133"/>
+      <c r="AH24" s="133"/>
+      <c r="AI24" s="134"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="76"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="133"/>
-      <c r="S25" s="133"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="133"/>
-      <c r="AA25" s="133"/>
-      <c r="AB25" s="133"/>
-      <c r="AC25" s="133"/>
-      <c r="AD25" s="133"/>
-      <c r="AE25" s="134"/>
-      <c r="AF25" s="129"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="130"/>
-      <c r="AI25" s="131"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="136"/>
+      <c r="X25" s="136"/>
+      <c r="Y25" s="136"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="136"/>
+      <c r="AD25" s="136"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="133"/>
+      <c r="AH25" s="133"/>
+      <c r="AI25" s="134"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="76"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="133"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="133"/>
-      <c r="AA26" s="133"/>
-      <c r="AB26" s="133"/>
-      <c r="AC26" s="133"/>
-      <c r="AD26" s="133"/>
-      <c r="AE26" s="134"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="131"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="136"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="136"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="132"/>
+      <c r="AG26" s="133"/>
+      <c r="AH26" s="133"/>
+      <c r="AI26" s="134"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="76"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="133"/>
-      <c r="AA27" s="133"/>
-      <c r="AB27" s="133"/>
-      <c r="AC27" s="133"/>
-      <c r="AD27" s="133"/>
-      <c r="AE27" s="134"/>
-      <c r="AF27" s="129"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="130"/>
-      <c r="AI27" s="131"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="136"/>
+      <c r="W27" s="136"/>
+      <c r="X27" s="136"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="136"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="132"/>
+      <c r="AG27" s="133"/>
+      <c r="AH27" s="133"/>
+      <c r="AI27" s="134"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="76"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="130"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="133"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="133"/>
-      <c r="AA28" s="133"/>
-      <c r="AB28" s="133"/>
-      <c r="AC28" s="133"/>
-      <c r="AD28" s="133"/>
-      <c r="AE28" s="134"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="131"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="136"/>
+      <c r="X28" s="136"/>
+      <c r="Y28" s="136"/>
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="132"/>
+      <c r="AG28" s="133"/>
+      <c r="AH28" s="133"/>
+      <c r="AI28" s="134"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="76"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
-      <c r="AB29" s="133"/>
-      <c r="AC29" s="133"/>
-      <c r="AD29" s="133"/>
-      <c r="AE29" s="134"/>
-      <c r="AF29" s="129"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="131"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="133"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="136"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="136"/>
+      <c r="X29" s="136"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="136"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="133"/>
+      <c r="AH29" s="133"/>
+      <c r="AI29" s="134"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="76"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="136"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="133"/>
-      <c r="S30" s="133"/>
-      <c r="T30" s="133"/>
-      <c r="U30" s="133"/>
-      <c r="V30" s="133"/>
-      <c r="W30" s="133"/>
-      <c r="X30" s="133"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="133"/>
-      <c r="AA30" s="133"/>
-      <c r="AB30" s="133"/>
-      <c r="AC30" s="133"/>
-      <c r="AD30" s="133"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="129"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="131"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="133"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="136"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="133"/>
+      <c r="AH30" s="133"/>
+      <c r="AI30" s="134"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="76"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="133"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="133"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="133"/>
-      <c r="W31" s="133"/>
-      <c r="X31" s="133"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="133"/>
-      <c r="AA31" s="133"/>
-      <c r="AB31" s="133"/>
-      <c r="AC31" s="133"/>
-      <c r="AD31" s="133"/>
-      <c r="AE31" s="134"/>
-      <c r="AF31" s="129"/>
-      <c r="AG31" s="130"/>
-      <c r="AH31" s="130"/>
-      <c r="AI31" s="131"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="136"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="136"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="133"/>
+      <c r="AH31" s="133"/>
+      <c r="AI31" s="134"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="76"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="133"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="133"/>
-      <c r="W32" s="133"/>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="133"/>
-      <c r="Z32" s="133"/>
-      <c r="AA32" s="133"/>
-      <c r="AB32" s="133"/>
-      <c r="AC32" s="133"/>
-      <c r="AD32" s="133"/>
-      <c r="AE32" s="134"/>
-      <c r="AF32" s="129"/>
-      <c r="AG32" s="130"/>
-      <c r="AH32" s="130"/>
-      <c r="AI32" s="131"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="134"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="136"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="136"/>
+      <c r="Y32" s="136"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="136"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="133"/>
+      <c r="AH32" s="133"/>
+      <c r="AI32" s="134"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1">
       <c r="A33" s="76"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="133"/>
-      <c r="AA33" s="133"/>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="133"/>
-      <c r="AD33" s="133"/>
-      <c r="AE33" s="134"/>
-      <c r="AF33" s="129"/>
-      <c r="AG33" s="130"/>
-      <c r="AH33" s="130"/>
-      <c r="AI33" s="131"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="134"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="136"/>
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="136"/>
+      <c r="X33" s="136"/>
+      <c r="Y33" s="136"/>
+      <c r="Z33" s="136"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="136"/>
+      <c r="AD33" s="136"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="133"/>
+      <c r="AH33" s="133"/>
+      <c r="AI33" s="134"/>
       <c r="AJ33" s="49"/>
       <c r="AK33" s="49"/>
       <c r="AL33" s="49"/>
@@ -9348,16 +9333,151 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
@@ -9382,151 +9502,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9557,31 +9542,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="188" t="str">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -9593,23 +9578,23 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AA1" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
@@ -9626,29 +9611,29 @@
       <c r="AW1" s="43"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="188" t="str">
+      <c r="A2" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -9657,23 +9642,23 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AA2" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
       <c r="AJ2" s="44"/>
       <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
@@ -9690,29 +9675,29 @@
       <c r="AW2" s="43"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="188" t="str">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -9721,21 +9706,21 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="179" t="str">
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
       <c r="AJ3" s="52"/>
       <c r="AK3" s="52"/>
       <c r="AL3" s="52"/>
@@ -9818,7 +9803,7 @@
       <c r="M5" s="47"/>
       <c r="P5" s="47"/>
       <c r="Q5" s="82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
@@ -9907,7 +9892,7 @@
     <row r="7" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A7" s="20"/>
       <c r="B7" s="77" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7" s="77"/>
       <c r="D7" s="19"/>
@@ -9959,7 +9944,7 @@
     <row r="8" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A8" s="20"/>
       <c r="C8" s="79" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -10061,7 +10046,7 @@
     <row r="10" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A10" s="20"/>
       <c r="B10" s="77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="1"/>
@@ -10114,7 +10099,7 @@
     <row r="11" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A11" s="20"/>
       <c r="C11" s="79" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -10166,7 +10151,7 @@
     <row r="12" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A12" s="20"/>
       <c r="C12" s="79" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -10217,7 +10202,7 @@
     <row r="13" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A13" s="20"/>
       <c r="C13" s="79" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -10320,7 +10305,7 @@
     <row r="15" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A15" s="20"/>
       <c r="B15" s="31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -10371,7 +10356,7 @@
     <row r="16" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A16" s="49"/>
       <c r="C16" s="79" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -10422,7 +10407,7 @@
     <row r="17" spans="1:49" s="24" customFormat="1" ht="11.25">
       <c r="A17" s="20"/>
       <c r="C17" s="79" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -10474,7 +10459,7 @@
       <c r="A18" s="20"/>
       <c r="B18" s="1"/>
       <c r="C18" s="79" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18" s="78"/>
       <c r="E18" s="1"/>
@@ -12928,14 +12913,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -12945,6 +12922,14 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12974,31 +12959,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="188" t="str">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -13010,48 +12995,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AA1" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="188" t="str">
+      <c r="A2" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -13060,48 +13045,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AA2" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
     </row>
     <row r="3" spans="1:35" ht="11.25">
-      <c r="A3" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="188" t="str">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -13110,21 +13095,21 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="179" t="str">
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
     </row>
     <row r="4" spans="1:35" ht="11.25">
       <c r="A4" s="15"/>
@@ -13165,7 +13150,7 @@
     </row>
     <row r="5" spans="1:35" ht="11.25">
       <c r="B5" s="77" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -13204,7 +13189,7 @@
     <row r="6" spans="1:35" ht="11.25">
       <c r="A6" s="15"/>
       <c r="C6" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -13389,7 +13374,7 @@
       <c r="A11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -13427,7 +13412,7 @@
       <c r="A12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -13500,14 +13485,6 @@
     <row r="14" spans="1:35" ht="11.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -13517,6 +13494,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13539,8 +13524,8 @@
   </sheetPr>
   <dimension ref="A1:AI58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41:Z41"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -13549,31 +13534,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="188" t="str">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -13585,48 +13570,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AA1" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="188" t="str">
+      <c r="A2" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -13635,48 +13620,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AA2" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
     </row>
     <row r="3" spans="1:35" ht="11.25">
-      <c r="A3" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="188" t="str">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -13685,27 +13670,27 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="179" t="str">
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
     </row>
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="A5" s="20"/>
       <c r="B5" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -13722,7 +13707,7 @@
     </row>
     <row r="8" spans="1:35" ht="11.25">
       <c r="D8" s="77" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25">
@@ -13761,7 +13746,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25">
       <c r="D21" s="77" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25">
@@ -13771,357 +13756,357 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25">
-      <c r="D24" s="208" t="s">
+      <c r="D24" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="208" t="s">
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="235"/>
+      <c r="J24" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="209"/>
-      <c r="P24" s="209"/>
-      <c r="Q24" s="209"/>
-      <c r="R24" s="209"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="209"/>
-      <c r="V24" s="209"/>
-      <c r="W24" s="209"/>
-      <c r="X24" s="209"/>
-      <c r="Y24" s="209"/>
-      <c r="Z24" s="209"/>
-      <c r="AA24" s="209"/>
-      <c r="AB24" s="209"/>
-      <c r="AC24" s="209"/>
-      <c r="AD24" s="209"/>
-      <c r="AE24" s="209"/>
-      <c r="AF24" s="209"/>
-      <c r="AG24" s="209"/>
-      <c r="AH24" s="210"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="234"/>
+      <c r="P24" s="234"/>
+      <c r="Q24" s="234"/>
+      <c r="R24" s="234"/>
+      <c r="S24" s="234"/>
+      <c r="T24" s="234"/>
+      <c r="U24" s="234"/>
+      <c r="V24" s="234"/>
+      <c r="W24" s="234"/>
+      <c r="X24" s="234"/>
+      <c r="Y24" s="234"/>
+      <c r="Z24" s="234"/>
+      <c r="AA24" s="234"/>
+      <c r="AB24" s="234"/>
+      <c r="AC24" s="234"/>
+      <c r="AD24" s="234"/>
+      <c r="AE24" s="234"/>
+      <c r="AF24" s="234"/>
+      <c r="AG24" s="234"/>
+      <c r="AH24" s="235"/>
     </row>
     <row r="25" spans="4:34" ht="11.25">
-      <c r="D25" s="229" t="s">
+      <c r="D25" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="230"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="211" t="s">
-        <v>199</v>
-      </c>
-      <c r="K25" s="212"/>
-      <c r="L25" s="212"/>
-      <c r="M25" s="212"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="212"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="212"/>
-      <c r="U25" s="212"/>
-      <c r="V25" s="212"/>
-      <c r="W25" s="212"/>
-      <c r="X25" s="212"/>
-      <c r="Y25" s="212"/>
-      <c r="Z25" s="212"/>
-      <c r="AA25" s="212"/>
-      <c r="AB25" s="212"/>
-      <c r="AC25" s="212"/>
-      <c r="AD25" s="212"/>
-      <c r="AE25" s="212"/>
-      <c r="AF25" s="212"/>
-      <c r="AG25" s="212"/>
-      <c r="AH25" s="213"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="236" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="237"/>
+      <c r="Q25" s="237"/>
+      <c r="R25" s="237"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="237"/>
+      <c r="W25" s="237"/>
+      <c r="X25" s="237"/>
+      <c r="Y25" s="237"/>
+      <c r="Z25" s="237"/>
+      <c r="AA25" s="237"/>
+      <c r="AB25" s="237"/>
+      <c r="AC25" s="237"/>
+      <c r="AD25" s="237"/>
+      <c r="AE25" s="237"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="237"/>
+      <c r="AH25" s="238"/>
     </row>
     <row r="26" spans="4:34" ht="11.25">
-      <c r="D26" s="232"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="215"/>
-      <c r="R26" s="215"/>
-      <c r="S26" s="215"/>
-      <c r="T26" s="215"/>
-      <c r="U26" s="215"/>
-      <c r="V26" s="215"/>
-      <c r="W26" s="215"/>
-      <c r="X26" s="215"/>
-      <c r="Y26" s="215"/>
-      <c r="Z26" s="215"/>
-      <c r="AA26" s="215"/>
-      <c r="AB26" s="215"/>
-      <c r="AC26" s="215"/>
-      <c r="AD26" s="215"/>
-      <c r="AE26" s="215"/>
-      <c r="AF26" s="215"/>
-      <c r="AG26" s="215"/>
-      <c r="AH26" s="216"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="240"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="240"/>
+      <c r="P26" s="240"/>
+      <c r="Q26" s="240"/>
+      <c r="R26" s="240"/>
+      <c r="S26" s="240"/>
+      <c r="T26" s="240"/>
+      <c r="U26" s="240"/>
+      <c r="V26" s="240"/>
+      <c r="W26" s="240"/>
+      <c r="X26" s="240"/>
+      <c r="Y26" s="240"/>
+      <c r="Z26" s="240"/>
+      <c r="AA26" s="240"/>
+      <c r="AB26" s="240"/>
+      <c r="AC26" s="240"/>
+      <c r="AD26" s="240"/>
+      <c r="AE26" s="240"/>
+      <c r="AF26" s="240"/>
+      <c r="AG26" s="240"/>
+      <c r="AH26" s="241"/>
     </row>
     <row r="27" spans="4:34" ht="11.25">
-      <c r="D27" s="235"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="236"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="217"/>
-      <c r="K27" s="218"/>
-      <c r="L27" s="218"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="218"/>
-      <c r="T27" s="218"/>
-      <c r="U27" s="218"/>
-      <c r="V27" s="218"/>
-      <c r="W27" s="218"/>
-      <c r="X27" s="218"/>
-      <c r="Y27" s="218"/>
-      <c r="Z27" s="218"/>
-      <c r="AA27" s="218"/>
-      <c r="AB27" s="218"/>
-      <c r="AC27" s="218"/>
-      <c r="AD27" s="218"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="218"/>
-      <c r="AG27" s="218"/>
-      <c r="AH27" s="219"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="242"/>
+      <c r="K27" s="243"/>
+      <c r="L27" s="243"/>
+      <c r="M27" s="243"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="243"/>
+      <c r="P27" s="243"/>
+      <c r="Q27" s="243"/>
+      <c r="R27" s="243"/>
+      <c r="S27" s="243"/>
+      <c r="T27" s="243"/>
+      <c r="U27" s="243"/>
+      <c r="V27" s="243"/>
+      <c r="W27" s="243"/>
+      <c r="X27" s="243"/>
+      <c r="Y27" s="243"/>
+      <c r="Z27" s="243"/>
+      <c r="AA27" s="243"/>
+      <c r="AB27" s="243"/>
+      <c r="AC27" s="243"/>
+      <c r="AD27" s="243"/>
+      <c r="AE27" s="243"/>
+      <c r="AF27" s="243"/>
+      <c r="AG27" s="243"/>
+      <c r="AH27" s="244"/>
     </row>
     <row r="28" spans="4:34" ht="11.25">
-      <c r="D28" s="229" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="230"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="220" t="s">
-        <v>212</v>
-      </c>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="221"/>
-      <c r="O28" s="221"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="221"/>
-      <c r="U28" s="221"/>
-      <c r="V28" s="221"/>
-      <c r="W28" s="221"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="221"/>
-      <c r="Z28" s="221"/>
-      <c r="AA28" s="221"/>
-      <c r="AB28" s="221"/>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="221"/>
-      <c r="AE28" s="221"/>
-      <c r="AF28" s="221"/>
-      <c r="AG28" s="221"/>
-      <c r="AH28" s="222"/>
+      <c r="D28" s="204" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="221" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" s="222"/>
+      <c r="L28" s="222"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="222"/>
+      <c r="O28" s="222"/>
+      <c r="P28" s="222"/>
+      <c r="Q28" s="222"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="222"/>
+      <c r="AF28" s="222"/>
+      <c r="AG28" s="222"/>
+      <c r="AH28" s="223"/>
     </row>
     <row r="29" spans="4:34" ht="11.25">
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="233"/>
-      <c r="H29" s="233"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="224"/>
-      <c r="Z29" s="224"/>
-      <c r="AA29" s="224"/>
-      <c r="AB29" s="224"/>
-      <c r="AC29" s="224"/>
-      <c r="AD29" s="224"/>
-      <c r="AE29" s="224"/>
-      <c r="AF29" s="224"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="225"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="208"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="225"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="225"/>
+      <c r="O29" s="225"/>
+      <c r="P29" s="225"/>
+      <c r="Q29" s="225"/>
+      <c r="R29" s="225"/>
+      <c r="S29" s="225"/>
+      <c r="T29" s="225"/>
+      <c r="U29" s="225"/>
+      <c r="V29" s="225"/>
+      <c r="W29" s="225"/>
+      <c r="X29" s="225"/>
+      <c r="Y29" s="225"/>
+      <c r="Z29" s="225"/>
+      <c r="AA29" s="225"/>
+      <c r="AB29" s="225"/>
+      <c r="AC29" s="225"/>
+      <c r="AD29" s="225"/>
+      <c r="AE29" s="225"/>
+      <c r="AF29" s="225"/>
+      <c r="AG29" s="225"/>
+      <c r="AH29" s="226"/>
     </row>
     <row r="30" spans="4:34" ht="11.25">
-      <c r="D30" s="235"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227"/>
-      <c r="N30" s="227"/>
-      <c r="O30" s="227"/>
-      <c r="P30" s="227"/>
-      <c r="Q30" s="227"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="227"/>
-      <c r="T30" s="227"/>
-      <c r="U30" s="227"/>
-      <c r="V30" s="227"/>
-      <c r="W30" s="227"/>
-      <c r="X30" s="227"/>
-      <c r="Y30" s="227"/>
-      <c r="Z30" s="227"/>
-      <c r="AA30" s="227"/>
-      <c r="AB30" s="227"/>
-      <c r="AC30" s="227"/>
-      <c r="AD30" s="227"/>
-      <c r="AE30" s="227"/>
-      <c r="AF30" s="227"/>
-      <c r="AG30" s="227"/>
-      <c r="AH30" s="228"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="227"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="228"/>
+      <c r="M30" s="228"/>
+      <c r="N30" s="228"/>
+      <c r="O30" s="228"/>
+      <c r="P30" s="228"/>
+      <c r="Q30" s="228"/>
+      <c r="R30" s="228"/>
+      <c r="S30" s="228"/>
+      <c r="T30" s="228"/>
+      <c r="U30" s="228"/>
+      <c r="V30" s="228"/>
+      <c r="W30" s="228"/>
+      <c r="X30" s="228"/>
+      <c r="Y30" s="228"/>
+      <c r="Z30" s="228"/>
+      <c r="AA30" s="228"/>
+      <c r="AB30" s="228"/>
+      <c r="AC30" s="228"/>
+      <c r="AD30" s="228"/>
+      <c r="AE30" s="228"/>
+      <c r="AF30" s="228"/>
+      <c r="AG30" s="228"/>
+      <c r="AH30" s="229"/>
     </row>
     <row r="31" spans="4:34" ht="11.25">
-      <c r="D31" s="238" t="s">
+      <c r="D31" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="220" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" s="221"/>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="221"/>
-      <c r="O31" s="221"/>
-      <c r="P31" s="221"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
-      <c r="Z31" s="221"/>
-      <c r="AA31" s="221"/>
-      <c r="AB31" s="221"/>
-      <c r="AC31" s="221"/>
-      <c r="AD31" s="221"/>
-      <c r="AE31" s="221"/>
-      <c r="AF31" s="221"/>
-      <c r="AG31" s="221"/>
-      <c r="AH31" s="222"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="221" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="222"/>
+      <c r="L31" s="222"/>
+      <c r="M31" s="222"/>
+      <c r="N31" s="222"/>
+      <c r="O31" s="222"/>
+      <c r="P31" s="222"/>
+      <c r="Q31" s="222"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="222"/>
+      <c r="AF31" s="222"/>
+      <c r="AG31" s="222"/>
+      <c r="AH31" s="223"/>
     </row>
     <row r="32" spans="4:34" ht="11.25">
-      <c r="D32" s="232"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="234"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="224"/>
-      <c r="Q32" s="224"/>
-      <c r="R32" s="224"/>
-      <c r="S32" s="224"/>
-      <c r="T32" s="224"/>
-      <c r="U32" s="224"/>
-      <c r="V32" s="224"/>
-      <c r="W32" s="224"/>
-      <c r="X32" s="224"/>
-      <c r="Y32" s="224"/>
-      <c r="Z32" s="224"/>
-      <c r="AA32" s="224"/>
-      <c r="AB32" s="224"/>
-      <c r="AC32" s="224"/>
-      <c r="AD32" s="224"/>
-      <c r="AE32" s="224"/>
-      <c r="AF32" s="224"/>
-      <c r="AG32" s="224"/>
-      <c r="AH32" s="225"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="225"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="225"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="225"/>
+      <c r="R32" s="225"/>
+      <c r="S32" s="225"/>
+      <c r="T32" s="225"/>
+      <c r="U32" s="225"/>
+      <c r="V32" s="225"/>
+      <c r="W32" s="225"/>
+      <c r="X32" s="225"/>
+      <c r="Y32" s="225"/>
+      <c r="Z32" s="225"/>
+      <c r="AA32" s="225"/>
+      <c r="AB32" s="225"/>
+      <c r="AC32" s="225"/>
+      <c r="AD32" s="225"/>
+      <c r="AE32" s="225"/>
+      <c r="AF32" s="225"/>
+      <c r="AG32" s="225"/>
+      <c r="AH32" s="226"/>
     </row>
     <row r="33" spans="3:34" ht="11.25">
-      <c r="D33" s="235"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
-      <c r="L33" s="227"/>
-      <c r="M33" s="227"/>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227"/>
-      <c r="P33" s="227"/>
-      <c r="Q33" s="227"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="227"/>
-      <c r="U33" s="227"/>
-      <c r="V33" s="227"/>
-      <c r="W33" s="227"/>
-      <c r="X33" s="227"/>
-      <c r="Y33" s="227"/>
-      <c r="Z33" s="227"/>
-      <c r="AA33" s="227"/>
-      <c r="AB33" s="227"/>
-      <c r="AC33" s="227"/>
-      <c r="AD33" s="227"/>
-      <c r="AE33" s="227"/>
-      <c r="AF33" s="227"/>
-      <c r="AG33" s="227"/>
-      <c r="AH33" s="228"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="227"/>
+      <c r="K33" s="228"/>
+      <c r="L33" s="228"/>
+      <c r="M33" s="228"/>
+      <c r="N33" s="228"/>
+      <c r="O33" s="228"/>
+      <c r="P33" s="228"/>
+      <c r="Q33" s="228"/>
+      <c r="R33" s="228"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="228"/>
+      <c r="V33" s="228"/>
+      <c r="W33" s="228"/>
+      <c r="X33" s="228"/>
+      <c r="Y33" s="228"/>
+      <c r="Z33" s="228"/>
+      <c r="AA33" s="228"/>
+      <c r="AB33" s="228"/>
+      <c r="AC33" s="228"/>
+      <c r="AD33" s="228"/>
+      <c r="AE33" s="228"/>
+      <c r="AF33" s="228"/>
+      <c r="AG33" s="228"/>
+      <c r="AH33" s="229"/>
     </row>
     <row r="34" spans="3:34" ht="11.25">
       <c r="D34" s="33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25"/>
@@ -14137,231 +14122,183 @@
     </row>
     <row r="38" spans="3:34" ht="11.25"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1">
-      <c r="C39" s="239" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="240"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="241"/>
-      <c r="G39" s="205" t="s">
+      <c r="D39" s="215" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="214" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="205" t="s">
+      <c r="M39" s="231"/>
+      <c r="N39" s="231"/>
+      <c r="O39" s="232"/>
+      <c r="P39" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="206"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="207"/>
-      <c r="O39" s="205" t="s">
+      <c r="Q39" s="136"/>
+      <c r="R39" s="136"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="205" t="s">
-        <v>98</v>
-      </c>
-      <c r="T39" s="133"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="134"/>
-      <c r="W39" s="205" t="s">
-        <v>99</v>
-      </c>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="133"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="205" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB39" s="206"/>
-      <c r="AC39" s="206"/>
-      <c r="AD39" s="207"/>
-      <c r="AE39" s="205" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF39" s="206"/>
-      <c r="AG39" s="206"/>
-      <c r="AH39" s="207"/>
+      <c r="U39" s="136"/>
+      <c r="V39" s="136"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="330" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y39" s="136"/>
+      <c r="Z39" s="136"/>
+      <c r="AA39" s="137"/>
     </row>
     <row r="40" spans="3:34" ht="11.25">
-      <c r="C40" s="204" t="s">
+      <c r="D40" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="202"/>
       <c r="E40" s="202"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="204" t="s">
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="202"/>
       <c r="I40" s="202"/>
-      <c r="J40" s="203"/>
-      <c r="K40" s="204" t="s">
+      <c r="J40" s="202"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="202"/>
       <c r="M40" s="202"/>
-      <c r="N40" s="203"/>
-      <c r="O40" s="204" t="s">
+      <c r="N40" s="202"/>
+      <c r="O40" s="203"/>
+      <c r="P40" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="P40" s="202"/>
       <c r="Q40" s="202"/>
-      <c r="R40" s="203"/>
-      <c r="S40" s="204" t="s">
+      <c r="R40" s="202"/>
+      <c r="S40" s="203"/>
+      <c r="T40" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="T40" s="202"/>
       <c r="U40" s="202"/>
-      <c r="V40" s="203"/>
-      <c r="W40" s="204" t="s">
+      <c r="V40" s="202"/>
+      <c r="W40" s="203"/>
+      <c r="X40" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="X40" s="202"/>
       <c r="Y40" s="202"/>
-      <c r="Z40" s="203"/>
-      <c r="AA40" s="204" t="s">
+      <c r="Z40" s="202"/>
+      <c r="AA40" s="203"/>
+    </row>
+    <row r="41" spans="3:34" ht="36" customHeight="1">
+      <c r="D41" s="218" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="218" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" s="202"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="203"/>
+      <c r="L41" s="218" t="s">
+        <v>210</v>
+      </c>
+      <c r="M41" s="202"/>
+      <c r="N41" s="202"/>
+      <c r="O41" s="203"/>
+      <c r="P41" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="AB40" s="202"/>
-      <c r="AC40" s="202"/>
-      <c r="AD40" s="203"/>
-      <c r="AE40" s="204" t="s">
+      <c r="Q41" s="202"/>
+      <c r="R41" s="202"/>
+      <c r="S41" s="203"/>
+      <c r="T41" s="201" t="s">
+        <v>43</v>
+      </c>
+      <c r="U41" s="202"/>
+      <c r="V41" s="202"/>
+      <c r="W41" s="203"/>
+      <c r="X41" s="230" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y41" s="202"/>
+      <c r="Z41" s="202"/>
+      <c r="AA41" s="203"/>
+    </row>
+    <row r="42" spans="3:34" ht="11.25">
+      <c r="D42" s="201" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="203"/>
+      <c r="H42" s="201" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="202"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="203"/>
+      <c r="L42" s="201" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="202"/>
+      <c r="N42" s="202"/>
+      <c r="O42" s="203"/>
+      <c r="P42" s="230" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="202"/>
+      <c r="R42" s="202"/>
+      <c r="S42" s="203"/>
+      <c r="T42" s="230" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" s="202"/>
+      <c r="V42" s="202"/>
+      <c r="W42" s="203"/>
+      <c r="X42" s="201" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y42" s="202"/>
+      <c r="Z42" s="202"/>
+      <c r="AA42" s="203"/>
+    </row>
+    <row r="43" spans="3:34" ht="11.25">
+      <c r="D43" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AF40" s="202"/>
-      <c r="AG40" s="202"/>
-      <c r="AH40" s="203"/>
-    </row>
-    <row r="41" spans="3:34" ht="36" customHeight="1">
-      <c r="C41" s="329" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="328"/>
-      <c r="E41" s="328"/>
-      <c r="F41" s="327"/>
-      <c r="G41" s="329" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="203"/>
-      <c r="K41" s="329" t="s">
-        <v>215</v>
-      </c>
-      <c r="L41" s="202"/>
-      <c r="M41" s="202"/>
-      <c r="N41" s="203"/>
-      <c r="O41" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="P41" s="202"/>
-      <c r="Q41" s="202"/>
-      <c r="R41" s="203"/>
-      <c r="S41" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="T41" s="202"/>
-      <c r="U41" s="202"/>
-      <c r="V41" s="203"/>
-      <c r="W41" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="X41" s="202"/>
-      <c r="Y41" s="202"/>
-      <c r="Z41" s="203"/>
-      <c r="AA41" s="204" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB41" s="202"/>
-      <c r="AC41" s="202"/>
-      <c r="AD41" s="203"/>
-      <c r="AE41" s="204" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF41" s="202"/>
-      <c r="AG41" s="202"/>
-      <c r="AH41" s="203"/>
-    </row>
-    <row r="42" spans="3:34" ht="11.25">
-      <c r="C42" s="204" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="202"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="204" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="202"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="203"/>
-      <c r="K42" s="204" t="s">
-        <v>61</v>
-      </c>
-      <c r="L42" s="202"/>
-      <c r="M42" s="202"/>
-      <c r="N42" s="203"/>
-      <c r="O42" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="P42" s="202"/>
-      <c r="Q42" s="202"/>
-      <c r="R42" s="203"/>
-      <c r="S42" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="T42" s="202"/>
-      <c r="U42" s="202"/>
-      <c r="V42" s="203"/>
-      <c r="W42" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="X42" s="202"/>
-      <c r="Y42" s="202"/>
-      <c r="Z42" s="203"/>
-      <c r="AA42" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB42" s="202"/>
-      <c r="AC42" s="202"/>
-      <c r="AD42" s="203"/>
-      <c r="AE42" s="204" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF42" s="202"/>
-      <c r="AG42" s="202"/>
-      <c r="AH42" s="203"/>
-    </row>
-    <row r="43" spans="3:34" ht="11.25">
-      <c r="C43" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="3:34" ht="11.25">
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="11.25">
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="3:34" ht="11.25">
-      <c r="D46" s="15" t="s">
+      <c r="E46" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -14401,7 +14338,7 @@
     <row r="48" spans="3:34" ht="11.25"/>
     <row r="49" spans="3:5" ht="11.25">
       <c r="C49" s="79" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D49" s="19"/>
     </row>
@@ -14411,7 +14348,7 @@
     </row>
     <row r="51" spans="3:5" ht="11.25">
       <c r="D51" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="3:5" ht="11.25">
@@ -14420,7 +14357,7 @@
     <row r="53" spans="3:5" ht="11.25"/>
     <row r="54" spans="3:5" ht="11.25">
       <c r="C54" s="79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D54" s="19"/>
     </row>
@@ -14430,7 +14367,7 @@
     </row>
     <row r="56" spans="3:5" ht="11.25">
       <c r="D56" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="3:5" ht="11.25">
@@ -14438,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="3:5" ht="11.25">
@@ -14446,23 +14383,39 @@
         <v>58</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="D25:I27"/>
-    <mergeCell ref="D31:I33"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="J28:AH30"/>
-    <mergeCell ref="D28:I30"/>
+  <mergeCells count="49">
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J24:AH24"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J25:AH27"/>
+    <mergeCell ref="J31:AH33"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X40:AA40"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -14471,43 +14424,19 @@
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AE42:AH42"/>
-    <mergeCell ref="W42:Z42"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="AE40:AH40"/>
-    <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S41:V41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D25:I27"/>
+    <mergeCell ref="D31:I33"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="J28:AH30"/>
+    <mergeCell ref="D28:I30"/>
+    <mergeCell ref="X42:AA42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14531,7 +14460,7 @@
   </sheetPr>
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -14542,31 +14471,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="188" t="str">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14578,48 +14507,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AA1" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="188" t="str">
+      <c r="A2" s="159" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -14628,48 +14557,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AA2" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1">
-      <c r="A3" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="188" t="str">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -14678,32 +14607,32 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="179" t="str">
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1"/>
     <row r="5" spans="1:35" s="15" customFormat="1">
       <c r="B5" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1">
       <c r="C6" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>65</v>
@@ -14715,7 +14644,7 @@
     <row r="8" spans="1:35" s="15" customFormat="1">
       <c r="C8" s="22"/>
       <c r="D8" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -14737,7 +14666,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="22"/>
       <c r="D9" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -14759,7 +14688,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -14803,7 +14732,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1">
@@ -14812,7 +14741,7 @@
     <row r="14" spans="1:35" s="15" customFormat="1">
       <c r="C14" s="22"/>
       <c r="D14" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1">
@@ -14827,29 +14756,29 @@
     <row r="17" spans="3:34" s="15" customFormat="1">
       <c r="C17" s="22"/>
       <c r="D17" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:34" s="15" customFormat="1">
       <c r="C18" s="22"/>
       <c r="E18" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="3:34" s="15" customFormat="1">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="3:34">
       <c r="D21" s="56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="3:34">
       <c r="E22" s="36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="3:34">
@@ -14858,7 +14787,7 @@
     <row r="24" spans="3:34">
       <c r="E24" s="57"/>
       <c r="F24" s="37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
@@ -14899,42 +14828,42 @@
     </row>
     <row r="26" spans="3:34">
       <c r="E26" s="56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="3:34">
       <c r="D28" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="290" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="291"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="260" t="s">
+      <c r="F28" s="280"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="281"/>
+      <c r="I28" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="261"/>
-      <c r="K28" s="262"/>
-      <c r="L28" s="272" t="s">
+      <c r="J28" s="258"/>
+      <c r="K28" s="259"/>
+      <c r="L28" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="272"/>
-      <c r="N28" s="272"/>
-      <c r="O28" s="272"/>
-      <c r="P28" s="272"/>
-      <c r="Q28" s="260" t="s">
+      <c r="M28" s="278"/>
+      <c r="N28" s="278"/>
+      <c r="O28" s="278"/>
+      <c r="P28" s="278"/>
+      <c r="Q28" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="261"/>
-      <c r="S28" s="261"/>
-      <c r="T28" s="262"/>
-      <c r="U28" s="260" t="s">
+      <c r="R28" s="258"/>
+      <c r="S28" s="258"/>
+      <c r="T28" s="259"/>
+      <c r="U28" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="261"/>
-      <c r="W28" s="262"/>
+      <c r="V28" s="258"/>
+      <c r="W28" s="259"/>
       <c r="X28" s="74" t="s">
         <v>48</v>
       </c>
@@ -14955,31 +14884,31 @@
       <c r="D29" s="84">
         <v>1</v>
       </c>
-      <c r="E29" s="277" t="s">
+      <c r="E29" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="278"/>
-      <c r="G29" s="278"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="293" t="s">
-        <v>191</v>
-      </c>
-      <c r="J29" s="294"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="289" t="s">
+      <c r="F29" s="273"/>
+      <c r="G29" s="273"/>
+      <c r="H29" s="274"/>
+      <c r="I29" s="266" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="267"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="268" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="289"/>
-      <c r="N29" s="289"/>
-      <c r="O29" s="289"/>
-      <c r="P29" s="289"/>
-      <c r="Q29" s="280"/>
-      <c r="R29" s="281"/>
-      <c r="S29" s="281"/>
-      <c r="T29" s="282"/>
-      <c r="U29" s="280"/>
-      <c r="V29" s="281"/>
-      <c r="W29" s="282"/>
+      <c r="M29" s="268"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
+      <c r="P29" s="268"/>
+      <c r="Q29" s="260"/>
+      <c r="R29" s="261"/>
+      <c r="S29" s="261"/>
+      <c r="T29" s="262"/>
+      <c r="U29" s="260"/>
+      <c r="V29" s="261"/>
+      <c r="W29" s="262"/>
       <c r="X29" s="85" t="s">
         <v>8</v>
       </c>
@@ -15000,27 +14929,27 @@
       <c r="D30" s="84">
         <v>2</v>
       </c>
-      <c r="E30" s="280"/>
-      <c r="F30" s="281"/>
-      <c r="G30" s="281"/>
-      <c r="H30" s="282"/>
-      <c r="I30" s="294"/>
-      <c r="J30" s="294"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="289" t="s">
+      <c r="E30" s="260"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="261"/>
+      <c r="H30" s="262"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="289"/>
-      <c r="N30" s="289"/>
-      <c r="O30" s="289"/>
-      <c r="P30" s="289"/>
-      <c r="Q30" s="280"/>
-      <c r="R30" s="281"/>
-      <c r="S30" s="281"/>
-      <c r="T30" s="282"/>
-      <c r="U30" s="280"/>
-      <c r="V30" s="281"/>
-      <c r="W30" s="282"/>
+      <c r="M30" s="268"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
+      <c r="P30" s="268"/>
+      <c r="Q30" s="260"/>
+      <c r="R30" s="261"/>
+      <c r="S30" s="261"/>
+      <c r="T30" s="262"/>
+      <c r="U30" s="260"/>
+      <c r="V30" s="261"/>
+      <c r="W30" s="262"/>
       <c r="X30" s="85" t="s">
         <v>3</v>
       </c>
@@ -15039,27 +14968,27 @@
       <c r="D31" s="91">
         <v>3</v>
       </c>
-      <c r="E31" s="283"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="284"/>
-      <c r="H31" s="285"/>
-      <c r="I31" s="294"/>
-      <c r="J31" s="294"/>
-      <c r="K31" s="294"/>
-      <c r="L31" s="289" t="s">
+      <c r="E31" s="275"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="277"/>
+      <c r="I31" s="267"/>
+      <c r="J31" s="267"/>
+      <c r="K31" s="267"/>
+      <c r="L31" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="289"/>
-      <c r="N31" s="289"/>
-      <c r="O31" s="289"/>
-      <c r="P31" s="289"/>
-      <c r="Q31" s="286"/>
-      <c r="R31" s="287"/>
-      <c r="S31" s="287"/>
-      <c r="T31" s="288"/>
-      <c r="U31" s="286"/>
-      <c r="V31" s="287"/>
-      <c r="W31" s="288"/>
+      <c r="M31" s="268"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
+      <c r="P31" s="268"/>
+      <c r="Q31" s="263"/>
+      <c r="R31" s="264"/>
+      <c r="S31" s="264"/>
+      <c r="T31" s="265"/>
+      <c r="U31" s="263"/>
+      <c r="V31" s="264"/>
+      <c r="W31" s="265"/>
       <c r="X31" s="92" t="s">
         <v>4</v>
       </c>
@@ -15097,7 +15026,7 @@
     <row r="33" spans="1:39">
       <c r="D33" s="25"/>
       <c r="E33" s="34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -15140,7 +15069,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="59"/>
       <c r="F35" s="37" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -15180,7 +15109,7 @@
     </row>
     <row r="37" spans="1:39">
       <c r="E37" s="36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:39">
@@ -15205,52 +15134,52 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="254" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="294" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="255"/>
-      <c r="G39" s="255"/>
-      <c r="H39" s="256"/>
-      <c r="I39" s="260" t="s">
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="296"/>
+      <c r="I39" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="261"/>
-      <c r="K39" s="262"/>
-      <c r="L39" s="272" t="s">
+      <c r="J39" s="258"/>
+      <c r="K39" s="259"/>
+      <c r="L39" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="272"/>
-      <c r="N39" s="272"/>
-      <c r="O39" s="272"/>
-      <c r="P39" s="272"/>
-      <c r="Q39" s="274" t="s">
+      <c r="M39" s="278"/>
+      <c r="N39" s="278"/>
+      <c r="O39" s="278"/>
+      <c r="P39" s="278"/>
+      <c r="Q39" s="297" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="275"/>
-      <c r="S39" s="275"/>
-      <c r="T39" s="276"/>
-      <c r="U39" s="260" t="s">
+      <c r="R39" s="298"/>
+      <c r="S39" s="298"/>
+      <c r="T39" s="299"/>
+      <c r="U39" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="V39" s="261"/>
-      <c r="W39" s="262"/>
-      <c r="X39" s="254" t="s">
+      <c r="V39" s="258"/>
+      <c r="W39" s="259"/>
+      <c r="X39" s="294" t="s">
         <v>48</v>
       </c>
-      <c r="Y39" s="255"/>
-      <c r="Z39" s="255"/>
-      <c r="AA39" s="255"/>
-      <c r="AB39" s="255"/>
-      <c r="AC39" s="255"/>
-      <c r="AD39" s="255"/>
-      <c r="AE39" s="256"/>
-      <c r="AF39" s="242" t="s">
+      <c r="Y39" s="295"/>
+      <c r="Z39" s="295"/>
+      <c r="AA39" s="295"/>
+      <c r="AB39" s="295"/>
+      <c r="AC39" s="295"/>
+      <c r="AD39" s="295"/>
+      <c r="AE39" s="296"/>
+      <c r="AF39" s="282" t="s">
         <v>31</v>
       </c>
-      <c r="AG39" s="243"/>
-      <c r="AH39" s="244"/>
+      <c r="AG39" s="283"/>
+      <c r="AH39" s="284"/>
       <c r="AJ39" s="36"/>
       <c r="AK39" s="36"/>
       <c r="AL39" s="36"/>
@@ -15263,47 +15192,47 @@
       <c r="D40" s="84">
         <v>1</v>
       </c>
-      <c r="E40" s="245" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="246"/>
-      <c r="G40" s="246"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="263" t="s">
+      <c r="E40" s="285" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="286"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="264"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="273" t="s">
-        <v>104</v>
-      </c>
-      <c r="M40" s="273"/>
-      <c r="N40" s="273"/>
-      <c r="O40" s="273"/>
-      <c r="P40" s="273"/>
-      <c r="Q40" s="245" t="s">
-        <v>161</v>
-      </c>
-      <c r="R40" s="246"/>
-      <c r="S40" s="246"/>
-      <c r="T40" s="247"/>
-      <c r="U40" s="263" t="s">
-        <v>162</v>
-      </c>
-      <c r="V40" s="264"/>
-      <c r="W40" s="265"/>
-      <c r="X40" s="257" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y40" s="258"/>
-      <c r="Z40" s="258"/>
-      <c r="AA40" s="258"/>
-      <c r="AB40" s="258"/>
-      <c r="AC40" s="258"/>
-      <c r="AD40" s="258"/>
-      <c r="AE40" s="259"/>
+      <c r="J40" s="249"/>
+      <c r="K40" s="250"/>
+      <c r="L40" s="270" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="270"/>
+      <c r="N40" s="270"/>
+      <c r="O40" s="270"/>
+      <c r="P40" s="270"/>
+      <c r="Q40" s="285" t="s">
+        <v>157</v>
+      </c>
+      <c r="R40" s="286"/>
+      <c r="S40" s="286"/>
+      <c r="T40" s="287"/>
+      <c r="U40" s="248" t="s">
+        <v>158</v>
+      </c>
+      <c r="V40" s="249"/>
+      <c r="W40" s="250"/>
+      <c r="X40" s="245" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y40" s="246"/>
+      <c r="Z40" s="246"/>
+      <c r="AA40" s="246"/>
+      <c r="AB40" s="246"/>
+      <c r="AC40" s="246"/>
+      <c r="AD40" s="246"/>
+      <c r="AE40" s="247"/>
       <c r="AF40" s="103" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AG40" s="104"/>
       <c r="AH40" s="105"/>
@@ -15319,37 +15248,37 @@
       <c r="D41" s="84">
         <v>2</v>
       </c>
-      <c r="E41" s="248"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="249"/>
-      <c r="H41" s="250"/>
-      <c r="I41" s="266"/>
-      <c r="J41" s="267"/>
-      <c r="K41" s="268"/>
-      <c r="L41" s="273" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" s="273"/>
-      <c r="N41" s="273"/>
-      <c r="O41" s="273"/>
-      <c r="P41" s="273"/>
-      <c r="Q41" s="248"/>
-      <c r="R41" s="249"/>
-      <c r="S41" s="249"/>
-      <c r="T41" s="250"/>
-      <c r="U41" s="266"/>
-      <c r="V41" s="267"/>
-      <c r="W41" s="268"/>
-      <c r="X41" s="257" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y41" s="258"/>
-      <c r="Z41" s="258"/>
-      <c r="AA41" s="258"/>
-      <c r="AB41" s="258"/>
-      <c r="AC41" s="258"/>
-      <c r="AD41" s="258"/>
-      <c r="AE41" s="259"/>
+      <c r="E41" s="288"/>
+      <c r="F41" s="289"/>
+      <c r="G41" s="289"/>
+      <c r="H41" s="290"/>
+      <c r="I41" s="251"/>
+      <c r="J41" s="252"/>
+      <c r="K41" s="253"/>
+      <c r="L41" s="270" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="270"/>
+      <c r="N41" s="270"/>
+      <c r="O41" s="270"/>
+      <c r="P41" s="270"/>
+      <c r="Q41" s="288"/>
+      <c r="R41" s="289"/>
+      <c r="S41" s="289"/>
+      <c r="T41" s="290"/>
+      <c r="U41" s="251"/>
+      <c r="V41" s="252"/>
+      <c r="W41" s="253"/>
+      <c r="X41" s="245" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y41" s="246"/>
+      <c r="Z41" s="246"/>
+      <c r="AA41" s="246"/>
+      <c r="AB41" s="246"/>
+      <c r="AC41" s="246"/>
+      <c r="AD41" s="246"/>
+      <c r="AE41" s="247"/>
       <c r="AF41" s="106"/>
       <c r="AG41" s="107"/>
       <c r="AH41" s="108"/>
@@ -15365,37 +15294,37 @@
       <c r="D42" s="84">
         <v>3</v>
       </c>
-      <c r="E42" s="248"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="249"/>
-      <c r="H42" s="250"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="267"/>
-      <c r="K42" s="268"/>
-      <c r="L42" s="273" t="s">
-        <v>106</v>
-      </c>
-      <c r="M42" s="273"/>
-      <c r="N42" s="273"/>
-      <c r="O42" s="273"/>
-      <c r="P42" s="273"/>
-      <c r="Q42" s="248"/>
-      <c r="R42" s="249"/>
-      <c r="S42" s="249"/>
-      <c r="T42" s="250"/>
-      <c r="U42" s="266"/>
-      <c r="V42" s="267"/>
-      <c r="W42" s="268"/>
-      <c r="X42" s="257" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y42" s="258"/>
-      <c r="Z42" s="258"/>
-      <c r="AA42" s="258"/>
-      <c r="AB42" s="258"/>
-      <c r="AC42" s="258"/>
-      <c r="AD42" s="258"/>
-      <c r="AE42" s="259"/>
+      <c r="E42" s="288"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="251"/>
+      <c r="J42" s="252"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="270" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="270"/>
+      <c r="N42" s="270"/>
+      <c r="O42" s="270"/>
+      <c r="P42" s="270"/>
+      <c r="Q42" s="288"/>
+      <c r="R42" s="289"/>
+      <c r="S42" s="289"/>
+      <c r="T42" s="290"/>
+      <c r="U42" s="251"/>
+      <c r="V42" s="252"/>
+      <c r="W42" s="253"/>
+      <c r="X42" s="245" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y42" s="246"/>
+      <c r="Z42" s="246"/>
+      <c r="AA42" s="246"/>
+      <c r="AB42" s="246"/>
+      <c r="AC42" s="246"/>
+      <c r="AD42" s="246"/>
+      <c r="AE42" s="247"/>
       <c r="AF42" s="106"/>
       <c r="AG42" s="107"/>
       <c r="AH42" s="108"/>
@@ -15411,37 +15340,37 @@
       <c r="D43" s="84">
         <v>4</v>
       </c>
-      <c r="E43" s="248"/>
-      <c r="F43" s="249"/>
-      <c r="G43" s="249"/>
-      <c r="H43" s="250"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="267"/>
-      <c r="K43" s="268"/>
-      <c r="L43" s="296" t="s">
-        <v>102</v>
-      </c>
-      <c r="M43" s="273"/>
-      <c r="N43" s="273"/>
-      <c r="O43" s="273"/>
-      <c r="P43" s="273"/>
-      <c r="Q43" s="248"/>
-      <c r="R43" s="249"/>
-      <c r="S43" s="249"/>
-      <c r="T43" s="250"/>
-      <c r="U43" s="266"/>
-      <c r="V43" s="267"/>
-      <c r="W43" s="268"/>
-      <c r="X43" s="257" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y43" s="258"/>
-      <c r="Z43" s="258"/>
-      <c r="AA43" s="258"/>
-      <c r="AB43" s="258"/>
-      <c r="AC43" s="258"/>
-      <c r="AD43" s="258"/>
-      <c r="AE43" s="259"/>
+      <c r="E43" s="288"/>
+      <c r="F43" s="289"/>
+      <c r="G43" s="289"/>
+      <c r="H43" s="290"/>
+      <c r="I43" s="251"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="253"/>
+      <c r="L43" s="271" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="270"/>
+      <c r="N43" s="270"/>
+      <c r="O43" s="270"/>
+      <c r="P43" s="270"/>
+      <c r="Q43" s="288"/>
+      <c r="R43" s="289"/>
+      <c r="S43" s="289"/>
+      <c r="T43" s="290"/>
+      <c r="U43" s="251"/>
+      <c r="V43" s="252"/>
+      <c r="W43" s="253"/>
+      <c r="X43" s="245" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y43" s="246"/>
+      <c r="Z43" s="246"/>
+      <c r="AA43" s="246"/>
+      <c r="AB43" s="246"/>
+      <c r="AC43" s="246"/>
+      <c r="AD43" s="246"/>
+      <c r="AE43" s="247"/>
       <c r="AF43" s="106"/>
       <c r="AG43" s="107"/>
       <c r="AH43" s="108"/>
@@ -15457,37 +15386,37 @@
       <c r="D44" s="84">
         <v>5</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="252"/>
-      <c r="H44" s="253"/>
-      <c r="I44" s="269"/>
-      <c r="J44" s="270"/>
-      <c r="K44" s="271"/>
-      <c r="L44" s="295" t="s">
-        <v>103</v>
-      </c>
-      <c r="M44" s="295"/>
-      <c r="N44" s="295"/>
-      <c r="O44" s="295"/>
-      <c r="P44" s="295"/>
-      <c r="Q44" s="251"/>
-      <c r="R44" s="252"/>
-      <c r="S44" s="252"/>
-      <c r="T44" s="253"/>
-      <c r="U44" s="269"/>
-      <c r="V44" s="270"/>
-      <c r="W44" s="271"/>
-      <c r="X44" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y44" s="258"/>
-      <c r="Z44" s="258"/>
-      <c r="AA44" s="258"/>
-      <c r="AB44" s="258"/>
-      <c r="AC44" s="258"/>
-      <c r="AD44" s="258"/>
-      <c r="AE44" s="259"/>
+      <c r="E44" s="291"/>
+      <c r="F44" s="292"/>
+      <c r="G44" s="292"/>
+      <c r="H44" s="293"/>
+      <c r="I44" s="254"/>
+      <c r="J44" s="255"/>
+      <c r="K44" s="256"/>
+      <c r="L44" s="269" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="269"/>
+      <c r="N44" s="269"/>
+      <c r="O44" s="269"/>
+      <c r="P44" s="269"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="292"/>
+      <c r="S44" s="292"/>
+      <c r="T44" s="293"/>
+      <c r="U44" s="254"/>
+      <c r="V44" s="255"/>
+      <c r="W44" s="256"/>
+      <c r="X44" s="245" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y44" s="246"/>
+      <c r="Z44" s="246"/>
+      <c r="AA44" s="246"/>
+      <c r="AB44" s="246"/>
+      <c r="AC44" s="246"/>
+      <c r="AD44" s="246"/>
+      <c r="AE44" s="247"/>
       <c r="AF44" s="109"/>
       <c r="AG44" s="110"/>
       <c r="AH44" s="111"/>
@@ -15498,7 +15427,7 @@
     </row>
     <row r="45" spans="1:39">
       <c r="D45" s="119" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E45" s="120"/>
       <c r="F45" s="120"/>
@@ -15549,7 +15478,7 @@
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
       <c r="E47" s="36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -15574,12 +15503,12 @@
     </row>
     <row r="49" spans="4:22">
       <c r="E49" s="34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="4:22">
       <c r="D52" s="56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="4:22">
@@ -15604,7 +15533,7 @@
     </row>
     <row r="54" spans="4:22">
       <c r="E54" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -15647,7 +15576,7 @@
     <row r="56" spans="4:22">
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
@@ -15708,12 +15637,12 @@
     </row>
     <row r="59" spans="4:22">
       <c r="D59" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="4:22">
       <c r="E61" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F61" s="36"/>
     </row>
@@ -15724,7 +15653,7 @@
     <row r="63" spans="4:22">
       <c r="E63" s="36"/>
       <c r="F63" s="36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="4:22">
@@ -15733,12 +15662,12 @@
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="E68" s="36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F68" s="36"/>
     </row>
@@ -15749,45 +15678,11 @@
     <row r="70" spans="4:6">
       <c r="E70" s="36"/>
       <c r="F70" s="36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -15804,6 +15699,40 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15828,7 +15757,7 @@
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -15838,31 +15767,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="188" t="str">
+      <c r="A1" s="159" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="144" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -15874,48 +15803,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="141" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="179" t="str">
+      <c r="AA1" s="159" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="181"/>
-      <c r="AG1" s="182">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="147">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="149"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="141" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="188" t="str">
+      <c r="A2" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="167"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -15924,48 +15853,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="141" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="179" t="str">
+      <c r="AA2" s="159" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="149"/>
     </row>
     <row r="3" spans="1:35" ht="11.25">
-      <c r="A3" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="188" t="str">
+      <c r="A3" s="159" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="152"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="170"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -15974,27 +15903,27 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="179" t="str">
+      <c r="AA3" s="159"/>
+      <c r="AB3" s="161"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="180"/>
-      <c r="AE3" s="180"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="182" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="AH3" s="148"/>
+      <c r="AI3" s="149"/>
     </row>
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -16036,7 +15965,7 @@
     <row r="8" spans="1:35" ht="11.25">
       <c r="C8" s="56"/>
       <c r="D8" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
@@ -16098,7 +16027,7 @@
     <row r="10" spans="1:35" ht="11.25">
       <c r="C10" s="56"/>
       <c r="D10" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
@@ -16161,7 +16090,7 @@
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="119" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F12" s="120"/>
       <c r="G12" s="120"/>
@@ -16222,7 +16151,7 @@
     <row r="14" spans="1:35" ht="11.25">
       <c r="C14" s="56"/>
       <c r="D14" s="56" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="120"/>
@@ -16285,7 +16214,7 @@
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="119" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F16" s="120"/>
       <c r="G16" s="120"/>
@@ -16345,592 +16274,592 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1">
       <c r="D18" s="34" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1">
       <c r="E20" s="55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1">
       <c r="E21" s="55"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1">
-      <c r="E22" s="290" t="s">
+      <c r="E22" s="279" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="291"/>
-      <c r="G22" s="291"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="291"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="290" t="s">
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
+      <c r="H22" s="280"/>
+      <c r="I22" s="280"/>
+      <c r="J22" s="281"/>
+      <c r="K22" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="292"/>
-      <c r="M22" s="290" t="s">
+      <c r="L22" s="281"/>
+      <c r="M22" s="279" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="291"/>
-      <c r="O22" s="291"/>
-      <c r="P22" s="291"/>
-      <c r="Q22" s="291"/>
-      <c r="R22" s="291"/>
-      <c r="S22" s="291"/>
-      <c r="T22" s="291"/>
-      <c r="U22" s="291"/>
-      <c r="V22" s="291"/>
-      <c r="W22" s="291"/>
-      <c r="X22" s="291"/>
-      <c r="Y22" s="291"/>
-      <c r="Z22" s="291"/>
-      <c r="AA22" s="291"/>
-      <c r="AB22" s="291"/>
-      <c r="AC22" s="291"/>
-      <c r="AD22" s="291"/>
-      <c r="AE22" s="291"/>
-      <c r="AF22" s="291"/>
-      <c r="AG22" s="291"/>
-      <c r="AH22" s="292"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="280"/>
+      <c r="Q22" s="280"/>
+      <c r="R22" s="280"/>
+      <c r="S22" s="280"/>
+      <c r="T22" s="280"/>
+      <c r="U22" s="280"/>
+      <c r="V22" s="280"/>
+      <c r="W22" s="280"/>
+      <c r="X22" s="280"/>
+      <c r="Y22" s="280"/>
+      <c r="Z22" s="280"/>
+      <c r="AA22" s="280"/>
+      <c r="AB22" s="280"/>
+      <c r="AC22" s="280"/>
+      <c r="AD22" s="280"/>
+      <c r="AE22" s="280"/>
+      <c r="AF22" s="280"/>
+      <c r="AG22" s="280"/>
+      <c r="AH22" s="281"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1">
-      <c r="E23" s="297" t="s">
+      <c r="E23" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="298"/>
-      <c r="I23" s="298"/>
-      <c r="J23" s="299"/>
-      <c r="K23" s="189" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="190"/>
-      <c r="M23" s="305" t="s">
-        <v>150</v>
-      </c>
-      <c r="N23" s="306"/>
-      <c r="O23" s="306"/>
-      <c r="P23" s="306"/>
-      <c r="Q23" s="306"/>
-      <c r="R23" s="306"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="306"/>
-      <c r="V23" s="306"/>
-      <c r="W23" s="306"/>
-      <c r="X23" s="306"/>
-      <c r="Y23" s="306"/>
-      <c r="Z23" s="306"/>
-      <c r="AA23" s="306"/>
-      <c r="AB23" s="306"/>
-      <c r="AC23" s="306"/>
-      <c r="AD23" s="306"/>
-      <c r="AE23" s="306"/>
-      <c r="AF23" s="306"/>
-      <c r="AG23" s="306"/>
-      <c r="AH23" s="307"/>
+      <c r="F23" s="301"/>
+      <c r="G23" s="301"/>
+      <c r="H23" s="301"/>
+      <c r="I23" s="301"/>
+      <c r="J23" s="302"/>
+      <c r="K23" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="130"/>
+      <c r="M23" s="324" t="s">
+        <v>146</v>
+      </c>
+      <c r="N23" s="325"/>
+      <c r="O23" s="325"/>
+      <c r="P23" s="325"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="325"/>
+      <c r="S23" s="325"/>
+      <c r="T23" s="325"/>
+      <c r="U23" s="325"/>
+      <c r="V23" s="325"/>
+      <c r="W23" s="325"/>
+      <c r="X23" s="325"/>
+      <c r="Y23" s="325"/>
+      <c r="Z23" s="325"/>
+      <c r="AA23" s="325"/>
+      <c r="AB23" s="325"/>
+      <c r="AC23" s="325"/>
+      <c r="AD23" s="325"/>
+      <c r="AE23" s="325"/>
+      <c r="AF23" s="325"/>
+      <c r="AG23" s="325"/>
+      <c r="AH23" s="326"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1">
-      <c r="E24" s="300"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="301"/>
-      <c r="I24" s="301"/>
-      <c r="J24" s="302"/>
-      <c r="K24" s="303"/>
-      <c r="L24" s="304"/>
-      <c r="M24" s="308"/>
-      <c r="N24" s="309"/>
-      <c r="O24" s="309"/>
-      <c r="P24" s="309"/>
-      <c r="Q24" s="309"/>
-      <c r="R24" s="309"/>
-      <c r="S24" s="309"/>
-      <c r="T24" s="309"/>
-      <c r="U24" s="309"/>
-      <c r="V24" s="309"/>
-      <c r="W24" s="309"/>
-      <c r="X24" s="309"/>
-      <c r="Y24" s="309"/>
-      <c r="Z24" s="309"/>
-      <c r="AA24" s="309"/>
-      <c r="AB24" s="309"/>
-      <c r="AC24" s="309"/>
-      <c r="AD24" s="309"/>
-      <c r="AE24" s="309"/>
-      <c r="AF24" s="309"/>
-      <c r="AG24" s="309"/>
-      <c r="AH24" s="310"/>
+      <c r="E24" s="303"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="304"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="305"/>
+      <c r="K24" s="306"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="328"/>
+      <c r="O24" s="328"/>
+      <c r="P24" s="328"/>
+      <c r="Q24" s="328"/>
+      <c r="R24" s="328"/>
+      <c r="S24" s="328"/>
+      <c r="T24" s="328"/>
+      <c r="U24" s="328"/>
+      <c r="V24" s="328"/>
+      <c r="W24" s="328"/>
+      <c r="X24" s="328"/>
+      <c r="Y24" s="328"/>
+      <c r="Z24" s="328"/>
+      <c r="AA24" s="328"/>
+      <c r="AB24" s="328"/>
+      <c r="AC24" s="328"/>
+      <c r="AD24" s="328"/>
+      <c r="AE24" s="328"/>
+      <c r="AF24" s="328"/>
+      <c r="AG24" s="328"/>
+      <c r="AH24" s="329"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1">
-      <c r="E25" s="317" t="s">
+      <c r="E25" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="315"/>
-      <c r="G25" s="315"/>
-      <c r="H25" s="315"/>
-      <c r="I25" s="315"/>
-      <c r="J25" s="312"/>
-      <c r="K25" s="321" t="s">
-        <v>206</v>
-      </c>
-      <c r="L25" s="322"/>
-      <c r="M25" s="277" t="s">
-        <v>151</v>
-      </c>
-      <c r="N25" s="278"/>
-      <c r="O25" s="278"/>
-      <c r="P25" s="278"/>
-      <c r="Q25" s="278"/>
-      <c r="R25" s="278"/>
-      <c r="S25" s="278"/>
-      <c r="T25" s="278"/>
-      <c r="U25" s="278"/>
-      <c r="V25" s="278"/>
-      <c r="W25" s="278"/>
-      <c r="X25" s="278"/>
-      <c r="Y25" s="278"/>
-      <c r="Z25" s="278"/>
-      <c r="AA25" s="278"/>
-      <c r="AB25" s="278"/>
-      <c r="AC25" s="278"/>
-      <c r="AD25" s="278"/>
-      <c r="AE25" s="278"/>
-      <c r="AF25" s="278"/>
-      <c r="AG25" s="278"/>
-      <c r="AH25" s="279"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="309"/>
+      <c r="H25" s="309"/>
+      <c r="I25" s="309"/>
+      <c r="J25" s="310"/>
+      <c r="K25" s="317" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="318"/>
+      <c r="M25" s="272" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="273"/>
+      <c r="O25" s="273"/>
+      <c r="P25" s="273"/>
+      <c r="Q25" s="273"/>
+      <c r="R25" s="273"/>
+      <c r="S25" s="273"/>
+      <c r="T25" s="273"/>
+      <c r="U25" s="273"/>
+      <c r="V25" s="273"/>
+      <c r="W25" s="273"/>
+      <c r="X25" s="273"/>
+      <c r="Y25" s="273"/>
+      <c r="Z25" s="273"/>
+      <c r="AA25" s="273"/>
+      <c r="AB25" s="273"/>
+      <c r="AC25" s="273"/>
+      <c r="AD25" s="273"/>
+      <c r="AE25" s="273"/>
+      <c r="AF25" s="273"/>
+      <c r="AG25" s="273"/>
+      <c r="AH25" s="274"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1">
-      <c r="E26" s="318"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="320"/>
-      <c r="K26" s="323"/>
-      <c r="L26" s="324"/>
-      <c r="M26" s="280"/>
-      <c r="N26" s="281"/>
-      <c r="O26" s="281"/>
-      <c r="P26" s="281"/>
-      <c r="Q26" s="281"/>
-      <c r="R26" s="281"/>
-      <c r="S26" s="281"/>
-      <c r="T26" s="281"/>
-      <c r="U26" s="281"/>
-      <c r="V26" s="281"/>
-      <c r="W26" s="281"/>
-      <c r="X26" s="281"/>
-      <c r="Y26" s="281"/>
-      <c r="Z26" s="281"/>
-      <c r="AA26" s="281"/>
-      <c r="AB26" s="281"/>
-      <c r="AC26" s="281"/>
-      <c r="AD26" s="281"/>
-      <c r="AE26" s="281"/>
-      <c r="AF26" s="281"/>
-      <c r="AG26" s="281"/>
-      <c r="AH26" s="282"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="312"/>
+      <c r="G26" s="312"/>
+      <c r="H26" s="312"/>
+      <c r="I26" s="312"/>
+      <c r="J26" s="313"/>
+      <c r="K26" s="319"/>
+      <c r="L26" s="320"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="261"/>
+      <c r="S26" s="261"/>
+      <c r="T26" s="261"/>
+      <c r="U26" s="261"/>
+      <c r="V26" s="261"/>
+      <c r="W26" s="261"/>
+      <c r="X26" s="261"/>
+      <c r="Y26" s="261"/>
+      <c r="Z26" s="261"/>
+      <c r="AA26" s="261"/>
+      <c r="AB26" s="261"/>
+      <c r="AC26" s="261"/>
+      <c r="AD26" s="261"/>
+      <c r="AE26" s="261"/>
+      <c r="AF26" s="261"/>
+      <c r="AG26" s="261"/>
+      <c r="AH26" s="262"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1">
-      <c r="E27" s="313"/>
-      <c r="F27" s="316"/>
-      <c r="G27" s="316"/>
-      <c r="H27" s="316"/>
-      <c r="I27" s="316"/>
-      <c r="J27" s="314"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="326"/>
-      <c r="M27" s="283"/>
-      <c r="N27" s="284"/>
-      <c r="O27" s="284"/>
-      <c r="P27" s="284"/>
-      <c r="Q27" s="284"/>
-      <c r="R27" s="284"/>
-      <c r="S27" s="284"/>
-      <c r="T27" s="284"/>
-      <c r="U27" s="284"/>
-      <c r="V27" s="284"/>
-      <c r="W27" s="284"/>
-      <c r="X27" s="284"/>
-      <c r="Y27" s="284"/>
-      <c r="Z27" s="284"/>
-      <c r="AA27" s="284"/>
-      <c r="AB27" s="284"/>
-      <c r="AC27" s="284"/>
-      <c r="AD27" s="284"/>
-      <c r="AE27" s="284"/>
-      <c r="AF27" s="284"/>
-      <c r="AG27" s="284"/>
-      <c r="AH27" s="285"/>
+      <c r="E27" s="314"/>
+      <c r="F27" s="315"/>
+      <c r="G27" s="315"/>
+      <c r="H27" s="315"/>
+      <c r="I27" s="315"/>
+      <c r="J27" s="316"/>
+      <c r="K27" s="321"/>
+      <c r="L27" s="322"/>
+      <c r="M27" s="275"/>
+      <c r="N27" s="276"/>
+      <c r="O27" s="276"/>
+      <c r="P27" s="276"/>
+      <c r="Q27" s="276"/>
+      <c r="R27" s="276"/>
+      <c r="S27" s="276"/>
+      <c r="T27" s="276"/>
+      <c r="U27" s="276"/>
+      <c r="V27" s="276"/>
+      <c r="W27" s="276"/>
+      <c r="X27" s="276"/>
+      <c r="Y27" s="276"/>
+      <c r="Z27" s="276"/>
+      <c r="AA27" s="276"/>
+      <c r="AB27" s="276"/>
+      <c r="AC27" s="276"/>
+      <c r="AD27" s="276"/>
+      <c r="AE27" s="276"/>
+      <c r="AF27" s="276"/>
+      <c r="AG27" s="276"/>
+      <c r="AH27" s="277"/>
     </row>
     <row r="29" spans="3:34" ht="15" customHeight="1">
       <c r="E29" s="121" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1">
       <c r="E30" s="55"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1">
-      <c r="E31" s="290" t="s">
+      <c r="E31" s="279" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="291"/>
-      <c r="G31" s="291"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="291"/>
-      <c r="J31" s="292"/>
-      <c r="K31" s="290" t="s">
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="281"/>
+      <c r="K31" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="292"/>
-      <c r="M31" s="290" t="s">
+      <c r="L31" s="281"/>
+      <c r="M31" s="279" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="291"/>
-      <c r="O31" s="291"/>
-      <c r="P31" s="291"/>
-      <c r="Q31" s="291"/>
-      <c r="R31" s="291"/>
-      <c r="S31" s="291"/>
-      <c r="T31" s="291"/>
-      <c r="U31" s="291"/>
-      <c r="V31" s="291"/>
-      <c r="W31" s="291"/>
-      <c r="X31" s="291"/>
-      <c r="Y31" s="291"/>
-      <c r="Z31" s="291"/>
-      <c r="AA31" s="291"/>
-      <c r="AB31" s="291"/>
-      <c r="AC31" s="291"/>
-      <c r="AD31" s="291"/>
-      <c r="AE31" s="291"/>
-      <c r="AF31" s="291"/>
-      <c r="AG31" s="291"/>
-      <c r="AH31" s="292"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
+      <c r="P31" s="280"/>
+      <c r="Q31" s="280"/>
+      <c r="R31" s="280"/>
+      <c r="S31" s="280"/>
+      <c r="T31" s="280"/>
+      <c r="U31" s="280"/>
+      <c r="V31" s="280"/>
+      <c r="W31" s="280"/>
+      <c r="X31" s="280"/>
+      <c r="Y31" s="280"/>
+      <c r="Z31" s="280"/>
+      <c r="AA31" s="280"/>
+      <c r="AB31" s="280"/>
+      <c r="AC31" s="280"/>
+      <c r="AD31" s="280"/>
+      <c r="AE31" s="280"/>
+      <c r="AF31" s="280"/>
+      <c r="AG31" s="280"/>
+      <c r="AH31" s="281"/>
     </row>
     <row r="32" spans="3:34" ht="15" customHeight="1">
-      <c r="E32" s="297" t="s">
+      <c r="E32" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="298"/>
-      <c r="J32" s="299"/>
-      <c r="K32" s="189" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="190"/>
-      <c r="M32" s="305" t="s">
-        <v>150</v>
-      </c>
-      <c r="N32" s="306"/>
-      <c r="O32" s="306"/>
-      <c r="P32" s="306"/>
-      <c r="Q32" s="306"/>
-      <c r="R32" s="306"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="306"/>
-      <c r="V32" s="306"/>
-      <c r="W32" s="306"/>
-      <c r="X32" s="306"/>
-      <c r="Y32" s="306"/>
-      <c r="Z32" s="306"/>
-      <c r="AA32" s="306"/>
-      <c r="AB32" s="306"/>
-      <c r="AC32" s="306"/>
-      <c r="AD32" s="306"/>
-      <c r="AE32" s="306"/>
-      <c r="AF32" s="306"/>
-      <c r="AG32" s="306"/>
-      <c r="AH32" s="307"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="301"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="301"/>
+      <c r="J32" s="302"/>
+      <c r="K32" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="130"/>
+      <c r="M32" s="324" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" s="325"/>
+      <c r="O32" s="325"/>
+      <c r="P32" s="325"/>
+      <c r="Q32" s="325"/>
+      <c r="R32" s="325"/>
+      <c r="S32" s="325"/>
+      <c r="T32" s="325"/>
+      <c r="U32" s="325"/>
+      <c r="V32" s="325"/>
+      <c r="W32" s="325"/>
+      <c r="X32" s="325"/>
+      <c r="Y32" s="325"/>
+      <c r="Z32" s="325"/>
+      <c r="AA32" s="325"/>
+      <c r="AB32" s="325"/>
+      <c r="AC32" s="325"/>
+      <c r="AD32" s="325"/>
+      <c r="AE32" s="325"/>
+      <c r="AF32" s="325"/>
+      <c r="AG32" s="325"/>
+      <c r="AH32" s="326"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1">
-      <c r="E33" s="300"/>
-      <c r="F33" s="301"/>
-      <c r="G33" s="301"/>
-      <c r="H33" s="301"/>
-      <c r="I33" s="301"/>
-      <c r="J33" s="302"/>
-      <c r="K33" s="303"/>
-      <c r="L33" s="304"/>
-      <c r="M33" s="308"/>
-      <c r="N33" s="309"/>
-      <c r="O33" s="309"/>
-      <c r="P33" s="309"/>
-      <c r="Q33" s="309"/>
-      <c r="R33" s="309"/>
-      <c r="S33" s="309"/>
-      <c r="T33" s="309"/>
-      <c r="U33" s="309"/>
-      <c r="V33" s="309"/>
-      <c r="W33" s="309"/>
-      <c r="X33" s="309"/>
-      <c r="Y33" s="309"/>
-      <c r="Z33" s="309"/>
-      <c r="AA33" s="309"/>
-      <c r="AB33" s="309"/>
-      <c r="AC33" s="309"/>
-      <c r="AD33" s="309"/>
-      <c r="AE33" s="309"/>
-      <c r="AF33" s="309"/>
-      <c r="AG33" s="309"/>
-      <c r="AH33" s="310"/>
+      <c r="E33" s="303"/>
+      <c r="F33" s="304"/>
+      <c r="G33" s="304"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="304"/>
+      <c r="J33" s="305"/>
+      <c r="K33" s="306"/>
+      <c r="L33" s="307"/>
+      <c r="M33" s="327"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="328"/>
+      <c r="P33" s="328"/>
+      <c r="Q33" s="328"/>
+      <c r="R33" s="328"/>
+      <c r="S33" s="328"/>
+      <c r="T33" s="328"/>
+      <c r="U33" s="328"/>
+      <c r="V33" s="328"/>
+      <c r="W33" s="328"/>
+      <c r="X33" s="328"/>
+      <c r="Y33" s="328"/>
+      <c r="Z33" s="328"/>
+      <c r="AA33" s="328"/>
+      <c r="AB33" s="328"/>
+      <c r="AC33" s="328"/>
+      <c r="AD33" s="328"/>
+      <c r="AE33" s="328"/>
+      <c r="AF33" s="328"/>
+      <c r="AG33" s="328"/>
+      <c r="AH33" s="329"/>
     </row>
     <row r="34" spans="5:34" ht="15" customHeight="1">
-      <c r="E34" s="317" t="s">
+      <c r="E34" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="315"/>
-      <c r="G34" s="315"/>
-      <c r="H34" s="315"/>
-      <c r="I34" s="315"/>
-      <c r="J34" s="312"/>
-      <c r="K34" s="321" t="s">
+      <c r="F34" s="309"/>
+      <c r="G34" s="309"/>
+      <c r="H34" s="309"/>
+      <c r="I34" s="309"/>
+      <c r="J34" s="310"/>
+      <c r="K34" s="317" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="318"/>
+      <c r="M34" s="272" t="s">
+        <v>148</v>
+      </c>
+      <c r="N34" s="273"/>
+      <c r="O34" s="273"/>
+      <c r="P34" s="273"/>
+      <c r="Q34" s="273"/>
+      <c r="R34" s="273"/>
+      <c r="S34" s="273"/>
+      <c r="T34" s="273"/>
+      <c r="U34" s="273"/>
+      <c r="V34" s="273"/>
+      <c r="W34" s="273"/>
+      <c r="X34" s="273"/>
+      <c r="Y34" s="273"/>
+      <c r="Z34" s="273"/>
+      <c r="AA34" s="273"/>
+      <c r="AB34" s="273"/>
+      <c r="AC34" s="273"/>
+      <c r="AD34" s="273"/>
+      <c r="AE34" s="273"/>
+      <c r="AF34" s="273"/>
+      <c r="AG34" s="273"/>
+      <c r="AH34" s="274"/>
+    </row>
+    <row r="35" spans="5:34" ht="15" customHeight="1">
+      <c r="E35" s="311"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="312"/>
+      <c r="I35" s="312"/>
+      <c r="J35" s="313"/>
+      <c r="K35" s="319"/>
+      <c r="L35" s="320"/>
+      <c r="M35" s="260"/>
+      <c r="N35" s="261"/>
+      <c r="O35" s="261"/>
+      <c r="P35" s="261"/>
+      <c r="Q35" s="261"/>
+      <c r="R35" s="261"/>
+      <c r="S35" s="261"/>
+      <c r="T35" s="261"/>
+      <c r="U35" s="261"/>
+      <c r="V35" s="261"/>
+      <c r="W35" s="261"/>
+      <c r="X35" s="261"/>
+      <c r="Y35" s="261"/>
+      <c r="Z35" s="261"/>
+      <c r="AA35" s="261"/>
+      <c r="AB35" s="261"/>
+      <c r="AC35" s="261"/>
+      <c r="AD35" s="261"/>
+      <c r="AE35" s="261"/>
+      <c r="AF35" s="261"/>
+      <c r="AG35" s="261"/>
+      <c r="AH35" s="262"/>
+    </row>
+    <row r="36" spans="5:34" ht="15" customHeight="1">
+      <c r="E36" s="311"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="312"/>
+      <c r="J36" s="313"/>
+      <c r="K36" s="319"/>
+      <c r="L36" s="320"/>
+      <c r="M36" s="260"/>
+      <c r="N36" s="261"/>
+      <c r="O36" s="261"/>
+      <c r="P36" s="261"/>
+      <c r="Q36" s="261"/>
+      <c r="R36" s="261"/>
+      <c r="S36" s="261"/>
+      <c r="T36" s="261"/>
+      <c r="U36" s="261"/>
+      <c r="V36" s="261"/>
+      <c r="W36" s="261"/>
+      <c r="X36" s="261"/>
+      <c r="Y36" s="261"/>
+      <c r="Z36" s="261"/>
+      <c r="AA36" s="261"/>
+      <c r="AB36" s="261"/>
+      <c r="AC36" s="261"/>
+      <c r="AD36" s="261"/>
+      <c r="AE36" s="261"/>
+      <c r="AF36" s="261"/>
+      <c r="AG36" s="261"/>
+      <c r="AH36" s="262"/>
+    </row>
+    <row r="37" spans="5:34" ht="15" customHeight="1">
+      <c r="E37" s="314"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="315"/>
+      <c r="H37" s="315"/>
+      <c r="I37" s="315"/>
+      <c r="J37" s="316"/>
+      <c r="K37" s="321"/>
+      <c r="L37" s="322"/>
+      <c r="M37" s="275"/>
+      <c r="N37" s="276"/>
+      <c r="O37" s="276"/>
+      <c r="P37" s="276"/>
+      <c r="Q37" s="276"/>
+      <c r="R37" s="276"/>
+      <c r="S37" s="276"/>
+      <c r="T37" s="276"/>
+      <c r="U37" s="276"/>
+      <c r="V37" s="276"/>
+      <c r="W37" s="276"/>
+      <c r="X37" s="276"/>
+      <c r="Y37" s="276"/>
+      <c r="Z37" s="276"/>
+      <c r="AA37" s="276"/>
+      <c r="AB37" s="276"/>
+      <c r="AC37" s="276"/>
+      <c r="AD37" s="276"/>
+      <c r="AE37" s="276"/>
+      <c r="AF37" s="276"/>
+      <c r="AG37" s="276"/>
+      <c r="AH37" s="277"/>
+    </row>
+    <row r="38" spans="5:34" ht="15" customHeight="1">
+      <c r="E38" s="323" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="322"/>
-      <c r="M34" s="277" t="s">
-        <v>152</v>
-      </c>
-      <c r="N34" s="278"/>
-      <c r="O34" s="278"/>
-      <c r="P34" s="278"/>
-      <c r="Q34" s="278"/>
-      <c r="R34" s="278"/>
-      <c r="S34" s="278"/>
-      <c r="T34" s="278"/>
-      <c r="U34" s="278"/>
-      <c r="V34" s="278"/>
-      <c r="W34" s="278"/>
-      <c r="X34" s="278"/>
-      <c r="Y34" s="278"/>
-      <c r="Z34" s="278"/>
-      <c r="AA34" s="278"/>
-      <c r="AB34" s="278"/>
-      <c r="AC34" s="278"/>
-      <c r="AD34" s="278"/>
-      <c r="AE34" s="278"/>
-      <c r="AF34" s="278"/>
-      <c r="AG34" s="278"/>
-      <c r="AH34" s="279"/>
-    </row>
-    <row r="35" spans="5:34" ht="15" customHeight="1">
-      <c r="E35" s="318"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="319"/>
-      <c r="J35" s="320"/>
-      <c r="K35" s="323"/>
-      <c r="L35" s="324"/>
-      <c r="M35" s="280"/>
-      <c r="N35" s="281"/>
-      <c r="O35" s="281"/>
-      <c r="P35" s="281"/>
-      <c r="Q35" s="281"/>
-      <c r="R35" s="281"/>
-      <c r="S35" s="281"/>
-      <c r="T35" s="281"/>
-      <c r="U35" s="281"/>
-      <c r="V35" s="281"/>
-      <c r="W35" s="281"/>
-      <c r="X35" s="281"/>
-      <c r="Y35" s="281"/>
-      <c r="Z35" s="281"/>
-      <c r="AA35" s="281"/>
-      <c r="AB35" s="281"/>
-      <c r="AC35" s="281"/>
-      <c r="AD35" s="281"/>
-      <c r="AE35" s="281"/>
-      <c r="AF35" s="281"/>
-      <c r="AG35" s="281"/>
-      <c r="AH35" s="282"/>
-    </row>
-    <row r="36" spans="5:34" ht="15" customHeight="1">
-      <c r="E36" s="318"/>
-      <c r="F36" s="319"/>
-      <c r="G36" s="319"/>
-      <c r="H36" s="319"/>
-      <c r="I36" s="319"/>
-      <c r="J36" s="320"/>
-      <c r="K36" s="323"/>
-      <c r="L36" s="324"/>
-      <c r="M36" s="280"/>
-      <c r="N36" s="281"/>
-      <c r="O36" s="281"/>
-      <c r="P36" s="281"/>
-      <c r="Q36" s="281"/>
-      <c r="R36" s="281"/>
-      <c r="S36" s="281"/>
-      <c r="T36" s="281"/>
-      <c r="U36" s="281"/>
-      <c r="V36" s="281"/>
-      <c r="W36" s="281"/>
-      <c r="X36" s="281"/>
-      <c r="Y36" s="281"/>
-      <c r="Z36" s="281"/>
-      <c r="AA36" s="281"/>
-      <c r="AB36" s="281"/>
-      <c r="AC36" s="281"/>
-      <c r="AD36" s="281"/>
-      <c r="AE36" s="281"/>
-      <c r="AF36" s="281"/>
-      <c r="AG36" s="281"/>
-      <c r="AH36" s="282"/>
-    </row>
-    <row r="37" spans="5:34" ht="15" customHeight="1">
-      <c r="E37" s="313"/>
-      <c r="F37" s="316"/>
-      <c r="G37" s="316"/>
-      <c r="H37" s="316"/>
-      <c r="I37" s="316"/>
-      <c r="J37" s="314"/>
-      <c r="K37" s="325"/>
-      <c r="L37" s="326"/>
-      <c r="M37" s="283"/>
-      <c r="N37" s="284"/>
-      <c r="O37" s="284"/>
-      <c r="P37" s="284"/>
-      <c r="Q37" s="284"/>
-      <c r="R37" s="284"/>
-      <c r="S37" s="284"/>
-      <c r="T37" s="284"/>
-      <c r="U37" s="284"/>
-      <c r="V37" s="284"/>
-      <c r="W37" s="284"/>
-      <c r="X37" s="284"/>
-      <c r="Y37" s="284"/>
-      <c r="Z37" s="284"/>
-      <c r="AA37" s="284"/>
-      <c r="AB37" s="284"/>
-      <c r="AC37" s="284"/>
-      <c r="AD37" s="284"/>
-      <c r="AE37" s="284"/>
-      <c r="AF37" s="284"/>
-      <c r="AG37" s="284"/>
-      <c r="AH37" s="285"/>
-    </row>
-    <row r="38" spans="5:34" ht="15" customHeight="1">
-      <c r="E38" s="311" t="s">
+      <c r="F38" s="309"/>
+      <c r="G38" s="309"/>
+      <c r="H38" s="309"/>
+      <c r="I38" s="309"/>
+      <c r="J38" s="310"/>
+      <c r="K38" s="317" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="315"/>
-      <c r="G38" s="315"/>
-      <c r="H38" s="315"/>
-      <c r="I38" s="315"/>
-      <c r="J38" s="312"/>
-      <c r="K38" s="321" t="s">
-        <v>84</v>
-      </c>
-      <c r="L38" s="322"/>
-      <c r="M38" s="277" t="s">
-        <v>153</v>
-      </c>
-      <c r="N38" s="278"/>
-      <c r="O38" s="278"/>
-      <c r="P38" s="278"/>
-      <c r="Q38" s="278"/>
-      <c r="R38" s="278"/>
-      <c r="S38" s="278"/>
-      <c r="T38" s="278"/>
-      <c r="U38" s="278"/>
-      <c r="V38" s="278"/>
-      <c r="W38" s="278"/>
-      <c r="X38" s="278"/>
-      <c r="Y38" s="278"/>
-      <c r="Z38" s="278"/>
-      <c r="AA38" s="278"/>
-      <c r="AB38" s="278"/>
-      <c r="AC38" s="278"/>
-      <c r="AD38" s="278"/>
-      <c r="AE38" s="278"/>
-      <c r="AF38" s="278"/>
-      <c r="AG38" s="278"/>
-      <c r="AH38" s="279"/>
+      <c r="L38" s="318"/>
+      <c r="M38" s="272" t="s">
+        <v>149</v>
+      </c>
+      <c r="N38" s="273"/>
+      <c r="O38" s="273"/>
+      <c r="P38" s="273"/>
+      <c r="Q38" s="273"/>
+      <c r="R38" s="273"/>
+      <c r="S38" s="273"/>
+      <c r="T38" s="273"/>
+      <c r="U38" s="273"/>
+      <c r="V38" s="273"/>
+      <c r="W38" s="273"/>
+      <c r="X38" s="273"/>
+      <c r="Y38" s="273"/>
+      <c r="Z38" s="273"/>
+      <c r="AA38" s="273"/>
+      <c r="AB38" s="273"/>
+      <c r="AC38" s="273"/>
+      <c r="AD38" s="273"/>
+      <c r="AE38" s="273"/>
+      <c r="AF38" s="273"/>
+      <c r="AG38" s="273"/>
+      <c r="AH38" s="274"/>
     </row>
     <row r="39" spans="5:34" ht="15" customHeight="1">
-      <c r="E39" s="318"/>
-      <c r="F39" s="319"/>
-      <c r="G39" s="319"/>
-      <c r="H39" s="319"/>
-      <c r="I39" s="319"/>
-      <c r="J39" s="320"/>
-      <c r="K39" s="323"/>
-      <c r="L39" s="324"/>
-      <c r="M39" s="280"/>
-      <c r="N39" s="281"/>
-      <c r="O39" s="281"/>
-      <c r="P39" s="281"/>
-      <c r="Q39" s="281"/>
-      <c r="R39" s="281"/>
-      <c r="S39" s="281"/>
-      <c r="T39" s="281"/>
-      <c r="U39" s="281"/>
-      <c r="V39" s="281"/>
-      <c r="W39" s="281"/>
-      <c r="X39" s="281"/>
-      <c r="Y39" s="281"/>
-      <c r="Z39" s="281"/>
-      <c r="AA39" s="281"/>
-      <c r="AB39" s="281"/>
-      <c r="AC39" s="281"/>
-      <c r="AD39" s="281"/>
-      <c r="AE39" s="281"/>
-      <c r="AF39" s="281"/>
-      <c r="AG39" s="281"/>
-      <c r="AH39" s="282"/>
+      <c r="E39" s="311"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="312"/>
+      <c r="I39" s="312"/>
+      <c r="J39" s="313"/>
+      <c r="K39" s="319"/>
+      <c r="L39" s="320"/>
+      <c r="M39" s="260"/>
+      <c r="N39" s="261"/>
+      <c r="O39" s="261"/>
+      <c r="P39" s="261"/>
+      <c r="Q39" s="261"/>
+      <c r="R39" s="261"/>
+      <c r="S39" s="261"/>
+      <c r="T39" s="261"/>
+      <c r="U39" s="261"/>
+      <c r="V39" s="261"/>
+      <c r="W39" s="261"/>
+      <c r="X39" s="261"/>
+      <c r="Y39" s="261"/>
+      <c r="Z39" s="261"/>
+      <c r="AA39" s="261"/>
+      <c r="AB39" s="261"/>
+      <c r="AC39" s="261"/>
+      <c r="AD39" s="261"/>
+      <c r="AE39" s="261"/>
+      <c r="AF39" s="261"/>
+      <c r="AG39" s="261"/>
+      <c r="AH39" s="262"/>
     </row>
     <row r="40" spans="5:34" ht="15" customHeight="1">
-      <c r="E40" s="313"/>
-      <c r="F40" s="316"/>
-      <c r="G40" s="316"/>
-      <c r="H40" s="316"/>
-      <c r="I40" s="316"/>
-      <c r="J40" s="314"/>
-      <c r="K40" s="325"/>
-      <c r="L40" s="326"/>
-      <c r="M40" s="283"/>
-      <c r="N40" s="284"/>
-      <c r="O40" s="284"/>
-      <c r="P40" s="284"/>
-      <c r="Q40" s="284"/>
-      <c r="R40" s="284"/>
-      <c r="S40" s="284"/>
-      <c r="T40" s="284"/>
-      <c r="U40" s="284"/>
-      <c r="V40" s="284"/>
-      <c r="W40" s="284"/>
-      <c r="X40" s="284"/>
-      <c r="Y40" s="284"/>
-      <c r="Z40" s="284"/>
-      <c r="AA40" s="284"/>
-      <c r="AB40" s="284"/>
-      <c r="AC40" s="284"/>
-      <c r="AD40" s="284"/>
-      <c r="AE40" s="284"/>
-      <c r="AF40" s="284"/>
-      <c r="AG40" s="284"/>
-      <c r="AH40" s="285"/>
+      <c r="E40" s="314"/>
+      <c r="F40" s="315"/>
+      <c r="G40" s="315"/>
+      <c r="H40" s="315"/>
+      <c r="I40" s="315"/>
+      <c r="J40" s="316"/>
+      <c r="K40" s="321"/>
+      <c r="L40" s="322"/>
+      <c r="M40" s="275"/>
+      <c r="N40" s="276"/>
+      <c r="O40" s="276"/>
+      <c r="P40" s="276"/>
+      <c r="Q40" s="276"/>
+      <c r="R40" s="276"/>
+      <c r="S40" s="276"/>
+      <c r="T40" s="276"/>
+      <c r="U40" s="276"/>
+      <c r="V40" s="276"/>
+      <c r="W40" s="276"/>
+      <c r="X40" s="276"/>
+      <c r="Y40" s="276"/>
+      <c r="Z40" s="276"/>
+      <c r="AA40" s="276"/>
+      <c r="AB40" s="276"/>
+      <c r="AC40" s="276"/>
+      <c r="AD40" s="276"/>
+      <c r="AE40" s="276"/>
+      <c r="AF40" s="276"/>
+      <c r="AG40" s="276"/>
+      <c r="AH40" s="277"/>
     </row>
     <row r="41" spans="5:34" ht="15" customHeight="1">
-      <c r="E41" s="317" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" s="315"/>
-      <c r="G41" s="315"/>
-      <c r="H41" s="315"/>
-      <c r="I41" s="315"/>
-      <c r="J41" s="312"/>
-      <c r="K41" s="321" t="s">
-        <v>81</v>
-      </c>
-      <c r="L41" s="322"/>
+      <c r="E41" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="309"/>
+      <c r="G41" s="309"/>
+      <c r="H41" s="309"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="310"/>
+      <c r="K41" s="317" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" s="318"/>
       <c r="M41" s="62" t="s">
         <v>26</v>
       </c>
@@ -16957,14 +16886,14 @@
       <c r="AH41" s="63"/>
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1">
-      <c r="E42" s="318"/>
-      <c r="F42" s="319"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="319"/>
-      <c r="I42" s="319"/>
-      <c r="J42" s="320"/>
-      <c r="K42" s="323"/>
-      <c r="L42" s="324"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="312"/>
+      <c r="G42" s="312"/>
+      <c r="H42" s="312"/>
+      <c r="I42" s="312"/>
+      <c r="J42" s="313"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="320"/>
       <c r="M42" s="62" t="s">
         <v>70</v>
       </c>
@@ -16991,14 +16920,14 @@
       <c r="AH42" s="63"/>
     </row>
     <row r="43" spans="5:34" ht="15" customHeight="1">
-      <c r="E43" s="318"/>
-      <c r="F43" s="319"/>
-      <c r="G43" s="319"/>
-      <c r="H43" s="319"/>
-      <c r="I43" s="319"/>
-      <c r="J43" s="320"/>
-      <c r="K43" s="323"/>
-      <c r="L43" s="324"/>
+      <c r="E43" s="311"/>
+      <c r="F43" s="312"/>
+      <c r="G43" s="312"/>
+      <c r="H43" s="312"/>
+      <c r="I43" s="312"/>
+      <c r="J43" s="313"/>
+      <c r="K43" s="319"/>
+      <c r="L43" s="320"/>
       <c r="M43" s="62" t="s">
         <v>27</v>
       </c>
@@ -17025,14 +16954,14 @@
       <c r="AH43" s="63"/>
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1">
-      <c r="E44" s="318"/>
-      <c r="F44" s="319"/>
-      <c r="G44" s="319"/>
-      <c r="H44" s="319"/>
-      <c r="I44" s="319"/>
-      <c r="J44" s="320"/>
-      <c r="K44" s="323"/>
-      <c r="L44" s="324"/>
+      <c r="E44" s="311"/>
+      <c r="F44" s="312"/>
+      <c r="G44" s="312"/>
+      <c r="H44" s="312"/>
+      <c r="I44" s="312"/>
+      <c r="J44" s="313"/>
+      <c r="K44" s="319"/>
+      <c r="L44" s="320"/>
       <c r="M44" s="62" t="s">
         <v>68</v>
       </c>
@@ -17047,14 +16976,14 @@
       <c r="AH44" s="63"/>
     </row>
     <row r="45" spans="5:34" ht="15" customHeight="1">
-      <c r="E45" s="318"/>
-      <c r="F45" s="319"/>
-      <c r="G45" s="319"/>
-      <c r="H45" s="319"/>
-      <c r="I45" s="319"/>
-      <c r="J45" s="320"/>
-      <c r="K45" s="323"/>
-      <c r="L45" s="324"/>
+      <c r="E45" s="311"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="313"/>
+      <c r="K45" s="319"/>
+      <c r="L45" s="320"/>
       <c r="M45" s="62"/>
       <c r="N45" s="15" t="s">
         <v>69</v>
@@ -17070,17 +16999,17 @@
       <c r="AH45" s="63"/>
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1">
-      <c r="E46" s="318"/>
-      <c r="F46" s="319"/>
-      <c r="G46" s="319"/>
-      <c r="H46" s="319"/>
-      <c r="I46" s="319"/>
-      <c r="J46" s="320"/>
-      <c r="K46" s="323"/>
-      <c r="L46" s="324"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="312"/>
+      <c r="H46" s="312"/>
+      <c r="I46" s="312"/>
+      <c r="J46" s="313"/>
+      <c r="K46" s="319"/>
+      <c r="L46" s="320"/>
       <c r="M46" s="62"/>
       <c r="N46" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -17104,14 +17033,14 @@
       <c r="AH46" s="63"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1">
-      <c r="E47" s="318"/>
-      <c r="F47" s="319"/>
-      <c r="G47" s="319"/>
-      <c r="H47" s="319"/>
-      <c r="I47" s="319"/>
-      <c r="J47" s="320"/>
-      <c r="K47" s="323"/>
-      <c r="L47" s="324"/>
+      <c r="E47" s="311"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="312"/>
+      <c r="H47" s="312"/>
+      <c r="I47" s="312"/>
+      <c r="J47" s="313"/>
+      <c r="K47" s="319"/>
+      <c r="L47" s="320"/>
       <c r="M47" s="62"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19" t="s">
@@ -17138,14 +17067,14 @@
       <c r="AH47" s="63"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1">
-      <c r="E48" s="318"/>
-      <c r="F48" s="319"/>
-      <c r="G48" s="319"/>
-      <c r="H48" s="319"/>
-      <c r="I48" s="319"/>
-      <c r="J48" s="320"/>
-      <c r="K48" s="323"/>
-      <c r="L48" s="324"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="312"/>
+      <c r="G48" s="312"/>
+      <c r="H48" s="312"/>
+      <c r="I48" s="312"/>
+      <c r="J48" s="313"/>
+      <c r="K48" s="319"/>
+      <c r="L48" s="320"/>
       <c r="M48" s="62"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19" t="s">
@@ -17172,14 +17101,14 @@
       <c r="AH48" s="63"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1">
-      <c r="E49" s="318"/>
-      <c r="F49" s="319"/>
-      <c r="G49" s="319"/>
-      <c r="H49" s="319"/>
-      <c r="I49" s="319"/>
-      <c r="J49" s="320"/>
-      <c r="K49" s="323"/>
-      <c r="L49" s="324"/>
+      <c r="E49" s="311"/>
+      <c r="F49" s="312"/>
+      <c r="G49" s="312"/>
+      <c r="H49" s="312"/>
+      <c r="I49" s="312"/>
+      <c r="J49" s="313"/>
+      <c r="K49" s="319"/>
+      <c r="L49" s="320"/>
       <c r="M49" s="62"/>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
@@ -17206,14 +17135,14 @@
       <c r="AH49" s="63"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1">
-      <c r="E50" s="318"/>
-      <c r="F50" s="319"/>
-      <c r="G50" s="319"/>
-      <c r="H50" s="319"/>
-      <c r="I50" s="319"/>
-      <c r="J50" s="320"/>
-      <c r="K50" s="323"/>
-      <c r="L50" s="324"/>
+      <c r="E50" s="311"/>
+      <c r="F50" s="312"/>
+      <c r="G50" s="312"/>
+      <c r="H50" s="312"/>
+      <c r="I50" s="312"/>
+      <c r="J50" s="313"/>
+      <c r="K50" s="319"/>
+      <c r="L50" s="320"/>
       <c r="M50" s="62"/>
       <c r="N50" s="19" t="s">
         <v>72</v>
@@ -17238,14 +17167,14 @@
       <c r="AH50" s="63"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1">
-      <c r="E51" s="318"/>
-      <c r="F51" s="319"/>
-      <c r="G51" s="319"/>
-      <c r="H51" s="319"/>
-      <c r="I51" s="319"/>
-      <c r="J51" s="320"/>
-      <c r="K51" s="323"/>
-      <c r="L51" s="324"/>
+      <c r="E51" s="311"/>
+      <c r="F51" s="312"/>
+      <c r="G51" s="312"/>
+      <c r="H51" s="312"/>
+      <c r="I51" s="312"/>
+      <c r="J51" s="313"/>
+      <c r="K51" s="319"/>
+      <c r="L51" s="320"/>
       <c r="M51" s="62"/>
       <c r="N51" s="19" t="s">
         <v>73</v>
@@ -17272,14 +17201,14 @@
       <c r="AH51" s="63"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1">
-      <c r="E52" s="318"/>
-      <c r="F52" s="319"/>
-      <c r="G52" s="319"/>
-      <c r="H52" s="319"/>
-      <c r="I52" s="319"/>
-      <c r="J52" s="320"/>
-      <c r="K52" s="323"/>
-      <c r="L52" s="324"/>
+      <c r="E52" s="311"/>
+      <c r="F52" s="312"/>
+      <c r="G52" s="312"/>
+      <c r="H52" s="312"/>
+      <c r="I52" s="312"/>
+      <c r="J52" s="313"/>
+      <c r="K52" s="319"/>
+      <c r="L52" s="320"/>
       <c r="M52" s="62"/>
       <c r="N52" s="19"/>
       <c r="O52" s="19" t="s">
@@ -17306,14 +17235,14 @@
       <c r="AH52" s="63"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1">
-      <c r="E53" s="318"/>
-      <c r="F53" s="319"/>
-      <c r="G53" s="319"/>
-      <c r="H53" s="319"/>
-      <c r="I53" s="319"/>
-      <c r="J53" s="320"/>
-      <c r="K53" s="323"/>
-      <c r="L53" s="324"/>
+      <c r="E53" s="311"/>
+      <c r="F53" s="312"/>
+      <c r="G53" s="312"/>
+      <c r="H53" s="312"/>
+      <c r="I53" s="312"/>
+      <c r="J53" s="313"/>
+      <c r="K53" s="319"/>
+      <c r="L53" s="320"/>
       <c r="M53" s="62"/>
       <c r="N53" s="19"/>
       <c r="O53" s="19" t="s">
@@ -17340,14 +17269,14 @@
       <c r="AH53" s="63"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1">
-      <c r="E54" s="313"/>
-      <c r="F54" s="316"/>
-      <c r="G54" s="316"/>
-      <c r="H54" s="316"/>
-      <c r="I54" s="316"/>
-      <c r="J54" s="314"/>
-      <c r="K54" s="325"/>
-      <c r="L54" s="326"/>
+      <c r="E54" s="314"/>
+      <c r="F54" s="315"/>
+      <c r="G54" s="315"/>
+      <c r="H54" s="315"/>
+      <c r="I54" s="315"/>
+      <c r="J54" s="316"/>
+      <c r="K54" s="321"/>
+      <c r="L54" s="322"/>
       <c r="M54" s="62"/>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
@@ -17374,144 +17303,144 @@
       <c r="AH54" s="63"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1">
-      <c r="E55" s="297" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="298"/>
-      <c r="G55" s="298"/>
-      <c r="H55" s="298"/>
-      <c r="I55" s="298"/>
-      <c r="J55" s="299"/>
-      <c r="K55" s="297" t="s">
-        <v>177</v>
-      </c>
-      <c r="L55" s="299"/>
-      <c r="M55" s="305" t="s">
-        <v>154</v>
-      </c>
-      <c r="N55" s="306"/>
-      <c r="O55" s="306"/>
-      <c r="P55" s="306"/>
-      <c r="Q55" s="306"/>
-      <c r="R55" s="306"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="306"/>
-      <c r="U55" s="306"/>
-      <c r="V55" s="306"/>
-      <c r="W55" s="306"/>
-      <c r="X55" s="306"/>
-      <c r="Y55" s="306"/>
-      <c r="Z55" s="306"/>
-      <c r="AA55" s="306"/>
-      <c r="AB55" s="306"/>
-      <c r="AC55" s="306"/>
-      <c r="AD55" s="306"/>
-      <c r="AE55" s="306"/>
-      <c r="AF55" s="306"/>
-      <c r="AG55" s="306"/>
-      <c r="AH55" s="307"/>
+      <c r="E55" s="300" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="301"/>
+      <c r="G55" s="301"/>
+      <c r="H55" s="301"/>
+      <c r="I55" s="301"/>
+      <c r="J55" s="302"/>
+      <c r="K55" s="300" t="s">
+        <v>173</v>
+      </c>
+      <c r="L55" s="302"/>
+      <c r="M55" s="324" t="s">
+        <v>150</v>
+      </c>
+      <c r="N55" s="325"/>
+      <c r="O55" s="325"/>
+      <c r="P55" s="325"/>
+      <c r="Q55" s="325"/>
+      <c r="R55" s="325"/>
+      <c r="S55" s="325"/>
+      <c r="T55" s="325"/>
+      <c r="U55" s="325"/>
+      <c r="V55" s="325"/>
+      <c r="W55" s="325"/>
+      <c r="X55" s="325"/>
+      <c r="Y55" s="325"/>
+      <c r="Z55" s="325"/>
+      <c r="AA55" s="325"/>
+      <c r="AB55" s="325"/>
+      <c r="AC55" s="325"/>
+      <c r="AD55" s="325"/>
+      <c r="AE55" s="325"/>
+      <c r="AF55" s="325"/>
+      <c r="AG55" s="325"/>
+      <c r="AH55" s="326"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1">
-      <c r="E56" s="300"/>
-      <c r="F56" s="301"/>
-      <c r="G56" s="301"/>
-      <c r="H56" s="301"/>
-      <c r="I56" s="301"/>
-      <c r="J56" s="302"/>
-      <c r="K56" s="300"/>
-      <c r="L56" s="302"/>
-      <c r="M56" s="308"/>
-      <c r="N56" s="309"/>
-      <c r="O56" s="309"/>
-      <c r="P56" s="309"/>
-      <c r="Q56" s="309"/>
-      <c r="R56" s="309"/>
-      <c r="S56" s="309"/>
-      <c r="T56" s="309"/>
-      <c r="U56" s="309"/>
-      <c r="V56" s="309"/>
-      <c r="W56" s="309"/>
-      <c r="X56" s="309"/>
-      <c r="Y56" s="309"/>
-      <c r="Z56" s="309"/>
-      <c r="AA56" s="309"/>
-      <c r="AB56" s="309"/>
-      <c r="AC56" s="309"/>
-      <c r="AD56" s="309"/>
-      <c r="AE56" s="309"/>
-      <c r="AF56" s="309"/>
-      <c r="AG56" s="309"/>
-      <c r="AH56" s="310"/>
+      <c r="E56" s="303"/>
+      <c r="F56" s="304"/>
+      <c r="G56" s="304"/>
+      <c r="H56" s="304"/>
+      <c r="I56" s="304"/>
+      <c r="J56" s="305"/>
+      <c r="K56" s="303"/>
+      <c r="L56" s="305"/>
+      <c r="M56" s="327"/>
+      <c r="N56" s="328"/>
+      <c r="O56" s="328"/>
+      <c r="P56" s="328"/>
+      <c r="Q56" s="328"/>
+      <c r="R56" s="328"/>
+      <c r="S56" s="328"/>
+      <c r="T56" s="328"/>
+      <c r="U56" s="328"/>
+      <c r="V56" s="328"/>
+      <c r="W56" s="328"/>
+      <c r="X56" s="328"/>
+      <c r="Y56" s="328"/>
+      <c r="Z56" s="328"/>
+      <c r="AA56" s="328"/>
+      <c r="AB56" s="328"/>
+      <c r="AC56" s="328"/>
+      <c r="AD56" s="328"/>
+      <c r="AE56" s="328"/>
+      <c r="AF56" s="328"/>
+      <c r="AG56" s="328"/>
+      <c r="AH56" s="329"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1">
-      <c r="E57" s="277" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="278"/>
-      <c r="G57" s="278"/>
-      <c r="H57" s="278"/>
-      <c r="I57" s="278"/>
-      <c r="J57" s="279"/>
-      <c r="K57" s="311" t="s">
-        <v>177</v>
-      </c>
-      <c r="L57" s="312"/>
-      <c r="M57" s="311" t="s">
+      <c r="E57" s="272" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="273"/>
+      <c r="G57" s="273"/>
+      <c r="H57" s="273"/>
+      <c r="I57" s="273"/>
+      <c r="J57" s="274"/>
+      <c r="K57" s="323" t="s">
+        <v>173</v>
+      </c>
+      <c r="L57" s="310"/>
+      <c r="M57" s="323" t="s">
         <v>17</v>
       </c>
-      <c r="N57" s="315"/>
-      <c r="O57" s="315"/>
-      <c r="P57" s="315"/>
-      <c r="Q57" s="315"/>
-      <c r="R57" s="315"/>
-      <c r="S57" s="315"/>
-      <c r="T57" s="315"/>
-      <c r="U57" s="315"/>
-      <c r="V57" s="315"/>
-      <c r="W57" s="315"/>
-      <c r="X57" s="315"/>
-      <c r="Y57" s="315"/>
-      <c r="Z57" s="315"/>
-      <c r="AA57" s="315"/>
-      <c r="AB57" s="315"/>
-      <c r="AC57" s="315"/>
-      <c r="AD57" s="315"/>
-      <c r="AE57" s="315"/>
-      <c r="AF57" s="315"/>
-      <c r="AG57" s="315"/>
-      <c r="AH57" s="312"/>
+      <c r="N57" s="309"/>
+      <c r="O57" s="309"/>
+      <c r="P57" s="309"/>
+      <c r="Q57" s="309"/>
+      <c r="R57" s="309"/>
+      <c r="S57" s="309"/>
+      <c r="T57" s="309"/>
+      <c r="U57" s="309"/>
+      <c r="V57" s="309"/>
+      <c r="W57" s="309"/>
+      <c r="X57" s="309"/>
+      <c r="Y57" s="309"/>
+      <c r="Z57" s="309"/>
+      <c r="AA57" s="309"/>
+      <c r="AB57" s="309"/>
+      <c r="AC57" s="309"/>
+      <c r="AD57" s="309"/>
+      <c r="AE57" s="309"/>
+      <c r="AF57" s="309"/>
+      <c r="AG57" s="309"/>
+      <c r="AH57" s="310"/>
     </row>
     <row r="58" spans="5:34" ht="15" customHeight="1">
-      <c r="E58" s="283"/>
-      <c r="F58" s="284"/>
-      <c r="G58" s="284"/>
-      <c r="H58" s="284"/>
-      <c r="I58" s="284"/>
-      <c r="J58" s="285"/>
-      <c r="K58" s="313"/>
-      <c r="L58" s="314"/>
-      <c r="M58" s="313"/>
-      <c r="N58" s="316"/>
-      <c r="O58" s="316"/>
-      <c r="P58" s="316"/>
-      <c r="Q58" s="316"/>
-      <c r="R58" s="316"/>
-      <c r="S58" s="316"/>
-      <c r="T58" s="316"/>
-      <c r="U58" s="316"/>
-      <c r="V58" s="316"/>
-      <c r="W58" s="316"/>
-      <c r="X58" s="316"/>
-      <c r="Y58" s="316"/>
-      <c r="Z58" s="316"/>
-      <c r="AA58" s="316"/>
-      <c r="AB58" s="316"/>
-      <c r="AC58" s="316"/>
-      <c r="AD58" s="316"/>
-      <c r="AE58" s="316"/>
-      <c r="AF58" s="316"/>
-      <c r="AG58" s="316"/>
-      <c r="AH58" s="314"/>
+      <c r="E58" s="275"/>
+      <c r="F58" s="276"/>
+      <c r="G58" s="276"/>
+      <c r="H58" s="276"/>
+      <c r="I58" s="276"/>
+      <c r="J58" s="277"/>
+      <c r="K58" s="314"/>
+      <c r="L58" s="316"/>
+      <c r="M58" s="314"/>
+      <c r="N58" s="315"/>
+      <c r="O58" s="315"/>
+      <c r="P58" s="315"/>
+      <c r="Q58" s="315"/>
+      <c r="R58" s="315"/>
+      <c r="S58" s="315"/>
+      <c r="T58" s="315"/>
+      <c r="U58" s="315"/>
+      <c r="V58" s="315"/>
+      <c r="W58" s="315"/>
+      <c r="X58" s="315"/>
+      <c r="Y58" s="315"/>
+      <c r="Z58" s="315"/>
+      <c r="AA58" s="315"/>
+      <c r="AB58" s="315"/>
+      <c r="AC58" s="315"/>
+      <c r="AD58" s="315"/>
+      <c r="AE58" s="315"/>
+      <c r="AF58" s="315"/>
+      <c r="AG58" s="315"/>
+      <c r="AH58" s="316"/>
     </row>
     <row r="59" spans="5:34" ht="15" customHeight="1">
       <c r="E59" s="117"/>
@@ -17547,7 +17476,7 @@
     </row>
     <row r="60" spans="5:34" ht="15" customHeight="1">
       <c r="E60" s="121" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F60" s="117"/>
       <c r="G60" s="117"/>
@@ -17580,112 +17509,112 @@
       <c r="AH60" s="118"/>
     </row>
     <row r="61" spans="5:34" ht="15" customHeight="1">
-      <c r="E61" s="290" t="s">
+      <c r="E61" s="279" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="291"/>
-      <c r="G61" s="291"/>
-      <c r="H61" s="291"/>
-      <c r="I61" s="291"/>
-      <c r="J61" s="292"/>
-      <c r="K61" s="290" t="s">
+      <c r="F61" s="280"/>
+      <c r="G61" s="280"/>
+      <c r="H61" s="280"/>
+      <c r="I61" s="280"/>
+      <c r="J61" s="281"/>
+      <c r="K61" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="292"/>
-      <c r="M61" s="290" t="s">
+      <c r="L61" s="281"/>
+      <c r="M61" s="279" t="s">
         <v>75</v>
       </c>
-      <c r="N61" s="291"/>
-      <c r="O61" s="291"/>
-      <c r="P61" s="291"/>
-      <c r="Q61" s="291"/>
-      <c r="R61" s="291"/>
-      <c r="S61" s="291"/>
-      <c r="T61" s="291"/>
-      <c r="U61" s="291"/>
-      <c r="V61" s="291"/>
-      <c r="W61" s="291"/>
-      <c r="X61" s="291"/>
-      <c r="Y61" s="291"/>
-      <c r="Z61" s="291"/>
-      <c r="AA61" s="291"/>
-      <c r="AB61" s="291"/>
-      <c r="AC61" s="291"/>
-      <c r="AD61" s="291"/>
-      <c r="AE61" s="291"/>
-      <c r="AF61" s="291"/>
-      <c r="AG61" s="291"/>
-      <c r="AH61" s="292"/>
+      <c r="N61" s="280"/>
+      <c r="O61" s="280"/>
+      <c r="P61" s="280"/>
+      <c r="Q61" s="280"/>
+      <c r="R61" s="280"/>
+      <c r="S61" s="280"/>
+      <c r="T61" s="280"/>
+      <c r="U61" s="280"/>
+      <c r="V61" s="280"/>
+      <c r="W61" s="280"/>
+      <c r="X61" s="280"/>
+      <c r="Y61" s="280"/>
+      <c r="Z61" s="280"/>
+      <c r="AA61" s="280"/>
+      <c r="AB61" s="280"/>
+      <c r="AC61" s="280"/>
+      <c r="AD61" s="280"/>
+      <c r="AE61" s="280"/>
+      <c r="AF61" s="280"/>
+      <c r="AG61" s="280"/>
+      <c r="AH61" s="281"/>
     </row>
     <row r="62" spans="5:34" ht="15" customHeight="1">
-      <c r="E62" s="297" t="s">
+      <c r="E62" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="298"/>
-      <c r="G62" s="298"/>
-      <c r="H62" s="298"/>
-      <c r="I62" s="298"/>
-      <c r="J62" s="299"/>
-      <c r="K62" s="189" t="s">
-        <v>209</v>
-      </c>
-      <c r="L62" s="190"/>
-      <c r="M62" s="305" t="s">
-        <v>150</v>
-      </c>
-      <c r="N62" s="306"/>
-      <c r="O62" s="306"/>
-      <c r="P62" s="306"/>
-      <c r="Q62" s="306"/>
-      <c r="R62" s="306"/>
-      <c r="S62" s="306"/>
-      <c r="T62" s="306"/>
-      <c r="U62" s="306"/>
-      <c r="V62" s="306"/>
-      <c r="W62" s="306"/>
-      <c r="X62" s="306"/>
-      <c r="Y62" s="306"/>
-      <c r="Z62" s="306"/>
-      <c r="AA62" s="306"/>
-      <c r="AB62" s="306"/>
-      <c r="AC62" s="306"/>
-      <c r="AD62" s="306"/>
-      <c r="AE62" s="306"/>
-      <c r="AF62" s="306"/>
-      <c r="AG62" s="306"/>
-      <c r="AH62" s="307"/>
+      <c r="F62" s="301"/>
+      <c r="G62" s="301"/>
+      <c r="H62" s="301"/>
+      <c r="I62" s="301"/>
+      <c r="J62" s="302"/>
+      <c r="K62" s="129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" s="130"/>
+      <c r="M62" s="324" t="s">
+        <v>146</v>
+      </c>
+      <c r="N62" s="325"/>
+      <c r="O62" s="325"/>
+      <c r="P62" s="325"/>
+      <c r="Q62" s="325"/>
+      <c r="R62" s="325"/>
+      <c r="S62" s="325"/>
+      <c r="T62" s="325"/>
+      <c r="U62" s="325"/>
+      <c r="V62" s="325"/>
+      <c r="W62" s="325"/>
+      <c r="X62" s="325"/>
+      <c r="Y62" s="325"/>
+      <c r="Z62" s="325"/>
+      <c r="AA62" s="325"/>
+      <c r="AB62" s="325"/>
+      <c r="AC62" s="325"/>
+      <c r="AD62" s="325"/>
+      <c r="AE62" s="325"/>
+      <c r="AF62" s="325"/>
+      <c r="AG62" s="325"/>
+      <c r="AH62" s="326"/>
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1">
-      <c r="E63" s="300"/>
-      <c r="F63" s="301"/>
-      <c r="G63" s="301"/>
-      <c r="H63" s="301"/>
-      <c r="I63" s="301"/>
-      <c r="J63" s="302"/>
-      <c r="K63" s="303"/>
-      <c r="L63" s="304"/>
-      <c r="M63" s="308"/>
-      <c r="N63" s="309"/>
-      <c r="O63" s="309"/>
-      <c r="P63" s="309"/>
-      <c r="Q63" s="309"/>
-      <c r="R63" s="309"/>
-      <c r="S63" s="309"/>
-      <c r="T63" s="309"/>
-      <c r="U63" s="309"/>
-      <c r="V63" s="309"/>
-      <c r="W63" s="309"/>
-      <c r="X63" s="309"/>
-      <c r="Y63" s="309"/>
-      <c r="Z63" s="309"/>
-      <c r="AA63" s="309"/>
-      <c r="AB63" s="309"/>
-      <c r="AC63" s="309"/>
-      <c r="AD63" s="309"/>
-      <c r="AE63" s="309"/>
-      <c r="AF63" s="309"/>
-      <c r="AG63" s="309"/>
-      <c r="AH63" s="310"/>
+      <c r="E63" s="303"/>
+      <c r="F63" s="304"/>
+      <c r="G63" s="304"/>
+      <c r="H63" s="304"/>
+      <c r="I63" s="304"/>
+      <c r="J63" s="305"/>
+      <c r="K63" s="306"/>
+      <c r="L63" s="307"/>
+      <c r="M63" s="327"/>
+      <c r="N63" s="328"/>
+      <c r="O63" s="328"/>
+      <c r="P63" s="328"/>
+      <c r="Q63" s="328"/>
+      <c r="R63" s="328"/>
+      <c r="S63" s="328"/>
+      <c r="T63" s="328"/>
+      <c r="U63" s="328"/>
+      <c r="V63" s="328"/>
+      <c r="W63" s="328"/>
+      <c r="X63" s="328"/>
+      <c r="Y63" s="328"/>
+      <c r="Z63" s="328"/>
+      <c r="AA63" s="328"/>
+      <c r="AB63" s="328"/>
+      <c r="AC63" s="328"/>
+      <c r="AD63" s="328"/>
+      <c r="AE63" s="328"/>
+      <c r="AF63" s="328"/>
+      <c r="AG63" s="328"/>
+      <c r="AH63" s="329"/>
     </row>
     <row r="64" spans="5:34" ht="15" customHeight="1">
       <c r="E64" s="117"/>
@@ -17721,7 +17650,7 @@
     </row>
     <row r="65" spans="4:31" ht="15" customHeight="1">
       <c r="D65" s="32" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="4:31" ht="15" customHeight="1">
@@ -17742,7 +17671,7 @@
     <row r="70" spans="4:31" ht="15" customHeight="1" thickBot="1"/>
     <row r="71" spans="4:31" ht="15" customHeight="1" thickTop="1">
       <c r="E71" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="65"/>
       <c r="G71" s="65"/>
@@ -17774,7 +17703,7 @@
     <row r="72" spans="4:31" ht="15" customHeight="1">
       <c r="E72" s="68"/>
       <c r="F72" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
@@ -17807,7 +17736,7 @@
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I73" s="57"/>
       <c r="J73" s="57"/>
@@ -17850,7 +17779,7 @@
       <c r="P74" s="19"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S74" s="19" t="s">
         <v>22</v>
@@ -17877,7 +17806,7 @@
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="116" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M75" s="57"/>
       <c r="N75" s="57"/>
@@ -17910,7 +17839,7 @@
       <c r="J76" s="57"/>
       <c r="K76" s="57"/>
       <c r="L76" s="116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M76" s="57"/>
       <c r="N76" s="57"/>
@@ -17943,7 +17872,7 @@
       <c r="J77" s="57"/>
       <c r="K77" s="57"/>
       <c r="L77" s="116" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M77" s="57"/>
       <c r="N77" s="57"/>
@@ -18061,6 +17990,48 @@
     <row r="81" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:AH61"/>
+    <mergeCell ref="E62:J63"/>
+    <mergeCell ref="K62:L63"/>
+    <mergeCell ref="M62:AH63"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="M34:AH37"/>
+    <mergeCell ref="M32:AH33"/>
+    <mergeCell ref="M31:AH31"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:L58"/>
+    <mergeCell ref="M57:AH58"/>
+    <mergeCell ref="E41:J54"/>
+    <mergeCell ref="K41:L54"/>
+    <mergeCell ref="E55:J56"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="M55:AH56"/>
+    <mergeCell ref="E34:J37"/>
+    <mergeCell ref="K34:L37"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="E32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:AH22"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -18071,48 +18042,6 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E34:J37"/>
-    <mergeCell ref="K34:L37"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="M57:AH58"/>
-    <mergeCell ref="E41:J54"/>
-    <mergeCell ref="K41:L54"/>
-    <mergeCell ref="E55:J56"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="M55:AH56"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="M34:AH37"/>
-    <mergeCell ref="M32:AH33"/>
-    <mergeCell ref="M31:AH31"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:AH61"/>
-    <mergeCell ref="E62:J63"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="M62:AH63"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルアプリケーション/設計書/02_方式設計/20_開発標準/020_テスト標準/単体テスト標準.xlsx
+++ b/サンプルアプリケーション/設計書/02_方式設計/20_開発標準/020_テスト標準/単体テスト標準.xlsx
@@ -1809,45 +1809,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>3.2.4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メッセージ同期応答処理方式、メッセージ同期応答・ディレード処理方式</t>
-    </r>
-    <rPh sb="12" eb="16">
-      <t>ドウキオウトウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>ドウキオウトウ</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>ショリホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
@@ -2189,25 +2150,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>単体テスト仕様書_取引単体(メッセージング)のフォーマットを参照。</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トリヒキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>アプリケーションプログラマが実施すべき単体テストの一覧は以下の通りである。</t>
     <rPh sb="14" eb="16">
       <t>ジッシ</t>
@@ -2464,6 +2406,29 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.2.4. REST</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書_取引単体(REST)のフォーマットを参照。</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3381,6 +3346,186 @@
     <xf numFmtId="31" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3390,186 +3535,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3597,14 +3562,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3636,9 +3682,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3648,86 +3691,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3738,6 +3751,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3765,14 +3787,29 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3783,6 +3820,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3792,107 +3838,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3918,15 +3886,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3936,15 +3934,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3962,30 +3951,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8014,57 +7979,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="171" t="s">
-        <v>172</v>
-      </c>
-      <c r="T1" s="172"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="172"/>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="159" t="s">
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="179" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f>IF(D8="","",D8)</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
@@ -8072,53 +8037,53 @@
       <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="159" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="188" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="156"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="150" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="185" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="151"/>
-      <c r="AE2" s="151"/>
-      <c r="AF2" s="152"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="186"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="182" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="43"/>
       <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
@@ -8126,45 +8091,45 @@
       <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" s="16" customFormat="1" ht="11.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="180" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="162" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="179"/>
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="46"/>
       <c r="AK3" s="47"/>
       <c r="AL3" s="47"/>
@@ -8303,1028 +8268,1028 @@
       <c r="A7" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="129" t="s">
+      <c r="C7" s="190"/>
+      <c r="D7" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129" t="s">
+      <c r="E7" s="191"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="131"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="129" t="s">
+      <c r="H7" s="191"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="189" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="129" t="s">
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="131"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="129" t="s">
+      <c r="R7" s="191"/>
+      <c r="S7" s="191"/>
+      <c r="T7" s="191"/>
+      <c r="U7" s="191"/>
+      <c r="V7" s="191"/>
+      <c r="W7" s="191"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="191"/>
+      <c r="Z7" s="191"/>
+      <c r="AA7" s="191"/>
+      <c r="AB7" s="191"/>
+      <c r="AC7" s="191"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="131"/>
-      <c r="AI7" s="130"/>
+      <c r="AG7" s="191"/>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="190"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="102">
         <v>1</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="165" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="168"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="183">
-        <v>43643</v>
-      </c>
-      <c r="E8" s="184"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="186" t="s">
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="H8" s="187"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="156" t="s">
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="189" t="s">
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="178"/>
+      <c r="AF8" s="173" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="156" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="158"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="175"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="76"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="136"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="136"/>
-      <c r="AA9" s="136"/>
-      <c r="AB9" s="136"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="136"/>
-      <c r="AE9" s="137"/>
-      <c r="AF9" s="132"/>
-      <c r="AG9" s="133"/>
-      <c r="AH9" s="133"/>
-      <c r="AI9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="134"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="130"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="131"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="76"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="133"/>
-      <c r="AH10" s="133"/>
-      <c r="AI10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="129"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="130"/>
+      <c r="AI10" s="131"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="76"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="133"/>
-      <c r="AH11" s="133"/>
-      <c r="AI11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="129"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="131"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="76"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="133"/>
-      <c r="AH12" s="133"/>
-      <c r="AI12" s="134"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="131"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="76"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="136"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="133"/>
-      <c r="AH13" s="133"/>
-      <c r="AI13" s="134"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
+      <c r="AA13" s="133"/>
+      <c r="AB13" s="133"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="133"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="130"/>
+      <c r="AH13" s="130"/>
+      <c r="AI13" s="131"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="76"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="136"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="133"/>
-      <c r="AI14" s="134"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="129"/>
+      <c r="AG14" s="130"/>
+      <c r="AH14" s="130"/>
+      <c r="AI14" s="131"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="76"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="133"/>
-      <c r="AH15" s="133"/>
-      <c r="AI15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="131"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
+      <c r="W15" s="133"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133"/>
+      <c r="AD15" s="133"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="129"/>
+      <c r="AG15" s="130"/>
+      <c r="AH15" s="130"/>
+      <c r="AI15" s="131"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="76"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="133"/>
-      <c r="AH16" s="133"/>
-      <c r="AI16" s="134"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="129"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="131"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="76"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="134"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="136"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="136"/>
-      <c r="AA17" s="136"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="136"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="133"/>
-      <c r="AH17" s="133"/>
-      <c r="AI17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="134"/>
+      <c r="AF17" s="129"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="131"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="76"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="132"/>
-      <c r="AG18" s="133"/>
-      <c r="AH18" s="133"/>
-      <c r="AI18" s="134"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="129"/>
+      <c r="AG18" s="130"/>
+      <c r="AH18" s="130"/>
+      <c r="AI18" s="131"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="76"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="134"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="132"/>
-      <c r="AG19" s="133"/>
-      <c r="AH19" s="133"/>
-      <c r="AI19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="133"/>
+      <c r="AC19" s="133"/>
+      <c r="AD19" s="133"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="129"/>
+      <c r="AG19" s="130"/>
+      <c r="AH19" s="130"/>
+      <c r="AI19" s="131"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="76"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="136"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="136"/>
-      <c r="W20" s="136"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="136"/>
-      <c r="AD20" s="136"/>
-      <c r="AE20" s="137"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="133"/>
-      <c r="AH20" s="133"/>
-      <c r="AI20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="133"/>
+      <c r="S20" s="133"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="133"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="133"/>
+      <c r="AC20" s="133"/>
+      <c r="AD20" s="133"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="130"/>
+      <c r="AH20" s="130"/>
+      <c r="AI20" s="131"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="76"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="136"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="136"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="132"/>
-      <c r="AG21" s="133"/>
-      <c r="AH21" s="133"/>
-      <c r="AI21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="133"/>
+      <c r="S21" s="133"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+      <c r="V21" s="133"/>
+      <c r="W21" s="133"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="133"/>
+      <c r="AD21" s="133"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="130"/>
+      <c r="AH21" s="130"/>
+      <c r="AI21" s="131"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="76"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="136"/>
-      <c r="AD22" s="136"/>
-      <c r="AE22" s="137"/>
-      <c r="AF22" s="132"/>
-      <c r="AG22" s="133"/>
-      <c r="AH22" s="133"/>
-      <c r="AI22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="130"/>
+      <c r="AH22" s="130"/>
+      <c r="AI22" s="131"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="76"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="134"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="136"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="137"/>
-      <c r="AF23" s="132"/>
-      <c r="AG23" s="133"/>
-      <c r="AH23" s="133"/>
-      <c r="AI23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="133"/>
+      <c r="S23" s="133"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="133"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="133"/>
+      <c r="Z23" s="133"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="133"/>
+      <c r="AC23" s="133"/>
+      <c r="AD23" s="133"/>
+      <c r="AE23" s="134"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="130"/>
+      <c r="AH23" s="130"/>
+      <c r="AI23" s="131"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="76"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="136"/>
-      <c r="S24" s="136"/>
-      <c r="T24" s="136"/>
-      <c r="U24" s="136"/>
-      <c r="V24" s="136"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="136"/>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="136"/>
-      <c r="AD24" s="136"/>
-      <c r="AE24" s="137"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="133"/>
-      <c r="AH24" s="133"/>
-      <c r="AI24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="133"/>
+      <c r="S24" s="133"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="133"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="133"/>
+      <c r="X24" s="133"/>
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+      <c r="AC24" s="133"/>
+      <c r="AD24" s="133"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="129"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="131"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="76"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="134"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="136"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="133"/>
-      <c r="AH25" s="133"/>
-      <c r="AI25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="130"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="133"/>
+      <c r="S25" s="133"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="133"/>
+      <c r="V25" s="133"/>
+      <c r="W25" s="133"/>
+      <c r="X25" s="133"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="133"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="133"/>
+      <c r="AD25" s="133"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="129"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="131"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="76"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="134"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="136"/>
-      <c r="S26" s="136"/>
-      <c r="T26" s="136"/>
-      <c r="U26" s="136"/>
-      <c r="V26" s="136"/>
-      <c r="W26" s="136"/>
-      <c r="X26" s="136"/>
-      <c r="Y26" s="136"/>
-      <c r="Z26" s="136"/>
-      <c r="AA26" s="136"/>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="136"/>
-      <c r="AD26" s="136"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="133"/>
-      <c r="AH26" s="133"/>
-      <c r="AI26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="133"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="133"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="133"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="133"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="131"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="76"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="136"/>
-      <c r="U27" s="136"/>
-      <c r="V27" s="136"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="136"/>
-      <c r="Y27" s="136"/>
-      <c r="Z27" s="136"/>
-      <c r="AA27" s="136"/>
-      <c r="AB27" s="136"/>
-      <c r="AC27" s="136"/>
-      <c r="AD27" s="136"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="132"/>
-      <c r="AG27" s="133"/>
-      <c r="AH27" s="133"/>
-      <c r="AI27" s="134"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="133"/>
+      <c r="X27" s="133"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="133"/>
+      <c r="AA27" s="133"/>
+      <c r="AB27" s="133"/>
+      <c r="AC27" s="133"/>
+      <c r="AD27" s="133"/>
+      <c r="AE27" s="134"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="130"/>
+      <c r="AH27" s="130"/>
+      <c r="AI27" s="131"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="76"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="136"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="136"/>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="133"/>
-      <c r="AH28" s="133"/>
-      <c r="AI28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="133"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
+      <c r="V28" s="133"/>
+      <c r="W28" s="133"/>
+      <c r="X28" s="133"/>
+      <c r="Y28" s="133"/>
+      <c r="Z28" s="133"/>
+      <c r="AA28" s="133"/>
+      <c r="AB28" s="133"/>
+      <c r="AC28" s="133"/>
+      <c r="AD28" s="133"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="129"/>
+      <c r="AG28" s="130"/>
+      <c r="AH28" s="130"/>
+      <c r="AI28" s="131"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="76"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="133"/>
-      <c r="AH29" s="133"/>
-      <c r="AI29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="133"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="133"/>
+      <c r="X29" s="133"/>
+      <c r="Y29" s="133"/>
+      <c r="Z29" s="133"/>
+      <c r="AA29" s="133"/>
+      <c r="AB29" s="133"/>
+      <c r="AC29" s="133"/>
+      <c r="AD29" s="133"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="130"/>
+      <c r="AI29" s="131"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="76"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="133"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="136"/>
-      <c r="T30" s="136"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="132"/>
-      <c r="AG30" s="133"/>
-      <c r="AH30" s="133"/>
-      <c r="AI30" s="134"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="133"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="133"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="133"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="133"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="133"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="129"/>
+      <c r="AG30" s="130"/>
+      <c r="AH30" s="130"/>
+      <c r="AI30" s="131"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="76"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="136"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="137"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="133"/>
-      <c r="AH31" s="133"/>
-      <c r="AI31" s="134"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="133"/>
+      <c r="W31" s="133"/>
+      <c r="X31" s="133"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="133"/>
+      <c r="AA31" s="133"/>
+      <c r="AB31" s="133"/>
+      <c r="AC31" s="133"/>
+      <c r="AD31" s="133"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="129"/>
+      <c r="AG31" s="130"/>
+      <c r="AH31" s="130"/>
+      <c r="AI31" s="131"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="76"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="136"/>
-      <c r="T32" s="136"/>
-      <c r="U32" s="136"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
-      <c r="Y32" s="136"/>
-      <c r="Z32" s="136"/>
-      <c r="AA32" s="136"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="136"/>
-      <c r="AD32" s="136"/>
-      <c r="AE32" s="137"/>
-      <c r="AF32" s="132"/>
-      <c r="AG32" s="133"/>
-      <c r="AH32" s="133"/>
-      <c r="AI32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="133"/>
+      <c r="V32" s="133"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="133"/>
+      <c r="Y32" s="133"/>
+      <c r="Z32" s="133"/>
+      <c r="AA32" s="133"/>
+      <c r="AB32" s="133"/>
+      <c r="AC32" s="133"/>
+      <c r="AD32" s="133"/>
+      <c r="AE32" s="134"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="130"/>
+      <c r="AH32" s="130"/>
+      <c r="AI32" s="131"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1">
       <c r="A33" s="76"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="136"/>
-      <c r="T33" s="136"/>
-      <c r="U33" s="136"/>
-      <c r="V33" s="136"/>
-      <c r="W33" s="136"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="136"/>
-      <c r="Z33" s="136"/>
-      <c r="AA33" s="136"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="136"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="137"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="133"/>
-      <c r="AH33" s="133"/>
-      <c r="AI33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
+      <c r="U33" s="133"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="133"/>
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="133"/>
+      <c r="AA33" s="133"/>
+      <c r="AB33" s="133"/>
+      <c r="AC33" s="133"/>
+      <c r="AD33" s="133"/>
+      <c r="AE33" s="134"/>
+      <c r="AF33" s="129"/>
+      <c r="AG33" s="130"/>
+      <c r="AH33" s="130"/>
+      <c r="AI33" s="131"/>
       <c r="AJ33" s="49"/>
       <c r="AK33" s="49"/>
       <c r="AL33" s="49"/>
@@ -9333,45 +9298,122 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="D25:F25"/>
@@ -9396,122 +9438,45 @@
     <mergeCell ref="Q9:AE9"/>
     <mergeCell ref="J15:P15"/>
     <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9542,31 +9507,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -9578,23 +9543,23 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
       <c r="AL1" s="44"/>
@@ -9611,29 +9576,29 @@
       <c r="AW1" s="43"/>
     </row>
     <row r="2" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -9642,23 +9607,23 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="44"/>
       <c r="AK2" s="44"/>
       <c r="AL2" s="44"/>
@@ -9675,29 +9640,29 @@
       <c r="AW2" s="43"/>
     </row>
     <row r="3" spans="1:49" s="27" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -9706,21 +9671,21 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="144" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="52"/>
       <c r="AK3" s="52"/>
       <c r="AL3" s="52"/>
@@ -9803,7 +9768,7 @@
       <c r="M5" s="47"/>
       <c r="P5" s="47"/>
       <c r="Q5" s="82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R5" s="47"/>
       <c r="S5" s="47"/>
@@ -12913,6 +12878,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -12922,14 +12895,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -12959,31 +12924,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -12995,48 +12960,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
     </row>
     <row r="2" spans="1:35" s="18" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -13045,48 +13010,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
     </row>
     <row r="3" spans="1:35" ht="11.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -13095,21 +13060,21 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="144" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
     </row>
     <row r="4" spans="1:35" ht="11.25">
       <c r="A4" s="15"/>
@@ -13485,6 +13450,14 @@
     <row r="14" spans="1:35" ht="11.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -13494,14 +13467,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13534,31 +13499,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -13570,48 +13535,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -13620,48 +13585,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
     </row>
     <row r="3" spans="1:35" ht="11.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -13670,21 +13635,21 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="144" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
     </row>
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
@@ -13707,7 +13672,7 @@
     </row>
     <row r="8" spans="1:35" ht="11.25">
       <c r="D8" s="77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="11.25">
@@ -13746,7 +13711,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25">
       <c r="D21" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="4:34" ht="11.25">
@@ -13756,357 +13721,357 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" spans="4:34" ht="11.25">
-      <c r="D24" s="233" t="s">
+      <c r="D24" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="235"/>
-      <c r="J24" s="233" t="s">
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="234"/>
-      <c r="Q24" s="234"/>
-      <c r="R24" s="234"/>
-      <c r="S24" s="234"/>
-      <c r="T24" s="234"/>
-      <c r="U24" s="234"/>
-      <c r="V24" s="234"/>
-      <c r="W24" s="234"/>
-      <c r="X24" s="234"/>
-      <c r="Y24" s="234"/>
-      <c r="Z24" s="234"/>
-      <c r="AA24" s="234"/>
-      <c r="AB24" s="234"/>
-      <c r="AC24" s="234"/>
-      <c r="AD24" s="234"/>
-      <c r="AE24" s="234"/>
-      <c r="AF24" s="234"/>
-      <c r="AG24" s="234"/>
-      <c r="AH24" s="235"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="207"/>
+      <c r="P24" s="207"/>
+      <c r="Q24" s="207"/>
+      <c r="R24" s="207"/>
+      <c r="S24" s="207"/>
+      <c r="T24" s="207"/>
+      <c r="U24" s="207"/>
+      <c r="V24" s="207"/>
+      <c r="W24" s="207"/>
+      <c r="X24" s="207"/>
+      <c r="Y24" s="207"/>
+      <c r="Z24" s="207"/>
+      <c r="AA24" s="207"/>
+      <c r="AB24" s="207"/>
+      <c r="AC24" s="207"/>
+      <c r="AD24" s="207"/>
+      <c r="AE24" s="207"/>
+      <c r="AF24" s="207"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="208"/>
     </row>
     <row r="25" spans="4:34" ht="11.25">
-      <c r="D25" s="204" t="s">
+      <c r="D25" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="236" t="s">
-        <v>195</v>
-      </c>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="237"/>
-      <c r="N25" s="237"/>
-      <c r="O25" s="237"/>
-      <c r="P25" s="237"/>
-      <c r="Q25" s="237"/>
-      <c r="R25" s="237"/>
-      <c r="S25" s="237"/>
-      <c r="T25" s="237"/>
-      <c r="U25" s="237"/>
-      <c r="V25" s="237"/>
-      <c r="W25" s="237"/>
-      <c r="X25" s="237"/>
-      <c r="Y25" s="237"/>
-      <c r="Z25" s="237"/>
-      <c r="AA25" s="237"/>
-      <c r="AB25" s="237"/>
-      <c r="AC25" s="237"/>
-      <c r="AD25" s="237"/>
-      <c r="AE25" s="237"/>
-      <c r="AF25" s="237"/>
-      <c r="AG25" s="237"/>
-      <c r="AH25" s="238"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="213" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="214"/>
+      <c r="U25" s="214"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="214"/>
+      <c r="X25" s="214"/>
+      <c r="Y25" s="214"/>
+      <c r="Z25" s="214"/>
+      <c r="AA25" s="214"/>
+      <c r="AB25" s="214"/>
+      <c r="AC25" s="214"/>
+      <c r="AD25" s="214"/>
+      <c r="AE25" s="214"/>
+      <c r="AF25" s="214"/>
+      <c r="AG25" s="214"/>
+      <c r="AH25" s="215"/>
     </row>
     <row r="26" spans="4:34" ht="11.25">
-      <c r="D26" s="207"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="239"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="240"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="240"/>
-      <c r="P26" s="240"/>
-      <c r="Q26" s="240"/>
-      <c r="R26" s="240"/>
-      <c r="S26" s="240"/>
-      <c r="T26" s="240"/>
-      <c r="U26" s="240"/>
-      <c r="V26" s="240"/>
-      <c r="W26" s="240"/>
-      <c r="X26" s="240"/>
-      <c r="Y26" s="240"/>
-      <c r="Z26" s="240"/>
-      <c r="AA26" s="240"/>
-      <c r="AB26" s="240"/>
-      <c r="AC26" s="240"/>
-      <c r="AD26" s="240"/>
-      <c r="AE26" s="240"/>
-      <c r="AF26" s="240"/>
-      <c r="AG26" s="240"/>
-      <c r="AH26" s="241"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="236"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="217"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="217"/>
+      <c r="Q26" s="217"/>
+      <c r="R26" s="217"/>
+      <c r="S26" s="217"/>
+      <c r="T26" s="217"/>
+      <c r="U26" s="217"/>
+      <c r="V26" s="217"/>
+      <c r="W26" s="217"/>
+      <c r="X26" s="217"/>
+      <c r="Y26" s="217"/>
+      <c r="Z26" s="217"/>
+      <c r="AA26" s="217"/>
+      <c r="AB26" s="217"/>
+      <c r="AC26" s="217"/>
+      <c r="AD26" s="217"/>
+      <c r="AE26" s="217"/>
+      <c r="AF26" s="217"/>
+      <c r="AG26" s="217"/>
+      <c r="AH26" s="218"/>
     </row>
     <row r="27" spans="4:34" ht="11.25">
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="211"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="242"/>
-      <c r="K27" s="243"/>
-      <c r="L27" s="243"/>
-      <c r="M27" s="243"/>
-      <c r="N27" s="243"/>
-      <c r="O27" s="243"/>
-      <c r="P27" s="243"/>
-      <c r="Q27" s="243"/>
-      <c r="R27" s="243"/>
-      <c r="S27" s="243"/>
-      <c r="T27" s="243"/>
-      <c r="U27" s="243"/>
-      <c r="V27" s="243"/>
-      <c r="W27" s="243"/>
-      <c r="X27" s="243"/>
-      <c r="Y27" s="243"/>
-      <c r="Z27" s="243"/>
-      <c r="AA27" s="243"/>
-      <c r="AB27" s="243"/>
-      <c r="AC27" s="243"/>
-      <c r="AD27" s="243"/>
-      <c r="AE27" s="243"/>
-      <c r="AF27" s="243"/>
-      <c r="AG27" s="243"/>
-      <c r="AH27" s="244"/>
+      <c r="D27" s="237"/>
+      <c r="E27" s="238"/>
+      <c r="F27" s="238"/>
+      <c r="G27" s="238"/>
+      <c r="H27" s="238"/>
+      <c r="I27" s="239"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="220"/>
+      <c r="M27" s="220"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="220"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="220"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
+      <c r="U27" s="220"/>
+      <c r="V27" s="220"/>
+      <c r="W27" s="220"/>
+      <c r="X27" s="220"/>
+      <c r="Y27" s="220"/>
+      <c r="Z27" s="220"/>
+      <c r="AA27" s="220"/>
+      <c r="AB27" s="220"/>
+      <c r="AC27" s="220"/>
+      <c r="AD27" s="220"/>
+      <c r="AE27" s="220"/>
+      <c r="AF27" s="220"/>
+      <c r="AG27" s="220"/>
+      <c r="AH27" s="221"/>
     </row>
     <row r="28" spans="4:34" ht="11.25">
-      <c r="D28" s="204" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="221" t="s">
-        <v>207</v>
-      </c>
-      <c r="K28" s="222"/>
-      <c r="L28" s="222"/>
-      <c r="M28" s="222"/>
-      <c r="N28" s="222"/>
-      <c r="O28" s="222"/>
-      <c r="P28" s="222"/>
-      <c r="Q28" s="222"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="222"/>
-      <c r="V28" s="222"/>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="222"/>
-      <c r="AG28" s="222"/>
-      <c r="AH28" s="223"/>
+      <c r="D28" s="231" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="232"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="222" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
+      <c r="O28" s="223"/>
+      <c r="P28" s="223"/>
+      <c r="Q28" s="223"/>
+      <c r="R28" s="223"/>
+      <c r="S28" s="223"/>
+      <c r="T28" s="223"/>
+      <c r="U28" s="223"/>
+      <c r="V28" s="223"/>
+      <c r="W28" s="223"/>
+      <c r="X28" s="223"/>
+      <c r="Y28" s="223"/>
+      <c r="Z28" s="223"/>
+      <c r="AA28" s="223"/>
+      <c r="AB28" s="223"/>
+      <c r="AC28" s="223"/>
+      <c r="AD28" s="223"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="223"/>
+      <c r="AG28" s="223"/>
+      <c r="AH28" s="224"/>
     </row>
     <row r="29" spans="4:34" ht="11.25">
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="225"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="225"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="225"/>
-      <c r="R29" s="225"/>
-      <c r="S29" s="225"/>
-      <c r="T29" s="225"/>
-      <c r="U29" s="225"/>
-      <c r="V29" s="225"/>
-      <c r="W29" s="225"/>
-      <c r="X29" s="225"/>
-      <c r="Y29" s="225"/>
-      <c r="Z29" s="225"/>
-      <c r="AA29" s="225"/>
-      <c r="AB29" s="225"/>
-      <c r="AC29" s="225"/>
-      <c r="AD29" s="225"/>
-      <c r="AE29" s="225"/>
-      <c r="AF29" s="225"/>
-      <c r="AG29" s="225"/>
-      <c r="AH29" s="226"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="236"/>
+      <c r="J29" s="225"/>
+      <c r="K29" s="226"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="226"/>
+      <c r="O29" s="226"/>
+      <c r="P29" s="226"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="226"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
+      <c r="U29" s="226"/>
+      <c r="V29" s="226"/>
+      <c r="W29" s="226"/>
+      <c r="X29" s="226"/>
+      <c r="Y29" s="226"/>
+      <c r="Z29" s="226"/>
+      <c r="AA29" s="226"/>
+      <c r="AB29" s="226"/>
+      <c r="AC29" s="226"/>
+      <c r="AD29" s="226"/>
+      <c r="AE29" s="226"/>
+      <c r="AF29" s="226"/>
+      <c r="AG29" s="226"/>
+      <c r="AH29" s="227"/>
     </row>
     <row r="30" spans="4:34" ht="11.25">
-      <c r="D30" s="210"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="228"/>
-      <c r="L30" s="228"/>
-      <c r="M30" s="228"/>
-      <c r="N30" s="228"/>
-      <c r="O30" s="228"/>
-      <c r="P30" s="228"/>
-      <c r="Q30" s="228"/>
-      <c r="R30" s="228"/>
-      <c r="S30" s="228"/>
-      <c r="T30" s="228"/>
-      <c r="U30" s="228"/>
-      <c r="V30" s="228"/>
-      <c r="W30" s="228"/>
-      <c r="X30" s="228"/>
-      <c r="Y30" s="228"/>
-      <c r="Z30" s="228"/>
-      <c r="AA30" s="228"/>
-      <c r="AB30" s="228"/>
-      <c r="AC30" s="228"/>
-      <c r="AD30" s="228"/>
-      <c r="AE30" s="228"/>
-      <c r="AF30" s="228"/>
-      <c r="AG30" s="228"/>
-      <c r="AH30" s="229"/>
+      <c r="D30" s="237"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="239"/>
+      <c r="J30" s="228"/>
+      <c r="K30" s="229"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
+      <c r="N30" s="229"/>
+      <c r="O30" s="229"/>
+      <c r="P30" s="229"/>
+      <c r="Q30" s="229"/>
+      <c r="R30" s="229"/>
+      <c r="S30" s="229"/>
+      <c r="T30" s="229"/>
+      <c r="U30" s="229"/>
+      <c r="V30" s="229"/>
+      <c r="W30" s="229"/>
+      <c r="X30" s="229"/>
+      <c r="Y30" s="229"/>
+      <c r="Z30" s="229"/>
+      <c r="AA30" s="229"/>
+      <c r="AB30" s="229"/>
+      <c r="AC30" s="229"/>
+      <c r="AD30" s="229"/>
+      <c r="AE30" s="229"/>
+      <c r="AF30" s="229"/>
+      <c r="AG30" s="229"/>
+      <c r="AH30" s="230"/>
     </row>
     <row r="31" spans="4:34" ht="11.25">
-      <c r="D31" s="213" t="s">
+      <c r="D31" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="221" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" s="222"/>
-      <c r="L31" s="222"/>
-      <c r="M31" s="222"/>
-      <c r="N31" s="222"/>
-      <c r="O31" s="222"/>
-      <c r="P31" s="222"/>
-      <c r="Q31" s="222"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222"/>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222"/>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222"/>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="222"/>
-      <c r="AF31" s="222"/>
-      <c r="AG31" s="222"/>
-      <c r="AH31" s="223"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="232"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="222" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="223"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="223"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="223"/>
+      <c r="U31" s="223"/>
+      <c r="V31" s="223"/>
+      <c r="W31" s="223"/>
+      <c r="X31" s="223"/>
+      <c r="Y31" s="223"/>
+      <c r="Z31" s="223"/>
+      <c r="AA31" s="223"/>
+      <c r="AB31" s="223"/>
+      <c r="AC31" s="223"/>
+      <c r="AD31" s="223"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="223"/>
+      <c r="AG31" s="223"/>
+      <c r="AH31" s="224"/>
     </row>
     <row r="32" spans="4:34" ht="11.25">
-      <c r="D32" s="207"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="225"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="225"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="225"/>
-      <c r="R32" s="225"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="225"/>
-      <c r="V32" s="225"/>
-      <c r="W32" s="225"/>
-      <c r="X32" s="225"/>
-      <c r="Y32" s="225"/>
-      <c r="Z32" s="225"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="225"/>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="225"/>
-      <c r="AE32" s="225"/>
-      <c r="AF32" s="225"/>
-      <c r="AG32" s="225"/>
-      <c r="AH32" s="226"/>
+      <c r="D32" s="234"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="236"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="226"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="226"/>
+      <c r="P32" s="226"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="226"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="226"/>
+      <c r="U32" s="226"/>
+      <c r="V32" s="226"/>
+      <c r="W32" s="226"/>
+      <c r="X32" s="226"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="226"/>
+      <c r="AA32" s="226"/>
+      <c r="AB32" s="226"/>
+      <c r="AC32" s="226"/>
+      <c r="AD32" s="226"/>
+      <c r="AE32" s="226"/>
+      <c r="AF32" s="226"/>
+      <c r="AG32" s="226"/>
+      <c r="AH32" s="227"/>
     </row>
     <row r="33" spans="3:34" ht="11.25">
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="227"/>
-      <c r="K33" s="228"/>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
-      <c r="O33" s="228"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="228"/>
-      <c r="R33" s="228"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="228"/>
-      <c r="W33" s="228"/>
-      <c r="X33" s="228"/>
-      <c r="Y33" s="228"/>
-      <c r="Z33" s="228"/>
-      <c r="AA33" s="228"/>
-      <c r="AB33" s="228"/>
-      <c r="AC33" s="228"/>
-      <c r="AD33" s="228"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="228"/>
-      <c r="AG33" s="228"/>
-      <c r="AH33" s="229"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="238"/>
+      <c r="F33" s="238"/>
+      <c r="G33" s="238"/>
+      <c r="H33" s="238"/>
+      <c r="I33" s="239"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="229"/>
+      <c r="N33" s="229"/>
+      <c r="O33" s="229"/>
+      <c r="P33" s="229"/>
+      <c r="Q33" s="229"/>
+      <c r="R33" s="229"/>
+      <c r="S33" s="229"/>
+      <c r="T33" s="229"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="229"/>
+      <c r="X33" s="229"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="229"/>
+      <c r="AA33" s="229"/>
+      <c r="AB33" s="229"/>
+      <c r="AC33" s="229"/>
+      <c r="AD33" s="229"/>
+      <c r="AE33" s="229"/>
+      <c r="AF33" s="229"/>
+      <c r="AG33" s="229"/>
+      <c r="AH33" s="230"/>
     </row>
     <row r="34" spans="3:34" ht="11.25">
       <c r="D34" s="33" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="3:34" ht="11.25"/>
@@ -14122,75 +14087,75 @@
     </row>
     <row r="38" spans="3:34" ht="11.25"/>
     <row r="39" spans="3:34" ht="40.5" customHeight="1">
-      <c r="D39" s="215" t="s">
+      <c r="D39" s="241" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="214" t="s">
+      <c r="E39" s="242"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="243"/>
+      <c r="H39" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="214" t="s">
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="M39" s="231"/>
-      <c r="N39" s="231"/>
-      <c r="O39" s="232"/>
-      <c r="P39" s="214" t="s">
+      <c r="M39" s="210"/>
+      <c r="N39" s="210"/>
+      <c r="O39" s="211"/>
+      <c r="P39" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="Q39" s="136"/>
-      <c r="R39" s="136"/>
-      <c r="S39" s="137"/>
-      <c r="T39" s="214" t="s">
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="U39" s="136"/>
-      <c r="V39" s="136"/>
-      <c r="W39" s="137"/>
-      <c r="X39" s="330" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y39" s="136"/>
-      <c r="Z39" s="136"/>
-      <c r="AA39" s="137"/>
+      <c r="U39" s="133"/>
+      <c r="V39" s="133"/>
+      <c r="W39" s="134"/>
+      <c r="X39" s="212" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y39" s="133"/>
+      <c r="Z39" s="133"/>
+      <c r="AA39" s="134"/>
     </row>
     <row r="40" spans="3:34" ht="11.25">
-      <c r="D40" s="201" t="s">
+      <c r="D40" s="204" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="202"/>
       <c r="F40" s="202"/>
       <c r="G40" s="203"/>
-      <c r="H40" s="201" t="s">
+      <c r="H40" s="204" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="202"/>
       <c r="J40" s="202"/>
       <c r="K40" s="203"/>
-      <c r="L40" s="201" t="s">
+      <c r="L40" s="204" t="s">
         <v>43</v>
       </c>
       <c r="M40" s="202"/>
       <c r="N40" s="202"/>
       <c r="O40" s="203"/>
-      <c r="P40" s="201" t="s">
+      <c r="P40" s="204" t="s">
         <v>43</v>
       </c>
       <c r="Q40" s="202"/>
       <c r="R40" s="202"/>
       <c r="S40" s="203"/>
-      <c r="T40" s="201" t="s">
+      <c r="T40" s="204" t="s">
         <v>43</v>
       </c>
       <c r="U40" s="202"/>
       <c r="V40" s="202"/>
       <c r="W40" s="203"/>
-      <c r="X40" s="201" t="s">
+      <c r="X40" s="204" t="s">
         <v>43</v>
       </c>
       <c r="Y40" s="202"/>
@@ -14198,75 +14163,75 @@
       <c r="AA40" s="203"/>
     </row>
     <row r="41" spans="3:34" ht="36" customHeight="1">
-      <c r="D41" s="218" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="218" t="s">
-        <v>209</v>
+      <c r="D41" s="205" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="244"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="245"/>
+      <c r="H41" s="205" t="s">
+        <v>207</v>
       </c>
       <c r="I41" s="202"/>
       <c r="J41" s="202"/>
       <c r="K41" s="203"/>
-      <c r="L41" s="218" t="s">
-        <v>210</v>
+      <c r="L41" s="205" t="s">
+        <v>208</v>
       </c>
       <c r="M41" s="202"/>
       <c r="N41" s="202"/>
       <c r="O41" s="203"/>
-      <c r="P41" s="201" t="s">
+      <c r="P41" s="204" t="s">
         <v>43</v>
       </c>
       <c r="Q41" s="202"/>
       <c r="R41" s="202"/>
       <c r="S41" s="203"/>
-      <c r="T41" s="201" t="s">
+      <c r="T41" s="204" t="s">
         <v>43</v>
       </c>
       <c r="U41" s="202"/>
       <c r="V41" s="202"/>
       <c r="W41" s="203"/>
-      <c r="X41" s="230" t="s">
-        <v>219</v>
+      <c r="X41" s="201" t="s">
+        <v>217</v>
       </c>
       <c r="Y41" s="202"/>
       <c r="Z41" s="202"/>
       <c r="AA41" s="203"/>
     </row>
     <row r="42" spans="3:34" ht="11.25">
-      <c r="D42" s="201" t="s">
+      <c r="D42" s="204" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="202"/>
       <c r="F42" s="202"/>
       <c r="G42" s="203"/>
-      <c r="H42" s="201" t="s">
+      <c r="H42" s="204" t="s">
         <v>61</v>
       </c>
       <c r="I42" s="202"/>
       <c r="J42" s="202"/>
       <c r="K42" s="203"/>
-      <c r="L42" s="201" t="s">
+      <c r="L42" s="204" t="s">
         <v>61</v>
       </c>
       <c r="M42" s="202"/>
       <c r="N42" s="202"/>
       <c r="O42" s="203"/>
-      <c r="P42" s="230" t="s">
+      <c r="P42" s="201" t="s">
         <v>43</v>
       </c>
       <c r="Q42" s="202"/>
       <c r="R42" s="202"/>
       <c r="S42" s="203"/>
-      <c r="T42" s="230" t="s">
+      <c r="T42" s="201" t="s">
         <v>43</v>
       </c>
       <c r="U42" s="202"/>
       <c r="V42" s="202"/>
       <c r="W42" s="203"/>
-      <c r="X42" s="201" t="s">
+      <c r="X42" s="204" t="s">
         <v>61</v>
       </c>
       <c r="Y42" s="202"/>
@@ -14348,7 +14313,7 @@
     </row>
     <row r="51" spans="3:5" ht="11.25">
       <c r="D51" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="3:5" ht="11.25">
@@ -14388,42 +14353,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J24:AH24"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="X39:AA39"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="J25:AH27"/>
-    <mergeCell ref="J31:AH33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X40:AA40"/>
-    <mergeCell ref="X41:AA41"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D25:I27"/>
     <mergeCell ref="D31:I33"/>
@@ -14437,6 +14366,42 @@
     <mergeCell ref="J28:AH30"/>
     <mergeCell ref="D28:I30"/>
     <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="X40:AA40"/>
+    <mergeCell ref="X41:AA41"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J24:AH24"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="J25:AH27"/>
+    <mergeCell ref="J31:AH33"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:S41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -14460,8 +14425,8 @@
   </sheetPr>
   <dimension ref="A1:AM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -14471,31 +14436,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -14507,48 +14472,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -14557,48 +14522,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
     </row>
     <row r="3" spans="1:35" s="15" customFormat="1">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -14607,26 +14572,26 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="144" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1"/>
     <row r="5" spans="1:35" s="15" customFormat="1">
       <c r="B5" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="19"/>
     </row>
@@ -14666,7 +14631,7 @@
     <row r="9" spans="1:35" s="15" customFormat="1">
       <c r="C9" s="22"/>
       <c r="D9" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -14688,7 +14653,7 @@
     <row r="10" spans="1:35" s="15" customFormat="1">
       <c r="C10" s="22"/>
       <c r="D10" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -14768,17 +14733,17 @@
     <row r="19" spans="3:34" s="15" customFormat="1">
       <c r="C19" s="22"/>
       <c r="E19" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="3:34">
       <c r="D21" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="3:34">
       <c r="E22" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="3:34">
@@ -14787,7 +14752,7 @@
     <row r="24" spans="3:34">
       <c r="E24" s="57"/>
       <c r="F24" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
@@ -14828,42 +14793,42 @@
     </row>
     <row r="26" spans="3:34">
       <c r="E26" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="3:34">
       <c r="D28" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="279" t="s">
+      <c r="E28" s="294" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="280"/>
-      <c r="G28" s="280"/>
-      <c r="H28" s="281"/>
-      <c r="I28" s="257" t="s">
+      <c r="F28" s="295"/>
+      <c r="G28" s="295"/>
+      <c r="H28" s="296"/>
+      <c r="I28" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="258"/>
-      <c r="K28" s="259"/>
-      <c r="L28" s="278" t="s">
+      <c r="J28" s="265"/>
+      <c r="K28" s="266"/>
+      <c r="L28" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="278"/>
-      <c r="N28" s="278"/>
-      <c r="O28" s="278"/>
-      <c r="P28" s="278"/>
-      <c r="Q28" s="257" t="s">
+      <c r="M28" s="276"/>
+      <c r="N28" s="276"/>
+      <c r="O28" s="276"/>
+      <c r="P28" s="276"/>
+      <c r="Q28" s="264" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="258"/>
-      <c r="S28" s="258"/>
-      <c r="T28" s="259"/>
-      <c r="U28" s="257" t="s">
+      <c r="R28" s="265"/>
+      <c r="S28" s="265"/>
+      <c r="T28" s="266"/>
+      <c r="U28" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="V28" s="258"/>
-      <c r="W28" s="259"/>
+      <c r="V28" s="265"/>
+      <c r="W28" s="266"/>
       <c r="X28" s="74" t="s">
         <v>48</v>
       </c>
@@ -14884,31 +14849,31 @@
       <c r="D29" s="84">
         <v>1</v>
       </c>
-      <c r="E29" s="272" t="s">
+      <c r="E29" s="281" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="273"/>
-      <c r="G29" s="273"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="266" t="s">
-        <v>187</v>
-      </c>
-      <c r="J29" s="267"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="268" t="s">
+      <c r="F29" s="282"/>
+      <c r="G29" s="282"/>
+      <c r="H29" s="283"/>
+      <c r="I29" s="297" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="298"/>
+      <c r="K29" s="298"/>
+      <c r="L29" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="M29" s="268"/>
-      <c r="N29" s="268"/>
-      <c r="O29" s="268"/>
-      <c r="P29" s="268"/>
-      <c r="Q29" s="260"/>
-      <c r="R29" s="261"/>
-      <c r="S29" s="261"/>
-      <c r="T29" s="262"/>
-      <c r="U29" s="260"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="262"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="293"/>
+      <c r="O29" s="293"/>
+      <c r="P29" s="293"/>
+      <c r="Q29" s="284"/>
+      <c r="R29" s="285"/>
+      <c r="S29" s="285"/>
+      <c r="T29" s="286"/>
+      <c r="U29" s="284"/>
+      <c r="V29" s="285"/>
+      <c r="W29" s="286"/>
       <c r="X29" s="85" t="s">
         <v>8</v>
       </c>
@@ -14929,27 +14894,27 @@
       <c r="D30" s="84">
         <v>2</v>
       </c>
-      <c r="E30" s="260"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="261"/>
-      <c r="H30" s="262"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="267"/>
-      <c r="K30" s="267"/>
-      <c r="L30" s="268" t="s">
+      <c r="E30" s="284"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="285"/>
+      <c r="H30" s="286"/>
+      <c r="I30" s="298"/>
+      <c r="J30" s="298"/>
+      <c r="K30" s="298"/>
+      <c r="L30" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="268"/>
-      <c r="N30" s="268"/>
-      <c r="O30" s="268"/>
-      <c r="P30" s="268"/>
-      <c r="Q30" s="260"/>
-      <c r="R30" s="261"/>
-      <c r="S30" s="261"/>
-      <c r="T30" s="262"/>
-      <c r="U30" s="260"/>
-      <c r="V30" s="261"/>
-      <c r="W30" s="262"/>
+      <c r="M30" s="293"/>
+      <c r="N30" s="293"/>
+      <c r="O30" s="293"/>
+      <c r="P30" s="293"/>
+      <c r="Q30" s="284"/>
+      <c r="R30" s="285"/>
+      <c r="S30" s="285"/>
+      <c r="T30" s="286"/>
+      <c r="U30" s="284"/>
+      <c r="V30" s="285"/>
+      <c r="W30" s="286"/>
       <c r="X30" s="85" t="s">
         <v>3</v>
       </c>
@@ -14968,27 +14933,27 @@
       <c r="D31" s="91">
         <v>3</v>
       </c>
-      <c r="E31" s="275"/>
-      <c r="F31" s="276"/>
-      <c r="G31" s="276"/>
-      <c r="H31" s="277"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="267"/>
-      <c r="K31" s="267"/>
-      <c r="L31" s="268" t="s">
+      <c r="E31" s="287"/>
+      <c r="F31" s="288"/>
+      <c r="G31" s="288"/>
+      <c r="H31" s="289"/>
+      <c r="I31" s="298"/>
+      <c r="J31" s="298"/>
+      <c r="K31" s="298"/>
+      <c r="L31" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="268"/>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
-      <c r="P31" s="268"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="264"/>
-      <c r="S31" s="264"/>
-      <c r="T31" s="265"/>
-      <c r="U31" s="263"/>
-      <c r="V31" s="264"/>
-      <c r="W31" s="265"/>
+      <c r="M31" s="293"/>
+      <c r="N31" s="293"/>
+      <c r="O31" s="293"/>
+      <c r="P31" s="293"/>
+      <c r="Q31" s="290"/>
+      <c r="R31" s="291"/>
+      <c r="S31" s="291"/>
+      <c r="T31" s="292"/>
+      <c r="U31" s="290"/>
+      <c r="V31" s="291"/>
+      <c r="W31" s="292"/>
       <c r="X31" s="92" t="s">
         <v>4</v>
       </c>
@@ -15026,7 +14991,7 @@
     <row r="33" spans="1:39">
       <c r="D33" s="25"/>
       <c r="E33" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -15069,7 +15034,7 @@
       <c r="D35" s="25"/>
       <c r="E35" s="59"/>
       <c r="F35" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
@@ -15109,7 +15074,7 @@
     </row>
     <row r="37" spans="1:39">
       <c r="E37" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:39">
@@ -15136,50 +15101,50 @@
       <c r="D39" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="294" t="s">
+      <c r="E39" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="295"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="296"/>
-      <c r="I39" s="257" t="s">
+      <c r="F39" s="259"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="260"/>
+      <c r="I39" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="258"/>
-      <c r="K39" s="259"/>
-      <c r="L39" s="278" t="s">
+      <c r="J39" s="265"/>
+      <c r="K39" s="266"/>
+      <c r="L39" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="278"/>
-      <c r="N39" s="278"/>
-      <c r="O39" s="278"/>
-      <c r="P39" s="278"/>
-      <c r="Q39" s="297" t="s">
+      <c r="M39" s="276"/>
+      <c r="N39" s="276"/>
+      <c r="O39" s="276"/>
+      <c r="P39" s="276"/>
+      <c r="Q39" s="278" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="298"/>
-      <c r="S39" s="298"/>
-      <c r="T39" s="299"/>
-      <c r="U39" s="257" t="s">
+      <c r="R39" s="279"/>
+      <c r="S39" s="279"/>
+      <c r="T39" s="280"/>
+      <c r="U39" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="V39" s="258"/>
-      <c r="W39" s="259"/>
-      <c r="X39" s="294" t="s">
+      <c r="V39" s="265"/>
+      <c r="W39" s="266"/>
+      <c r="X39" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="Y39" s="295"/>
-      <c r="Z39" s="295"/>
-      <c r="AA39" s="295"/>
-      <c r="AB39" s="295"/>
-      <c r="AC39" s="295"/>
-      <c r="AD39" s="295"/>
-      <c r="AE39" s="296"/>
-      <c r="AF39" s="282" t="s">
+      <c r="Y39" s="259"/>
+      <c r="Z39" s="259"/>
+      <c r="AA39" s="259"/>
+      <c r="AB39" s="259"/>
+      <c r="AC39" s="259"/>
+      <c r="AD39" s="259"/>
+      <c r="AE39" s="260"/>
+      <c r="AF39" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="AG39" s="283"/>
-      <c r="AH39" s="284"/>
+      <c r="AG39" s="247"/>
+      <c r="AH39" s="248"/>
       <c r="AJ39" s="36"/>
       <c r="AK39" s="36"/>
       <c r="AL39" s="36"/>
@@ -15192,45 +15157,45 @@
       <c r="D40" s="84">
         <v>1</v>
       </c>
-      <c r="E40" s="285" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="286"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="287"/>
-      <c r="I40" s="248" t="s">
+      <c r="E40" s="249" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="250"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="251"/>
+      <c r="I40" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="249"/>
-      <c r="K40" s="250"/>
-      <c r="L40" s="270" t="s">
+      <c r="J40" s="268"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="277" t="s">
         <v>100</v>
       </c>
-      <c r="M40" s="270"/>
-      <c r="N40" s="270"/>
-      <c r="O40" s="270"/>
-      <c r="P40" s="270"/>
-      <c r="Q40" s="285" t="s">
+      <c r="M40" s="277"/>
+      <c r="N40" s="277"/>
+      <c r="O40" s="277"/>
+      <c r="P40" s="277"/>
+      <c r="Q40" s="249" t="s">
+        <v>156</v>
+      </c>
+      <c r="R40" s="250"/>
+      <c r="S40" s="250"/>
+      <c r="T40" s="251"/>
+      <c r="U40" s="267" t="s">
         <v>157</v>
       </c>
-      <c r="R40" s="286"/>
-      <c r="S40" s="286"/>
-      <c r="T40" s="287"/>
-      <c r="U40" s="248" t="s">
-        <v>158</v>
-      </c>
-      <c r="V40" s="249"/>
-      <c r="W40" s="250"/>
-      <c r="X40" s="245" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y40" s="246"/>
-      <c r="Z40" s="246"/>
-      <c r="AA40" s="246"/>
-      <c r="AB40" s="246"/>
-      <c r="AC40" s="246"/>
-      <c r="AD40" s="246"/>
-      <c r="AE40" s="247"/>
+      <c r="V40" s="268"/>
+      <c r="W40" s="269"/>
+      <c r="X40" s="261" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y40" s="262"/>
+      <c r="Z40" s="262"/>
+      <c r="AA40" s="262"/>
+      <c r="AB40" s="262"/>
+      <c r="AC40" s="262"/>
+      <c r="AD40" s="262"/>
+      <c r="AE40" s="263"/>
       <c r="AF40" s="103" t="s">
         <v>103</v>
       </c>
@@ -15248,37 +15213,37 @@
       <c r="D41" s="84">
         <v>2</v>
       </c>
-      <c r="E41" s="288"/>
-      <c r="F41" s="289"/>
-      <c r="G41" s="289"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="251"/>
-      <c r="J41" s="252"/>
-      <c r="K41" s="253"/>
-      <c r="L41" s="270" t="s">
+      <c r="E41" s="252"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="254"/>
+      <c r="I41" s="270"/>
+      <c r="J41" s="271"/>
+      <c r="K41" s="272"/>
+      <c r="L41" s="277" t="s">
         <v>101</v>
       </c>
-      <c r="M41" s="270"/>
-      <c r="N41" s="270"/>
-      <c r="O41" s="270"/>
-      <c r="P41" s="270"/>
-      <c r="Q41" s="288"/>
-      <c r="R41" s="289"/>
-      <c r="S41" s="289"/>
-      <c r="T41" s="290"/>
-      <c r="U41" s="251"/>
-      <c r="V41" s="252"/>
-      <c r="W41" s="253"/>
-      <c r="X41" s="245" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y41" s="246"/>
-      <c r="Z41" s="246"/>
-      <c r="AA41" s="246"/>
-      <c r="AB41" s="246"/>
-      <c r="AC41" s="246"/>
-      <c r="AD41" s="246"/>
-      <c r="AE41" s="247"/>
+      <c r="M41" s="277"/>
+      <c r="N41" s="277"/>
+      <c r="O41" s="277"/>
+      <c r="P41" s="277"/>
+      <c r="Q41" s="252"/>
+      <c r="R41" s="253"/>
+      <c r="S41" s="253"/>
+      <c r="T41" s="254"/>
+      <c r="U41" s="270"/>
+      <c r="V41" s="271"/>
+      <c r="W41" s="272"/>
+      <c r="X41" s="261" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y41" s="262"/>
+      <c r="Z41" s="262"/>
+      <c r="AA41" s="262"/>
+      <c r="AB41" s="262"/>
+      <c r="AC41" s="262"/>
+      <c r="AD41" s="262"/>
+      <c r="AE41" s="263"/>
       <c r="AF41" s="106"/>
       <c r="AG41" s="107"/>
       <c r="AH41" s="108"/>
@@ -15294,37 +15259,37 @@
       <c r="D42" s="84">
         <v>3</v>
       </c>
-      <c r="E42" s="288"/>
-      <c r="F42" s="289"/>
-      <c r="G42" s="289"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="251"/>
-      <c r="J42" s="252"/>
-      <c r="K42" s="253"/>
-      <c r="L42" s="270" t="s">
+      <c r="E42" s="252"/>
+      <c r="F42" s="253"/>
+      <c r="G42" s="253"/>
+      <c r="H42" s="254"/>
+      <c r="I42" s="270"/>
+      <c r="J42" s="271"/>
+      <c r="K42" s="272"/>
+      <c r="L42" s="277" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="270"/>
-      <c r="N42" s="270"/>
-      <c r="O42" s="270"/>
-      <c r="P42" s="270"/>
-      <c r="Q42" s="288"/>
-      <c r="R42" s="289"/>
-      <c r="S42" s="289"/>
-      <c r="T42" s="290"/>
-      <c r="U42" s="251"/>
-      <c r="V42" s="252"/>
-      <c r="W42" s="253"/>
-      <c r="X42" s="245" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y42" s="246"/>
-      <c r="Z42" s="246"/>
-      <c r="AA42" s="246"/>
-      <c r="AB42" s="246"/>
-      <c r="AC42" s="246"/>
-      <c r="AD42" s="246"/>
-      <c r="AE42" s="247"/>
+      <c r="M42" s="277"/>
+      <c r="N42" s="277"/>
+      <c r="O42" s="277"/>
+      <c r="P42" s="277"/>
+      <c r="Q42" s="252"/>
+      <c r="R42" s="253"/>
+      <c r="S42" s="253"/>
+      <c r="T42" s="254"/>
+      <c r="U42" s="270"/>
+      <c r="V42" s="271"/>
+      <c r="W42" s="272"/>
+      <c r="X42" s="261" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y42" s="262"/>
+      <c r="Z42" s="262"/>
+      <c r="AA42" s="262"/>
+      <c r="AB42" s="262"/>
+      <c r="AC42" s="262"/>
+      <c r="AD42" s="262"/>
+      <c r="AE42" s="263"/>
       <c r="AF42" s="106"/>
       <c r="AG42" s="107"/>
       <c r="AH42" s="108"/>
@@ -15340,37 +15305,37 @@
       <c r="D43" s="84">
         <v>4</v>
       </c>
-      <c r="E43" s="288"/>
-      <c r="F43" s="289"/>
-      <c r="G43" s="289"/>
-      <c r="H43" s="290"/>
-      <c r="I43" s="251"/>
-      <c r="J43" s="252"/>
-      <c r="K43" s="253"/>
-      <c r="L43" s="271" t="s">
+      <c r="E43" s="252"/>
+      <c r="F43" s="253"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="270"/>
+      <c r="J43" s="271"/>
+      <c r="K43" s="272"/>
+      <c r="L43" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="270"/>
-      <c r="N43" s="270"/>
-      <c r="O43" s="270"/>
-      <c r="P43" s="270"/>
-      <c r="Q43" s="288"/>
-      <c r="R43" s="289"/>
-      <c r="S43" s="289"/>
-      <c r="T43" s="290"/>
-      <c r="U43" s="251"/>
-      <c r="V43" s="252"/>
-      <c r="W43" s="253"/>
-      <c r="X43" s="245" t="s">
+      <c r="M43" s="277"/>
+      <c r="N43" s="277"/>
+      <c r="O43" s="277"/>
+      <c r="P43" s="277"/>
+      <c r="Q43" s="252"/>
+      <c r="R43" s="253"/>
+      <c r="S43" s="253"/>
+      <c r="T43" s="254"/>
+      <c r="U43" s="270"/>
+      <c r="V43" s="271"/>
+      <c r="W43" s="272"/>
+      <c r="X43" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="Y43" s="246"/>
-      <c r="Z43" s="246"/>
-      <c r="AA43" s="246"/>
-      <c r="AB43" s="246"/>
-      <c r="AC43" s="246"/>
-      <c r="AD43" s="246"/>
-      <c r="AE43" s="247"/>
+      <c r="Y43" s="262"/>
+      <c r="Z43" s="262"/>
+      <c r="AA43" s="262"/>
+      <c r="AB43" s="262"/>
+      <c r="AC43" s="262"/>
+      <c r="AD43" s="262"/>
+      <c r="AE43" s="263"/>
       <c r="AF43" s="106"/>
       <c r="AG43" s="107"/>
       <c r="AH43" s="108"/>
@@ -15386,37 +15351,37 @@
       <c r="D44" s="84">
         <v>5</v>
       </c>
-      <c r="E44" s="291"/>
-      <c r="F44" s="292"/>
-      <c r="G44" s="292"/>
-      <c r="H44" s="293"/>
-      <c r="I44" s="254"/>
-      <c r="J44" s="255"/>
-      <c r="K44" s="256"/>
-      <c r="L44" s="269" t="s">
+      <c r="E44" s="255"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="257"/>
+      <c r="I44" s="273"/>
+      <c r="J44" s="274"/>
+      <c r="K44" s="275"/>
+      <c r="L44" s="299" t="s">
         <v>99</v>
       </c>
-      <c r="M44" s="269"/>
-      <c r="N44" s="269"/>
-      <c r="O44" s="269"/>
-      <c r="P44" s="269"/>
-      <c r="Q44" s="291"/>
-      <c r="R44" s="292"/>
-      <c r="S44" s="292"/>
-      <c r="T44" s="293"/>
-      <c r="U44" s="254"/>
-      <c r="V44" s="255"/>
-      <c r="W44" s="256"/>
-      <c r="X44" s="245" t="s">
+      <c r="M44" s="299"/>
+      <c r="N44" s="299"/>
+      <c r="O44" s="299"/>
+      <c r="P44" s="299"/>
+      <c r="Q44" s="255"/>
+      <c r="R44" s="256"/>
+      <c r="S44" s="256"/>
+      <c r="T44" s="257"/>
+      <c r="U44" s="273"/>
+      <c r="V44" s="274"/>
+      <c r="W44" s="275"/>
+      <c r="X44" s="261" t="s">
         <v>111</v>
       </c>
-      <c r="Y44" s="246"/>
-      <c r="Z44" s="246"/>
-      <c r="AA44" s="246"/>
-      <c r="AB44" s="246"/>
-      <c r="AC44" s="246"/>
-      <c r="AD44" s="246"/>
-      <c r="AE44" s="247"/>
+      <c r="Y44" s="262"/>
+      <c r="Z44" s="262"/>
+      <c r="AA44" s="262"/>
+      <c r="AB44" s="262"/>
+      <c r="AC44" s="262"/>
+      <c r="AD44" s="262"/>
+      <c r="AE44" s="263"/>
       <c r="AF44" s="109"/>
       <c r="AG44" s="110"/>
       <c r="AH44" s="111"/>
@@ -15427,7 +15392,7 @@
     </row>
     <row r="45" spans="1:39">
       <c r="D45" s="119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E45" s="120"/>
       <c r="F45" s="120"/>
@@ -15478,7 +15443,7 @@
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
       <c r="E47" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
@@ -15503,12 +15468,12 @@
     </row>
     <row r="49" spans="4:22">
       <c r="E49" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="4:22">
       <c r="D52" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="4:22">
@@ -15533,7 +15498,7 @@
     </row>
     <row r="54" spans="4:22">
       <c r="E54" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36"/>
@@ -15576,7 +15541,7 @@
     <row r="56" spans="4:22">
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
@@ -15637,12 +15602,12 @@
     </row>
     <row r="59" spans="4:22">
       <c r="D59" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="4:22">
       <c r="E61" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="36"/>
     </row>
@@ -15653,7 +15618,7 @@
     <row r="63" spans="4:22">
       <c r="E63" s="36"/>
       <c r="F63" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="4:22">
@@ -15662,12 +15627,12 @@
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="32" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="E68" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F68" s="36"/>
     </row>
@@ -15678,11 +15643,45 @@
     <row r="70" spans="4:6">
       <c r="E70" s="36"/>
       <c r="F70" s="36" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="X44:AE44"/>
+    <mergeCell ref="U40:W44"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="U29:W31"/>
+    <mergeCell ref="I29:K31"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L44:P44"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="E29:H31"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T31"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AF39:AH39"/>
     <mergeCell ref="E40:H44"/>
     <mergeCell ref="E39:H39"/>
@@ -15699,40 +15698,6 @@
     <mergeCell ref="Q39:T39"/>
     <mergeCell ref="Q40:T44"/>
     <mergeCell ref="L41:P41"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E29:H31"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="Q29:T31"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="X44:AE44"/>
-    <mergeCell ref="U40:W44"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="U29:W31"/>
-    <mergeCell ref="I29:K31"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L44:P44"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="L43:P43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15767,31 +15732,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="153" t="str">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="162" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>単体テスト標準</v>
@@ -15803,48 +15768,48 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="161"/>
-      <c r="AC1" s="144" t="str">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="145"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="147">
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="182">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43643</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="149"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
     </row>
     <row r="2" spans="1:35" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="153" t="str">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="167"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -15853,48 +15818,48 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="144" t="str">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147" t="str">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="149"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
     </row>
     <row r="3" spans="1:35" ht="11.25">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="153" t="str">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>-</v>
       </c>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="170"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="152"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -15903,27 +15868,27 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="161"/>
-      <c r="AC3" s="144" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="179" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147" t="str">
+      <c r="AD3" s="180"/>
+      <c r="AE3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="149"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
     </row>
     <row r="4" spans="1:35" ht="11.25"/>
     <row r="5" spans="1:35" ht="11.25">
       <c r="A5" s="20"/>
       <c r="C5" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25">
@@ -16027,7 +15992,7 @@
     <row r="10" spans="1:35" ht="11.25">
       <c r="C10" s="56"/>
       <c r="D10" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
@@ -16090,7 +16055,7 @@
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F12" s="120"/>
       <c r="G12" s="120"/>
@@ -16151,7 +16116,7 @@
     <row r="14" spans="1:35" ht="11.25">
       <c r="C14" s="56"/>
       <c r="D14" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="119"/>
       <c r="F14" s="120"/>
@@ -16214,7 +16179,7 @@
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="119" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="120"/>
       <c r="G16" s="120"/>
@@ -16274,592 +16239,592 @@
     </row>
     <row r="18" spans="3:34" ht="15" customHeight="1">
       <c r="D18" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="15" customHeight="1">
       <c r="E20" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="3:34" ht="15" customHeight="1">
       <c r="E21" s="55"/>
     </row>
     <row r="22" spans="3:34" ht="15" customHeight="1">
-      <c r="E22" s="279" t="s">
+      <c r="E22" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
-      <c r="H22" s="280"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="281"/>
-      <c r="K22" s="279" t="s">
+      <c r="F22" s="295"/>
+      <c r="G22" s="295"/>
+      <c r="H22" s="295"/>
+      <c r="I22" s="295"/>
+      <c r="J22" s="296"/>
+      <c r="K22" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="281"/>
-      <c r="M22" s="279" t="s">
+      <c r="L22" s="296"/>
+      <c r="M22" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="N22" s="280"/>
-      <c r="O22" s="280"/>
-      <c r="P22" s="280"/>
-      <c r="Q22" s="280"/>
-      <c r="R22" s="280"/>
-      <c r="S22" s="280"/>
-      <c r="T22" s="280"/>
-      <c r="U22" s="280"/>
-      <c r="V22" s="280"/>
-      <c r="W22" s="280"/>
-      <c r="X22" s="280"/>
-      <c r="Y22" s="280"/>
-      <c r="Z22" s="280"/>
-      <c r="AA22" s="280"/>
-      <c r="AB22" s="280"/>
-      <c r="AC22" s="280"/>
-      <c r="AD22" s="280"/>
-      <c r="AE22" s="280"/>
-      <c r="AF22" s="280"/>
-      <c r="AG22" s="280"/>
-      <c r="AH22" s="281"/>
+      <c r="N22" s="295"/>
+      <c r="O22" s="295"/>
+      <c r="P22" s="295"/>
+      <c r="Q22" s="295"/>
+      <c r="R22" s="295"/>
+      <c r="S22" s="295"/>
+      <c r="T22" s="295"/>
+      <c r="U22" s="295"/>
+      <c r="V22" s="295"/>
+      <c r="W22" s="295"/>
+      <c r="X22" s="295"/>
+      <c r="Y22" s="295"/>
+      <c r="Z22" s="295"/>
+      <c r="AA22" s="295"/>
+      <c r="AB22" s="295"/>
+      <c r="AC22" s="295"/>
+      <c r="AD22" s="295"/>
+      <c r="AE22" s="295"/>
+      <c r="AF22" s="295"/>
+      <c r="AG22" s="295"/>
+      <c r="AH22" s="296"/>
     </row>
     <row r="23" spans="3:34" ht="15" customHeight="1">
-      <c r="E23" s="300" t="s">
+      <c r="E23" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="301"/>
-      <c r="G23" s="301"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="301"/>
-      <c r="J23" s="302"/>
-      <c r="K23" s="129" t="s">
+      <c r="F23" s="302"/>
+      <c r="G23" s="302"/>
+      <c r="H23" s="302"/>
+      <c r="I23" s="302"/>
+      <c r="J23" s="303"/>
+      <c r="K23" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="130"/>
-      <c r="M23" s="324" t="s">
+      <c r="L23" s="190"/>
+      <c r="M23" s="309" t="s">
         <v>146</v>
       </c>
-      <c r="N23" s="325"/>
-      <c r="O23" s="325"/>
-      <c r="P23" s="325"/>
-      <c r="Q23" s="325"/>
-      <c r="R23" s="325"/>
-      <c r="S23" s="325"/>
-      <c r="T23" s="325"/>
-      <c r="U23" s="325"/>
-      <c r="V23" s="325"/>
-      <c r="W23" s="325"/>
-      <c r="X23" s="325"/>
-      <c r="Y23" s="325"/>
-      <c r="Z23" s="325"/>
-      <c r="AA23" s="325"/>
-      <c r="AB23" s="325"/>
-      <c r="AC23" s="325"/>
-      <c r="AD23" s="325"/>
-      <c r="AE23" s="325"/>
-      <c r="AF23" s="325"/>
-      <c r="AG23" s="325"/>
-      <c r="AH23" s="326"/>
+      <c r="N23" s="310"/>
+      <c r="O23" s="310"/>
+      <c r="P23" s="310"/>
+      <c r="Q23" s="310"/>
+      <c r="R23" s="310"/>
+      <c r="S23" s="310"/>
+      <c r="T23" s="310"/>
+      <c r="U23" s="310"/>
+      <c r="V23" s="310"/>
+      <c r="W23" s="310"/>
+      <c r="X23" s="310"/>
+      <c r="Y23" s="310"/>
+      <c r="Z23" s="310"/>
+      <c r="AA23" s="310"/>
+      <c r="AB23" s="310"/>
+      <c r="AC23" s="310"/>
+      <c r="AD23" s="310"/>
+      <c r="AE23" s="310"/>
+      <c r="AF23" s="310"/>
+      <c r="AG23" s="310"/>
+      <c r="AH23" s="311"/>
     </row>
     <row r="24" spans="3:34" ht="15" customHeight="1">
-      <c r="E24" s="303"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="304"/>
-      <c r="I24" s="304"/>
-      <c r="J24" s="305"/>
-      <c r="K24" s="306"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="328"/>
-      <c r="O24" s="328"/>
-      <c r="P24" s="328"/>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="328"/>
-      <c r="S24" s="328"/>
-      <c r="T24" s="328"/>
-      <c r="U24" s="328"/>
-      <c r="V24" s="328"/>
-      <c r="W24" s="328"/>
-      <c r="X24" s="328"/>
-      <c r="Y24" s="328"/>
-      <c r="Z24" s="328"/>
-      <c r="AA24" s="328"/>
-      <c r="AB24" s="328"/>
-      <c r="AC24" s="328"/>
-      <c r="AD24" s="328"/>
-      <c r="AE24" s="328"/>
-      <c r="AF24" s="328"/>
-      <c r="AG24" s="328"/>
-      <c r="AH24" s="329"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="305"/>
+      <c r="I24" s="305"/>
+      <c r="J24" s="306"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="312"/>
+      <c r="N24" s="313"/>
+      <c r="O24" s="313"/>
+      <c r="P24" s="313"/>
+      <c r="Q24" s="313"/>
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
+      <c r="T24" s="313"/>
+      <c r="U24" s="313"/>
+      <c r="V24" s="313"/>
+      <c r="W24" s="313"/>
+      <c r="X24" s="313"/>
+      <c r="Y24" s="313"/>
+      <c r="Z24" s="313"/>
+      <c r="AA24" s="313"/>
+      <c r="AB24" s="313"/>
+      <c r="AC24" s="313"/>
+      <c r="AD24" s="313"/>
+      <c r="AE24" s="313"/>
+      <c r="AF24" s="313"/>
+      <c r="AG24" s="313"/>
+      <c r="AH24" s="314"/>
     </row>
     <row r="25" spans="3:34" ht="15" customHeight="1">
-      <c r="E25" s="308" t="s">
+      <c r="E25" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="309"/>
-      <c r="G25" s="309"/>
-      <c r="H25" s="309"/>
-      <c r="I25" s="309"/>
-      <c r="J25" s="310"/>
-      <c r="K25" s="317" t="s">
-        <v>202</v>
-      </c>
-      <c r="L25" s="318"/>
-      <c r="M25" s="272" t="s">
+      <c r="F25" s="319"/>
+      <c r="G25" s="319"/>
+      <c r="H25" s="319"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="316"/>
+      <c r="K25" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="326"/>
+      <c r="M25" s="281" t="s">
         <v>147</v>
       </c>
-      <c r="N25" s="273"/>
-      <c r="O25" s="273"/>
-      <c r="P25" s="273"/>
-      <c r="Q25" s="273"/>
-      <c r="R25" s="273"/>
-      <c r="S25" s="273"/>
-      <c r="T25" s="273"/>
-      <c r="U25" s="273"/>
-      <c r="V25" s="273"/>
-      <c r="W25" s="273"/>
-      <c r="X25" s="273"/>
-      <c r="Y25" s="273"/>
-      <c r="Z25" s="273"/>
-      <c r="AA25" s="273"/>
-      <c r="AB25" s="273"/>
-      <c r="AC25" s="273"/>
-      <c r="AD25" s="273"/>
-      <c r="AE25" s="273"/>
-      <c r="AF25" s="273"/>
-      <c r="AG25" s="273"/>
-      <c r="AH25" s="274"/>
+      <c r="N25" s="282"/>
+      <c r="O25" s="282"/>
+      <c r="P25" s="282"/>
+      <c r="Q25" s="282"/>
+      <c r="R25" s="282"/>
+      <c r="S25" s="282"/>
+      <c r="T25" s="282"/>
+      <c r="U25" s="282"/>
+      <c r="V25" s="282"/>
+      <c r="W25" s="282"/>
+      <c r="X25" s="282"/>
+      <c r="Y25" s="282"/>
+      <c r="Z25" s="282"/>
+      <c r="AA25" s="282"/>
+      <c r="AB25" s="282"/>
+      <c r="AC25" s="282"/>
+      <c r="AD25" s="282"/>
+      <c r="AE25" s="282"/>
+      <c r="AF25" s="282"/>
+      <c r="AG25" s="282"/>
+      <c r="AH25" s="283"/>
     </row>
     <row r="26" spans="3:34" ht="15" customHeight="1">
-      <c r="E26" s="311"/>
-      <c r="F26" s="312"/>
-      <c r="G26" s="312"/>
-      <c r="H26" s="312"/>
-      <c r="I26" s="312"/>
-      <c r="J26" s="313"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="320"/>
-      <c r="M26" s="260"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="261"/>
-      <c r="S26" s="261"/>
-      <c r="T26" s="261"/>
-      <c r="U26" s="261"/>
-      <c r="V26" s="261"/>
-      <c r="W26" s="261"/>
-      <c r="X26" s="261"/>
-      <c r="Y26" s="261"/>
-      <c r="Z26" s="261"/>
-      <c r="AA26" s="261"/>
-      <c r="AB26" s="261"/>
-      <c r="AC26" s="261"/>
-      <c r="AD26" s="261"/>
-      <c r="AE26" s="261"/>
-      <c r="AF26" s="261"/>
-      <c r="AG26" s="261"/>
-      <c r="AH26" s="262"/>
+      <c r="E26" s="322"/>
+      <c r="F26" s="323"/>
+      <c r="G26" s="323"/>
+      <c r="H26" s="323"/>
+      <c r="I26" s="323"/>
+      <c r="J26" s="324"/>
+      <c r="K26" s="327"/>
+      <c r="L26" s="328"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="285"/>
+      <c r="O26" s="285"/>
+      <c r="P26" s="285"/>
+      <c r="Q26" s="285"/>
+      <c r="R26" s="285"/>
+      <c r="S26" s="285"/>
+      <c r="T26" s="285"/>
+      <c r="U26" s="285"/>
+      <c r="V26" s="285"/>
+      <c r="W26" s="285"/>
+      <c r="X26" s="285"/>
+      <c r="Y26" s="285"/>
+      <c r="Z26" s="285"/>
+      <c r="AA26" s="285"/>
+      <c r="AB26" s="285"/>
+      <c r="AC26" s="285"/>
+      <c r="AD26" s="285"/>
+      <c r="AE26" s="285"/>
+      <c r="AF26" s="285"/>
+      <c r="AG26" s="285"/>
+      <c r="AH26" s="286"/>
     </row>
     <row r="27" spans="3:34" ht="15" customHeight="1">
-      <c r="E27" s="314"/>
-      <c r="F27" s="315"/>
-      <c r="G27" s="315"/>
-      <c r="H27" s="315"/>
-      <c r="I27" s="315"/>
-      <c r="J27" s="316"/>
-      <c r="K27" s="321"/>
-      <c r="L27" s="322"/>
-      <c r="M27" s="275"/>
-      <c r="N27" s="276"/>
-      <c r="O27" s="276"/>
-      <c r="P27" s="276"/>
-      <c r="Q27" s="276"/>
-      <c r="R27" s="276"/>
-      <c r="S27" s="276"/>
-      <c r="T27" s="276"/>
-      <c r="U27" s="276"/>
-      <c r="V27" s="276"/>
-      <c r="W27" s="276"/>
-      <c r="X27" s="276"/>
-      <c r="Y27" s="276"/>
-      <c r="Z27" s="276"/>
-      <c r="AA27" s="276"/>
-      <c r="AB27" s="276"/>
-      <c r="AC27" s="276"/>
-      <c r="AD27" s="276"/>
-      <c r="AE27" s="276"/>
-      <c r="AF27" s="276"/>
-      <c r="AG27" s="276"/>
-      <c r="AH27" s="277"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="320"/>
+      <c r="G27" s="320"/>
+      <c r="H27" s="320"/>
+      <c r="I27" s="320"/>
+      <c r="J27" s="318"/>
+      <c r="K27" s="329"/>
+      <c r="L27" s="330"/>
+      <c r="M27" s="287"/>
+      <c r="N27" s="288"/>
+      <c r="O27" s="288"/>
+      <c r="P27" s="288"/>
+      <c r="Q27" s="288"/>
+      <c r="R27" s="288"/>
+      <c r="S27" s="288"/>
+      <c r="T27" s="288"/>
+      <c r="U27" s="288"/>
+      <c r="V27" s="288"/>
+      <c r="W27" s="288"/>
+      <c r="X27" s="288"/>
+      <c r="Y27" s="288"/>
+      <c r="Z27" s="288"/>
+      <c r="AA27" s="288"/>
+      <c r="AB27" s="288"/>
+      <c r="AC27" s="288"/>
+      <c r="AD27" s="288"/>
+      <c r="AE27" s="288"/>
+      <c r="AF27" s="288"/>
+      <c r="AG27" s="288"/>
+      <c r="AH27" s="289"/>
     </row>
     <row r="29" spans="3:34" ht="15" customHeight="1">
       <c r="E29" s="121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="3:34" ht="15" customHeight="1">
       <c r="E30" s="55"/>
     </row>
     <row r="31" spans="3:34" ht="15" customHeight="1">
-      <c r="E31" s="279" t="s">
+      <c r="E31" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="280"/>
-      <c r="G31" s="280"/>
-      <c r="H31" s="280"/>
-      <c r="I31" s="280"/>
-      <c r="J31" s="281"/>
-      <c r="K31" s="279" t="s">
+      <c r="F31" s="295"/>
+      <c r="G31" s="295"/>
+      <c r="H31" s="295"/>
+      <c r="I31" s="295"/>
+      <c r="J31" s="296"/>
+      <c r="K31" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="281"/>
-      <c r="M31" s="279" t="s">
+      <c r="L31" s="296"/>
+      <c r="M31" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="280"/>
-      <c r="O31" s="280"/>
-      <c r="P31" s="280"/>
-      <c r="Q31" s="280"/>
-      <c r="R31" s="280"/>
-      <c r="S31" s="280"/>
-      <c r="T31" s="280"/>
-      <c r="U31" s="280"/>
-      <c r="V31" s="280"/>
-      <c r="W31" s="280"/>
-      <c r="X31" s="280"/>
-      <c r="Y31" s="280"/>
-      <c r="Z31" s="280"/>
-      <c r="AA31" s="280"/>
-      <c r="AB31" s="280"/>
-      <c r="AC31" s="280"/>
-      <c r="AD31" s="280"/>
-      <c r="AE31" s="280"/>
-      <c r="AF31" s="280"/>
-      <c r="AG31" s="280"/>
-      <c r="AH31" s="281"/>
+      <c r="N31" s="295"/>
+      <c r="O31" s="295"/>
+      <c r="P31" s="295"/>
+      <c r="Q31" s="295"/>
+      <c r="R31" s="295"/>
+      <c r="S31" s="295"/>
+      <c r="T31" s="295"/>
+      <c r="U31" s="295"/>
+      <c r="V31" s="295"/>
+      <c r="W31" s="295"/>
+      <c r="X31" s="295"/>
+      <c r="Y31" s="295"/>
+      <c r="Z31" s="295"/>
+      <c r="AA31" s="295"/>
+      <c r="AB31" s="295"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="295"/>
+      <c r="AE31" s="295"/>
+      <c r="AF31" s="295"/>
+      <c r="AG31" s="295"/>
+      <c r="AH31" s="296"/>
     </row>
     <row r="32" spans="3:34" ht="15" customHeight="1">
-      <c r="E32" s="300" t="s">
+      <c r="E32" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="301"/>
-      <c r="G32" s="301"/>
-      <c r="H32" s="301"/>
-      <c r="I32" s="301"/>
-      <c r="J32" s="302"/>
-      <c r="K32" s="129" t="s">
+      <c r="F32" s="302"/>
+      <c r="G32" s="302"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="302"/>
+      <c r="J32" s="303"/>
+      <c r="K32" s="189" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="130"/>
-      <c r="M32" s="324" t="s">
+      <c r="L32" s="190"/>
+      <c r="M32" s="309" t="s">
         <v>146</v>
       </c>
-      <c r="N32" s="325"/>
-      <c r="O32" s="325"/>
-      <c r="P32" s="325"/>
-      <c r="Q32" s="325"/>
-      <c r="R32" s="325"/>
-      <c r="S32" s="325"/>
-      <c r="T32" s="325"/>
-      <c r="U32" s="325"/>
-      <c r="V32" s="325"/>
-      <c r="W32" s="325"/>
-      <c r="X32" s="325"/>
-      <c r="Y32" s="325"/>
-      <c r="Z32" s="325"/>
-      <c r="AA32" s="325"/>
-      <c r="AB32" s="325"/>
-      <c r="AC32" s="325"/>
-      <c r="AD32" s="325"/>
-      <c r="AE32" s="325"/>
-      <c r="AF32" s="325"/>
-      <c r="AG32" s="325"/>
-      <c r="AH32" s="326"/>
+      <c r="N32" s="310"/>
+      <c r="O32" s="310"/>
+      <c r="P32" s="310"/>
+      <c r="Q32" s="310"/>
+      <c r="R32" s="310"/>
+      <c r="S32" s="310"/>
+      <c r="T32" s="310"/>
+      <c r="U32" s="310"/>
+      <c r="V32" s="310"/>
+      <c r="W32" s="310"/>
+      <c r="X32" s="310"/>
+      <c r="Y32" s="310"/>
+      <c r="Z32" s="310"/>
+      <c r="AA32" s="310"/>
+      <c r="AB32" s="310"/>
+      <c r="AC32" s="310"/>
+      <c r="AD32" s="310"/>
+      <c r="AE32" s="310"/>
+      <c r="AF32" s="310"/>
+      <c r="AG32" s="310"/>
+      <c r="AH32" s="311"/>
     </row>
     <row r="33" spans="5:34" ht="15" customHeight="1">
-      <c r="E33" s="303"/>
-      <c r="F33" s="304"/>
-      <c r="G33" s="304"/>
-      <c r="H33" s="304"/>
-      <c r="I33" s="304"/>
-      <c r="J33" s="305"/>
-      <c r="K33" s="306"/>
-      <c r="L33" s="307"/>
-      <c r="M33" s="327"/>
-      <c r="N33" s="328"/>
-      <c r="O33" s="328"/>
-      <c r="P33" s="328"/>
-      <c r="Q33" s="328"/>
-      <c r="R33" s="328"/>
-      <c r="S33" s="328"/>
-      <c r="T33" s="328"/>
-      <c r="U33" s="328"/>
-      <c r="V33" s="328"/>
-      <c r="W33" s="328"/>
-      <c r="X33" s="328"/>
-      <c r="Y33" s="328"/>
-      <c r="Z33" s="328"/>
-      <c r="AA33" s="328"/>
-      <c r="AB33" s="328"/>
-      <c r="AC33" s="328"/>
-      <c r="AD33" s="328"/>
-      <c r="AE33" s="328"/>
-      <c r="AF33" s="328"/>
-      <c r="AG33" s="328"/>
-      <c r="AH33" s="329"/>
+      <c r="E33" s="304"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="306"/>
+      <c r="K33" s="307"/>
+      <c r="L33" s="308"/>
+      <c r="M33" s="312"/>
+      <c r="N33" s="313"/>
+      <c r="O33" s="313"/>
+      <c r="P33" s="313"/>
+      <c r="Q33" s="313"/>
+      <c r="R33" s="313"/>
+      <c r="S33" s="313"/>
+      <c r="T33" s="313"/>
+      <c r="U33" s="313"/>
+      <c r="V33" s="313"/>
+      <c r="W33" s="313"/>
+      <c r="X33" s="313"/>
+      <c r="Y33" s="313"/>
+      <c r="Z33" s="313"/>
+      <c r="AA33" s="313"/>
+      <c r="AB33" s="313"/>
+      <c r="AC33" s="313"/>
+      <c r="AD33" s="313"/>
+      <c r="AE33" s="313"/>
+      <c r="AF33" s="313"/>
+      <c r="AG33" s="313"/>
+      <c r="AH33" s="314"/>
     </row>
     <row r="34" spans="5:34" ht="15" customHeight="1">
-      <c r="E34" s="308" t="s">
+      <c r="E34" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="309"/>
-      <c r="G34" s="309"/>
-      <c r="H34" s="309"/>
-      <c r="I34" s="309"/>
-      <c r="J34" s="310"/>
-      <c r="K34" s="317" t="s">
+      <c r="F34" s="319"/>
+      <c r="G34" s="319"/>
+      <c r="H34" s="319"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="316"/>
+      <c r="K34" s="325" t="s">
         <v>81</v>
       </c>
-      <c r="L34" s="318"/>
-      <c r="M34" s="272" t="s">
+      <c r="L34" s="326"/>
+      <c r="M34" s="281" t="s">
         <v>148</v>
       </c>
-      <c r="N34" s="273"/>
-      <c r="O34" s="273"/>
-      <c r="P34" s="273"/>
-      <c r="Q34" s="273"/>
-      <c r="R34" s="273"/>
-      <c r="S34" s="273"/>
-      <c r="T34" s="273"/>
-      <c r="U34" s="273"/>
-      <c r="V34" s="273"/>
-      <c r="W34" s="273"/>
-      <c r="X34" s="273"/>
-      <c r="Y34" s="273"/>
-      <c r="Z34" s="273"/>
-      <c r="AA34" s="273"/>
-      <c r="AB34" s="273"/>
-      <c r="AC34" s="273"/>
-      <c r="AD34" s="273"/>
-      <c r="AE34" s="273"/>
-      <c r="AF34" s="273"/>
-      <c r="AG34" s="273"/>
-      <c r="AH34" s="274"/>
+      <c r="N34" s="282"/>
+      <c r="O34" s="282"/>
+      <c r="P34" s="282"/>
+      <c r="Q34" s="282"/>
+      <c r="R34" s="282"/>
+      <c r="S34" s="282"/>
+      <c r="T34" s="282"/>
+      <c r="U34" s="282"/>
+      <c r="V34" s="282"/>
+      <c r="W34" s="282"/>
+      <c r="X34" s="282"/>
+      <c r="Y34" s="282"/>
+      <c r="Z34" s="282"/>
+      <c r="AA34" s="282"/>
+      <c r="AB34" s="282"/>
+      <c r="AC34" s="282"/>
+      <c r="AD34" s="282"/>
+      <c r="AE34" s="282"/>
+      <c r="AF34" s="282"/>
+      <c r="AG34" s="282"/>
+      <c r="AH34" s="283"/>
     </row>
     <row r="35" spans="5:34" ht="15" customHeight="1">
-      <c r="E35" s="311"/>
-      <c r="F35" s="312"/>
-      <c r="G35" s="312"/>
-      <c r="H35" s="312"/>
-      <c r="I35" s="312"/>
-      <c r="J35" s="313"/>
-      <c r="K35" s="319"/>
-      <c r="L35" s="320"/>
-      <c r="M35" s="260"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="261"/>
-      <c r="Q35" s="261"/>
-      <c r="R35" s="261"/>
-      <c r="S35" s="261"/>
-      <c r="T35" s="261"/>
-      <c r="U35" s="261"/>
-      <c r="V35" s="261"/>
-      <c r="W35" s="261"/>
-      <c r="X35" s="261"/>
-      <c r="Y35" s="261"/>
-      <c r="Z35" s="261"/>
-      <c r="AA35" s="261"/>
-      <c r="AB35" s="261"/>
-      <c r="AC35" s="261"/>
-      <c r="AD35" s="261"/>
-      <c r="AE35" s="261"/>
-      <c r="AF35" s="261"/>
-      <c r="AG35" s="261"/>
-      <c r="AH35" s="262"/>
+      <c r="E35" s="322"/>
+      <c r="F35" s="323"/>
+      <c r="G35" s="323"/>
+      <c r="H35" s="323"/>
+      <c r="I35" s="323"/>
+      <c r="J35" s="324"/>
+      <c r="K35" s="327"/>
+      <c r="L35" s="328"/>
+      <c r="M35" s="284"/>
+      <c r="N35" s="285"/>
+      <c r="O35" s="285"/>
+      <c r="P35" s="285"/>
+      <c r="Q35" s="285"/>
+      <c r="R35" s="285"/>
+      <c r="S35" s="285"/>
+      <c r="T35" s="285"/>
+      <c r="U35" s="285"/>
+      <c r="V35" s="285"/>
+      <c r="W35" s="285"/>
+      <c r="X35" s="285"/>
+      <c r="Y35" s="285"/>
+      <c r="Z35" s="285"/>
+      <c r="AA35" s="285"/>
+      <c r="AB35" s="285"/>
+      <c r="AC35" s="285"/>
+      <c r="AD35" s="285"/>
+      <c r="AE35" s="285"/>
+      <c r="AF35" s="285"/>
+      <c r="AG35" s="285"/>
+      <c r="AH35" s="286"/>
     </row>
     <row r="36" spans="5:34" ht="15" customHeight="1">
-      <c r="E36" s="311"/>
-      <c r="F36" s="312"/>
-      <c r="G36" s="312"/>
-      <c r="H36" s="312"/>
-      <c r="I36" s="312"/>
-      <c r="J36" s="313"/>
-      <c r="K36" s="319"/>
-      <c r="L36" s="320"/>
-      <c r="M36" s="260"/>
-      <c r="N36" s="261"/>
-      <c r="O36" s="261"/>
-      <c r="P36" s="261"/>
-      <c r="Q36" s="261"/>
-      <c r="R36" s="261"/>
-      <c r="S36" s="261"/>
-      <c r="T36" s="261"/>
-      <c r="U36" s="261"/>
-      <c r="V36" s="261"/>
-      <c r="W36" s="261"/>
-      <c r="X36" s="261"/>
-      <c r="Y36" s="261"/>
-      <c r="Z36" s="261"/>
-      <c r="AA36" s="261"/>
-      <c r="AB36" s="261"/>
-      <c r="AC36" s="261"/>
-      <c r="AD36" s="261"/>
-      <c r="AE36" s="261"/>
-      <c r="AF36" s="261"/>
-      <c r="AG36" s="261"/>
-      <c r="AH36" s="262"/>
+      <c r="E36" s="322"/>
+      <c r="F36" s="323"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="323"/>
+      <c r="I36" s="323"/>
+      <c r="J36" s="324"/>
+      <c r="K36" s="327"/>
+      <c r="L36" s="328"/>
+      <c r="M36" s="284"/>
+      <c r="N36" s="285"/>
+      <c r="O36" s="285"/>
+      <c r="P36" s="285"/>
+      <c r="Q36" s="285"/>
+      <c r="R36" s="285"/>
+      <c r="S36" s="285"/>
+      <c r="T36" s="285"/>
+      <c r="U36" s="285"/>
+      <c r="V36" s="285"/>
+      <c r="W36" s="285"/>
+      <c r="X36" s="285"/>
+      <c r="Y36" s="285"/>
+      <c r="Z36" s="285"/>
+      <c r="AA36" s="285"/>
+      <c r="AB36" s="285"/>
+      <c r="AC36" s="285"/>
+      <c r="AD36" s="285"/>
+      <c r="AE36" s="285"/>
+      <c r="AF36" s="285"/>
+      <c r="AG36" s="285"/>
+      <c r="AH36" s="286"/>
     </row>
     <row r="37" spans="5:34" ht="15" customHeight="1">
-      <c r="E37" s="314"/>
-      <c r="F37" s="315"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="315"/>
-      <c r="I37" s="315"/>
-      <c r="J37" s="316"/>
-      <c r="K37" s="321"/>
-      <c r="L37" s="322"/>
-      <c r="M37" s="275"/>
-      <c r="N37" s="276"/>
-      <c r="O37" s="276"/>
-      <c r="P37" s="276"/>
-      <c r="Q37" s="276"/>
-      <c r="R37" s="276"/>
-      <c r="S37" s="276"/>
-      <c r="T37" s="276"/>
-      <c r="U37" s="276"/>
-      <c r="V37" s="276"/>
-      <c r="W37" s="276"/>
-      <c r="X37" s="276"/>
-      <c r="Y37" s="276"/>
-      <c r="Z37" s="276"/>
-      <c r="AA37" s="276"/>
-      <c r="AB37" s="276"/>
-      <c r="AC37" s="276"/>
-      <c r="AD37" s="276"/>
-      <c r="AE37" s="276"/>
-      <c r="AF37" s="276"/>
-      <c r="AG37" s="276"/>
-      <c r="AH37" s="277"/>
+      <c r="E37" s="317"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="318"/>
+      <c r="K37" s="329"/>
+      <c r="L37" s="330"/>
+      <c r="M37" s="287"/>
+      <c r="N37" s="288"/>
+      <c r="O37" s="288"/>
+      <c r="P37" s="288"/>
+      <c r="Q37" s="288"/>
+      <c r="R37" s="288"/>
+      <c r="S37" s="288"/>
+      <c r="T37" s="288"/>
+      <c r="U37" s="288"/>
+      <c r="V37" s="288"/>
+      <c r="W37" s="288"/>
+      <c r="X37" s="288"/>
+      <c r="Y37" s="288"/>
+      <c r="Z37" s="288"/>
+      <c r="AA37" s="288"/>
+      <c r="AB37" s="288"/>
+      <c r="AC37" s="288"/>
+      <c r="AD37" s="288"/>
+      <c r="AE37" s="288"/>
+      <c r="AF37" s="288"/>
+      <c r="AG37" s="288"/>
+      <c r="AH37" s="289"/>
     </row>
     <row r="38" spans="5:34" ht="15" customHeight="1">
-      <c r="E38" s="323" t="s">
+      <c r="E38" s="315" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="309"/>
-      <c r="G38" s="309"/>
-      <c r="H38" s="309"/>
-      <c r="I38" s="309"/>
-      <c r="J38" s="310"/>
-      <c r="K38" s="317" t="s">
+      <c r="F38" s="319"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="316"/>
+      <c r="K38" s="325" t="s">
         <v>83</v>
       </c>
-      <c r="L38" s="318"/>
-      <c r="M38" s="272" t="s">
+      <c r="L38" s="326"/>
+      <c r="M38" s="281" t="s">
         <v>149</v>
       </c>
-      <c r="N38" s="273"/>
-      <c r="O38" s="273"/>
-      <c r="P38" s="273"/>
-      <c r="Q38" s="273"/>
-      <c r="R38" s="273"/>
-      <c r="S38" s="273"/>
-      <c r="T38" s="273"/>
-      <c r="U38" s="273"/>
-      <c r="V38" s="273"/>
-      <c r="W38" s="273"/>
-      <c r="X38" s="273"/>
-      <c r="Y38" s="273"/>
-      <c r="Z38" s="273"/>
-      <c r="AA38" s="273"/>
-      <c r="AB38" s="273"/>
-      <c r="AC38" s="273"/>
-      <c r="AD38" s="273"/>
-      <c r="AE38" s="273"/>
-      <c r="AF38" s="273"/>
-      <c r="AG38" s="273"/>
-      <c r="AH38" s="274"/>
+      <c r="N38" s="282"/>
+      <c r="O38" s="282"/>
+      <c r="P38" s="282"/>
+      <c r="Q38" s="282"/>
+      <c r="R38" s="282"/>
+      <c r="S38" s="282"/>
+      <c r="T38" s="282"/>
+      <c r="U38" s="282"/>
+      <c r="V38" s="282"/>
+      <c r="W38" s="282"/>
+      <c r="X38" s="282"/>
+      <c r="Y38" s="282"/>
+      <c r="Z38" s="282"/>
+      <c r="AA38" s="282"/>
+      <c r="AB38" s="282"/>
+      <c r="AC38" s="282"/>
+      <c r="AD38" s="282"/>
+      <c r="AE38" s="282"/>
+      <c r="AF38" s="282"/>
+      <c r="AG38" s="282"/>
+      <c r="AH38" s="283"/>
     </row>
     <row r="39" spans="5:34" ht="15" customHeight="1">
-      <c r="E39" s="311"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="312"/>
-      <c r="I39" s="312"/>
-      <c r="J39" s="313"/>
-      <c r="K39" s="319"/>
-      <c r="L39" s="320"/>
-      <c r="M39" s="260"/>
-      <c r="N39" s="261"/>
-      <c r="O39" s="261"/>
-      <c r="P39" s="261"/>
-      <c r="Q39" s="261"/>
-      <c r="R39" s="261"/>
-      <c r="S39" s="261"/>
-      <c r="T39" s="261"/>
-      <c r="U39" s="261"/>
-      <c r="V39" s="261"/>
-      <c r="W39" s="261"/>
-      <c r="X39" s="261"/>
-      <c r="Y39" s="261"/>
-      <c r="Z39" s="261"/>
-      <c r="AA39" s="261"/>
-      <c r="AB39" s="261"/>
-      <c r="AC39" s="261"/>
-      <c r="AD39" s="261"/>
-      <c r="AE39" s="261"/>
-      <c r="AF39" s="261"/>
-      <c r="AG39" s="261"/>
-      <c r="AH39" s="262"/>
+      <c r="E39" s="322"/>
+      <c r="F39" s="323"/>
+      <c r="G39" s="323"/>
+      <c r="H39" s="323"/>
+      <c r="I39" s="323"/>
+      <c r="J39" s="324"/>
+      <c r="K39" s="327"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="284"/>
+      <c r="N39" s="285"/>
+      <c r="O39" s="285"/>
+      <c r="P39" s="285"/>
+      <c r="Q39" s="285"/>
+      <c r="R39" s="285"/>
+      <c r="S39" s="285"/>
+      <c r="T39" s="285"/>
+      <c r="U39" s="285"/>
+      <c r="V39" s="285"/>
+      <c r="W39" s="285"/>
+      <c r="X39" s="285"/>
+      <c r="Y39" s="285"/>
+      <c r="Z39" s="285"/>
+      <c r="AA39" s="285"/>
+      <c r="AB39" s="285"/>
+      <c r="AC39" s="285"/>
+      <c r="AD39" s="285"/>
+      <c r="AE39" s="285"/>
+      <c r="AF39" s="285"/>
+      <c r="AG39" s="285"/>
+      <c r="AH39" s="286"/>
     </row>
     <row r="40" spans="5:34" ht="15" customHeight="1">
-      <c r="E40" s="314"/>
-      <c r="F40" s="315"/>
-      <c r="G40" s="315"/>
-      <c r="H40" s="315"/>
-      <c r="I40" s="315"/>
-      <c r="J40" s="316"/>
-      <c r="K40" s="321"/>
-      <c r="L40" s="322"/>
-      <c r="M40" s="275"/>
-      <c r="N40" s="276"/>
-      <c r="O40" s="276"/>
-      <c r="P40" s="276"/>
-      <c r="Q40" s="276"/>
-      <c r="R40" s="276"/>
-      <c r="S40" s="276"/>
-      <c r="T40" s="276"/>
-      <c r="U40" s="276"/>
-      <c r="V40" s="276"/>
-      <c r="W40" s="276"/>
-      <c r="X40" s="276"/>
-      <c r="Y40" s="276"/>
-      <c r="Z40" s="276"/>
-      <c r="AA40" s="276"/>
-      <c r="AB40" s="276"/>
-      <c r="AC40" s="276"/>
-      <c r="AD40" s="276"/>
-      <c r="AE40" s="276"/>
-      <c r="AF40" s="276"/>
-      <c r="AG40" s="276"/>
-      <c r="AH40" s="277"/>
+      <c r="E40" s="317"/>
+      <c r="F40" s="320"/>
+      <c r="G40" s="320"/>
+      <c r="H40" s="320"/>
+      <c r="I40" s="320"/>
+      <c r="J40" s="318"/>
+      <c r="K40" s="329"/>
+      <c r="L40" s="330"/>
+      <c r="M40" s="287"/>
+      <c r="N40" s="288"/>
+      <c r="O40" s="288"/>
+      <c r="P40" s="288"/>
+      <c r="Q40" s="288"/>
+      <c r="R40" s="288"/>
+      <c r="S40" s="288"/>
+      <c r="T40" s="288"/>
+      <c r="U40" s="288"/>
+      <c r="V40" s="288"/>
+      <c r="W40" s="288"/>
+      <c r="X40" s="288"/>
+      <c r="Y40" s="288"/>
+      <c r="Z40" s="288"/>
+      <c r="AA40" s="288"/>
+      <c r="AB40" s="288"/>
+      <c r="AC40" s="288"/>
+      <c r="AD40" s="288"/>
+      <c r="AE40" s="288"/>
+      <c r="AF40" s="288"/>
+      <c r="AG40" s="288"/>
+      <c r="AH40" s="289"/>
     </row>
     <row r="41" spans="5:34" ht="15" customHeight="1">
-      <c r="E41" s="308" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="309"/>
-      <c r="G41" s="309"/>
-      <c r="H41" s="309"/>
-      <c r="I41" s="309"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="317" t="s">
+      <c r="E41" s="321" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="319"/>
+      <c r="G41" s="319"/>
+      <c r="H41" s="319"/>
+      <c r="I41" s="319"/>
+      <c r="J41" s="316"/>
+      <c r="K41" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="318"/>
+      <c r="L41" s="326"/>
       <c r="M41" s="62" t="s">
         <v>26</v>
       </c>
@@ -16886,14 +16851,14 @@
       <c r="AH41" s="63"/>
     </row>
     <row r="42" spans="5:34" ht="15" customHeight="1">
-      <c r="E42" s="311"/>
-      <c r="F42" s="312"/>
-      <c r="G42" s="312"/>
-      <c r="H42" s="312"/>
-      <c r="I42" s="312"/>
-      <c r="J42" s="313"/>
-      <c r="K42" s="319"/>
-      <c r="L42" s="320"/>
+      <c r="E42" s="322"/>
+      <c r="F42" s="323"/>
+      <c r="G42" s="323"/>
+      <c r="H42" s="323"/>
+      <c r="I42" s="323"/>
+      <c r="J42" s="324"/>
+      <c r="K42" s="327"/>
+      <c r="L42" s="328"/>
       <c r="M42" s="62" t="s">
         <v>70</v>
       </c>
@@ -16920,14 +16885,14 @@
       <c r="AH42" s="63"/>
     </row>
     <row r="43" spans="5:34" ht="15" customHeight="1">
-      <c r="E43" s="311"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="312"/>
-      <c r="J43" s="313"/>
-      <c r="K43" s="319"/>
-      <c r="L43" s="320"/>
+      <c r="E43" s="322"/>
+      <c r="F43" s="323"/>
+      <c r="G43" s="323"/>
+      <c r="H43" s="323"/>
+      <c r="I43" s="323"/>
+      <c r="J43" s="324"/>
+      <c r="K43" s="327"/>
+      <c r="L43" s="328"/>
       <c r="M43" s="62" t="s">
         <v>27</v>
       </c>
@@ -16954,14 +16919,14 @@
       <c r="AH43" s="63"/>
     </row>
     <row r="44" spans="5:34" ht="15" customHeight="1">
-      <c r="E44" s="311"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="312"/>
-      <c r="H44" s="312"/>
-      <c r="I44" s="312"/>
-      <c r="J44" s="313"/>
-      <c r="K44" s="319"/>
-      <c r="L44" s="320"/>
+      <c r="E44" s="322"/>
+      <c r="F44" s="323"/>
+      <c r="G44" s="323"/>
+      <c r="H44" s="323"/>
+      <c r="I44" s="323"/>
+      <c r="J44" s="324"/>
+      <c r="K44" s="327"/>
+      <c r="L44" s="328"/>
       <c r="M44" s="62" t="s">
         <v>68</v>
       </c>
@@ -16976,14 +16941,14 @@
       <c r="AH44" s="63"/>
     </row>
     <row r="45" spans="5:34" ht="15" customHeight="1">
-      <c r="E45" s="311"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="313"/>
-      <c r="K45" s="319"/>
-      <c r="L45" s="320"/>
+      <c r="E45" s="322"/>
+      <c r="F45" s="323"/>
+      <c r="G45" s="323"/>
+      <c r="H45" s="323"/>
+      <c r="I45" s="323"/>
+      <c r="J45" s="324"/>
+      <c r="K45" s="327"/>
+      <c r="L45" s="328"/>
       <c r="M45" s="62"/>
       <c r="N45" s="15" t="s">
         <v>69</v>
@@ -16999,14 +16964,14 @@
       <c r="AH45" s="63"/>
     </row>
     <row r="46" spans="5:34" ht="15" customHeight="1">
-      <c r="E46" s="311"/>
-      <c r="F46" s="312"/>
-      <c r="G46" s="312"/>
-      <c r="H46" s="312"/>
-      <c r="I46" s="312"/>
-      <c r="J46" s="313"/>
-      <c r="K46" s="319"/>
-      <c r="L46" s="320"/>
+      <c r="E46" s="322"/>
+      <c r="F46" s="323"/>
+      <c r="G46" s="323"/>
+      <c r="H46" s="323"/>
+      <c r="I46" s="323"/>
+      <c r="J46" s="324"/>
+      <c r="K46" s="327"/>
+      <c r="L46" s="328"/>
       <c r="M46" s="62"/>
       <c r="N46" s="19" t="s">
         <v>84</v>
@@ -17033,14 +16998,14 @@
       <c r="AH46" s="63"/>
     </row>
     <row r="47" spans="5:34" ht="15" customHeight="1">
-      <c r="E47" s="311"/>
-      <c r="F47" s="312"/>
-      <c r="G47" s="312"/>
-      <c r="H47" s="312"/>
-      <c r="I47" s="312"/>
-      <c r="J47" s="313"/>
-      <c r="K47" s="319"/>
-      <c r="L47" s="320"/>
+      <c r="E47" s="322"/>
+      <c r="F47" s="323"/>
+      <c r="G47" s="323"/>
+      <c r="H47" s="323"/>
+      <c r="I47" s="323"/>
+      <c r="J47" s="324"/>
+      <c r="K47" s="327"/>
+      <c r="L47" s="328"/>
       <c r="M47" s="62"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19" t="s">
@@ -17067,14 +17032,14 @@
       <c r="AH47" s="63"/>
     </row>
     <row r="48" spans="5:34" ht="15" customHeight="1">
-      <c r="E48" s="311"/>
-      <c r="F48" s="312"/>
-      <c r="G48" s="312"/>
-      <c r="H48" s="312"/>
-      <c r="I48" s="312"/>
-      <c r="J48" s="313"/>
-      <c r="K48" s="319"/>
-      <c r="L48" s="320"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="323"/>
+      <c r="G48" s="323"/>
+      <c r="H48" s="323"/>
+      <c r="I48" s="323"/>
+      <c r="J48" s="324"/>
+      <c r="K48" s="327"/>
+      <c r="L48" s="328"/>
       <c r="M48" s="62"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19" t="s">
@@ -17101,14 +17066,14 @@
       <c r="AH48" s="63"/>
     </row>
     <row r="49" spans="5:34" ht="15" customHeight="1">
-      <c r="E49" s="311"/>
-      <c r="F49" s="312"/>
-      <c r="G49" s="312"/>
-      <c r="H49" s="312"/>
-      <c r="I49" s="312"/>
-      <c r="J49" s="313"/>
-      <c r="K49" s="319"/>
-      <c r="L49" s="320"/>
+      <c r="E49" s="322"/>
+      <c r="F49" s="323"/>
+      <c r="G49" s="323"/>
+      <c r="H49" s="323"/>
+      <c r="I49" s="323"/>
+      <c r="J49" s="324"/>
+      <c r="K49" s="327"/>
+      <c r="L49" s="328"/>
       <c r="M49" s="62"/>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
@@ -17135,14 +17100,14 @@
       <c r="AH49" s="63"/>
     </row>
     <row r="50" spans="5:34" ht="15" customHeight="1">
-      <c r="E50" s="311"/>
-      <c r="F50" s="312"/>
-      <c r="G50" s="312"/>
-      <c r="H50" s="312"/>
-      <c r="I50" s="312"/>
-      <c r="J50" s="313"/>
-      <c r="K50" s="319"/>
-      <c r="L50" s="320"/>
+      <c r="E50" s="322"/>
+      <c r="F50" s="323"/>
+      <c r="G50" s="323"/>
+      <c r="H50" s="323"/>
+      <c r="I50" s="323"/>
+      <c r="J50" s="324"/>
+      <c r="K50" s="327"/>
+      <c r="L50" s="328"/>
       <c r="M50" s="62"/>
       <c r="N50" s="19" t="s">
         <v>72</v>
@@ -17167,14 +17132,14 @@
       <c r="AH50" s="63"/>
     </row>
     <row r="51" spans="5:34" ht="15" customHeight="1">
-      <c r="E51" s="311"/>
-      <c r="F51" s="312"/>
-      <c r="G51" s="312"/>
-      <c r="H51" s="312"/>
-      <c r="I51" s="312"/>
-      <c r="J51" s="313"/>
-      <c r="K51" s="319"/>
-      <c r="L51" s="320"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="323"/>
+      <c r="G51" s="323"/>
+      <c r="H51" s="323"/>
+      <c r="I51" s="323"/>
+      <c r="J51" s="324"/>
+      <c r="K51" s="327"/>
+      <c r="L51" s="328"/>
       <c r="M51" s="62"/>
       <c r="N51" s="19" t="s">
         <v>73</v>
@@ -17201,14 +17166,14 @@
       <c r="AH51" s="63"/>
     </row>
     <row r="52" spans="5:34" ht="15" customHeight="1">
-      <c r="E52" s="311"/>
-      <c r="F52" s="312"/>
-      <c r="G52" s="312"/>
-      <c r="H52" s="312"/>
-      <c r="I52" s="312"/>
-      <c r="J52" s="313"/>
-      <c r="K52" s="319"/>
-      <c r="L52" s="320"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="323"/>
+      <c r="G52" s="323"/>
+      <c r="H52" s="323"/>
+      <c r="I52" s="323"/>
+      <c r="J52" s="324"/>
+      <c r="K52" s="327"/>
+      <c r="L52" s="328"/>
       <c r="M52" s="62"/>
       <c r="N52" s="19"/>
       <c r="O52" s="19" t="s">
@@ -17235,14 +17200,14 @@
       <c r="AH52" s="63"/>
     </row>
     <row r="53" spans="5:34" ht="15" customHeight="1">
-      <c r="E53" s="311"/>
-      <c r="F53" s="312"/>
-      <c r="G53" s="312"/>
-      <c r="H53" s="312"/>
-      <c r="I53" s="312"/>
-      <c r="J53" s="313"/>
-      <c r="K53" s="319"/>
-      <c r="L53" s="320"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="323"/>
+      <c r="G53" s="323"/>
+      <c r="H53" s="323"/>
+      <c r="I53" s="323"/>
+      <c r="J53" s="324"/>
+      <c r="K53" s="327"/>
+      <c r="L53" s="328"/>
       <c r="M53" s="62"/>
       <c r="N53" s="19"/>
       <c r="O53" s="19" t="s">
@@ -17269,14 +17234,14 @@
       <c r="AH53" s="63"/>
     </row>
     <row r="54" spans="5:34" ht="15" customHeight="1">
-      <c r="E54" s="314"/>
-      <c r="F54" s="315"/>
-      <c r="G54" s="315"/>
-      <c r="H54" s="315"/>
-      <c r="I54" s="315"/>
-      <c r="J54" s="316"/>
-      <c r="K54" s="321"/>
-      <c r="L54" s="322"/>
+      <c r="E54" s="317"/>
+      <c r="F54" s="320"/>
+      <c r="G54" s="320"/>
+      <c r="H54" s="320"/>
+      <c r="I54" s="320"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="329"/>
+      <c r="L54" s="330"/>
       <c r="M54" s="62"/>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
@@ -17303,144 +17268,144 @@
       <c r="AH54" s="63"/>
     </row>
     <row r="55" spans="5:34" ht="15" customHeight="1">
-      <c r="E55" s="300" t="s">
+      <c r="E55" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="301"/>
-      <c r="G55" s="301"/>
-      <c r="H55" s="301"/>
-      <c r="I55" s="301"/>
-      <c r="J55" s="302"/>
-      <c r="K55" s="300" t="s">
-        <v>173</v>
-      </c>
-      <c r="L55" s="302"/>
-      <c r="M55" s="324" t="s">
+      <c r="F55" s="302"/>
+      <c r="G55" s="302"/>
+      <c r="H55" s="302"/>
+      <c r="I55" s="302"/>
+      <c r="J55" s="303"/>
+      <c r="K55" s="301" t="s">
+        <v>172</v>
+      </c>
+      <c r="L55" s="303"/>
+      <c r="M55" s="309" t="s">
         <v>150</v>
       </c>
-      <c r="N55" s="325"/>
-      <c r="O55" s="325"/>
-      <c r="P55" s="325"/>
-      <c r="Q55" s="325"/>
-      <c r="R55" s="325"/>
-      <c r="S55" s="325"/>
-      <c r="T55" s="325"/>
-      <c r="U55" s="325"/>
-      <c r="V55" s="325"/>
-      <c r="W55" s="325"/>
-      <c r="X55" s="325"/>
-      <c r="Y55" s="325"/>
-      <c r="Z55" s="325"/>
-      <c r="AA55" s="325"/>
-      <c r="AB55" s="325"/>
-      <c r="AC55" s="325"/>
-      <c r="AD55" s="325"/>
-      <c r="AE55" s="325"/>
-      <c r="AF55" s="325"/>
-      <c r="AG55" s="325"/>
-      <c r="AH55" s="326"/>
+      <c r="N55" s="310"/>
+      <c r="O55" s="310"/>
+      <c r="P55" s="310"/>
+      <c r="Q55" s="310"/>
+      <c r="R55" s="310"/>
+      <c r="S55" s="310"/>
+      <c r="T55" s="310"/>
+      <c r="U55" s="310"/>
+      <c r="V55" s="310"/>
+      <c r="W55" s="310"/>
+      <c r="X55" s="310"/>
+      <c r="Y55" s="310"/>
+      <c r="Z55" s="310"/>
+      <c r="AA55" s="310"/>
+      <c r="AB55" s="310"/>
+      <c r="AC55" s="310"/>
+      <c r="AD55" s="310"/>
+      <c r="AE55" s="310"/>
+      <c r="AF55" s="310"/>
+      <c r="AG55" s="310"/>
+      <c r="AH55" s="311"/>
     </row>
     <row r="56" spans="5:34" ht="15" customHeight="1">
-      <c r="E56" s="303"/>
-      <c r="F56" s="304"/>
-      <c r="G56" s="304"/>
-      <c r="H56" s="304"/>
-      <c r="I56" s="304"/>
-      <c r="J56" s="305"/>
-      <c r="K56" s="303"/>
-      <c r="L56" s="305"/>
-      <c r="M56" s="327"/>
-      <c r="N56" s="328"/>
-      <c r="O56" s="328"/>
-      <c r="P56" s="328"/>
-      <c r="Q56" s="328"/>
-      <c r="R56" s="328"/>
-      <c r="S56" s="328"/>
-      <c r="T56" s="328"/>
-      <c r="U56" s="328"/>
-      <c r="V56" s="328"/>
-      <c r="W56" s="328"/>
-      <c r="X56" s="328"/>
-      <c r="Y56" s="328"/>
-      <c r="Z56" s="328"/>
-      <c r="AA56" s="328"/>
-      <c r="AB56" s="328"/>
-      <c r="AC56" s="328"/>
-      <c r="AD56" s="328"/>
-      <c r="AE56" s="328"/>
-      <c r="AF56" s="328"/>
-      <c r="AG56" s="328"/>
-      <c r="AH56" s="329"/>
+      <c r="E56" s="304"/>
+      <c r="F56" s="305"/>
+      <c r="G56" s="305"/>
+      <c r="H56" s="305"/>
+      <c r="I56" s="305"/>
+      <c r="J56" s="306"/>
+      <c r="K56" s="304"/>
+      <c r="L56" s="306"/>
+      <c r="M56" s="312"/>
+      <c r="N56" s="313"/>
+      <c r="O56" s="313"/>
+      <c r="P56" s="313"/>
+      <c r="Q56" s="313"/>
+      <c r="R56" s="313"/>
+      <c r="S56" s="313"/>
+      <c r="T56" s="313"/>
+      <c r="U56" s="313"/>
+      <c r="V56" s="313"/>
+      <c r="W56" s="313"/>
+      <c r="X56" s="313"/>
+      <c r="Y56" s="313"/>
+      <c r="Z56" s="313"/>
+      <c r="AA56" s="313"/>
+      <c r="AB56" s="313"/>
+      <c r="AC56" s="313"/>
+      <c r="AD56" s="313"/>
+      <c r="AE56" s="313"/>
+      <c r="AF56" s="313"/>
+      <c r="AG56" s="313"/>
+      <c r="AH56" s="314"/>
     </row>
     <row r="57" spans="5:34" ht="15" customHeight="1">
-      <c r="E57" s="272" t="s">
+      <c r="E57" s="281" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="273"/>
-      <c r="G57" s="273"/>
-      <c r="H57" s="273"/>
-      <c r="I57" s="273"/>
-      <c r="J57" s="274"/>
-      <c r="K57" s="323" t="s">
-        <v>173</v>
-      </c>
-      <c r="L57" s="310"/>
-      <c r="M57" s="323" t="s">
+      <c r="F57" s="282"/>
+      <c r="G57" s="282"/>
+      <c r="H57" s="282"/>
+      <c r="I57" s="282"/>
+      <c r="J57" s="283"/>
+      <c r="K57" s="315" t="s">
+        <v>172</v>
+      </c>
+      <c r="L57" s="316"/>
+      <c r="M57" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="N57" s="309"/>
-      <c r="O57" s="309"/>
-      <c r="P57" s="309"/>
-      <c r="Q57" s="309"/>
-      <c r="R57" s="309"/>
-      <c r="S57" s="309"/>
-      <c r="T57" s="309"/>
-      <c r="U57" s="309"/>
-      <c r="V57" s="309"/>
-      <c r="W57" s="309"/>
-      <c r="X57" s="309"/>
-      <c r="Y57" s="309"/>
-      <c r="Z57" s="309"/>
-      <c r="AA57" s="309"/>
-      <c r="AB57" s="309"/>
-      <c r="AC57" s="309"/>
-      <c r="AD57" s="309"/>
-      <c r="AE57" s="309"/>
-      <c r="AF57" s="309"/>
-      <c r="AG57" s="309"/>
-      <c r="AH57" s="310"/>
+      <c r="N57" s="319"/>
+      <c r="O57" s="319"/>
+      <c r="P57" s="319"/>
+      <c r="Q57" s="319"/>
+      <c r="R57" s="319"/>
+      <c r="S57" s="319"/>
+      <c r="T57" s="319"/>
+      <c r="U57" s="319"/>
+      <c r="V57" s="319"/>
+      <c r="W57" s="319"/>
+      <c r="X57" s="319"/>
+      <c r="Y57" s="319"/>
+      <c r="Z57" s="319"/>
+      <c r="AA57" s="319"/>
+      <c r="AB57" s="319"/>
+      <c r="AC57" s="319"/>
+      <c r="AD57" s="319"/>
+      <c r="AE57" s="319"/>
+      <c r="AF57" s="319"/>
+      <c r="AG57" s="319"/>
+      <c r="AH57" s="316"/>
     </row>
     <row r="58" spans="5:34" ht="15" customHeight="1">
-      <c r="E58" s="275"/>
-      <c r="F58" s="276"/>
-      <c r="G58" s="276"/>
-      <c r="H58" s="276"/>
-      <c r="I58" s="276"/>
-      <c r="J58" s="277"/>
-      <c r="K58" s="314"/>
-      <c r="L58" s="316"/>
-      <c r="M58" s="314"/>
-      <c r="N58" s="315"/>
-      <c r="O58" s="315"/>
-      <c r="P58" s="315"/>
-      <c r="Q58" s="315"/>
-      <c r="R58" s="315"/>
-      <c r="S58" s="315"/>
-      <c r="T58" s="315"/>
-      <c r="U58" s="315"/>
-      <c r="V58" s="315"/>
-      <c r="W58" s="315"/>
-      <c r="X58" s="315"/>
-      <c r="Y58" s="315"/>
-      <c r="Z58" s="315"/>
-      <c r="AA58" s="315"/>
-      <c r="AB58" s="315"/>
-      <c r="AC58" s="315"/>
-      <c r="AD58" s="315"/>
-      <c r="AE58" s="315"/>
-      <c r="AF58" s="315"/>
-      <c r="AG58" s="315"/>
-      <c r="AH58" s="316"/>
+      <c r="E58" s="287"/>
+      <c r="F58" s="288"/>
+      <c r="G58" s="288"/>
+      <c r="H58" s="288"/>
+      <c r="I58" s="288"/>
+      <c r="J58" s="289"/>
+      <c r="K58" s="317"/>
+      <c r="L58" s="318"/>
+      <c r="M58" s="317"/>
+      <c r="N58" s="320"/>
+      <c r="O58" s="320"/>
+      <c r="P58" s="320"/>
+      <c r="Q58" s="320"/>
+      <c r="R58" s="320"/>
+      <c r="S58" s="320"/>
+      <c r="T58" s="320"/>
+      <c r="U58" s="320"/>
+      <c r="V58" s="320"/>
+      <c r="W58" s="320"/>
+      <c r="X58" s="320"/>
+      <c r="Y58" s="320"/>
+      <c r="Z58" s="320"/>
+      <c r="AA58" s="320"/>
+      <c r="AB58" s="320"/>
+      <c r="AC58" s="320"/>
+      <c r="AD58" s="320"/>
+      <c r="AE58" s="320"/>
+      <c r="AF58" s="320"/>
+      <c r="AG58" s="320"/>
+      <c r="AH58" s="318"/>
     </row>
     <row r="59" spans="5:34" ht="15" customHeight="1">
       <c r="E59" s="117"/>
@@ -17476,7 +17441,7 @@
     </row>
     <row r="60" spans="5:34" ht="15" customHeight="1">
       <c r="E60" s="121" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F60" s="117"/>
       <c r="G60" s="117"/>
@@ -17509,112 +17474,112 @@
       <c r="AH60" s="118"/>
     </row>
     <row r="61" spans="5:34" ht="15" customHeight="1">
-      <c r="E61" s="279" t="s">
+      <c r="E61" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="280"/>
-      <c r="G61" s="280"/>
-      <c r="H61" s="280"/>
-      <c r="I61" s="280"/>
-      <c r="J61" s="281"/>
-      <c r="K61" s="279" t="s">
+      <c r="F61" s="295"/>
+      <c r="G61" s="295"/>
+      <c r="H61" s="295"/>
+      <c r="I61" s="295"/>
+      <c r="J61" s="296"/>
+      <c r="K61" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="L61" s="281"/>
-      <c r="M61" s="279" t="s">
+      <c r="L61" s="296"/>
+      <c r="M61" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="N61" s="280"/>
-      <c r="O61" s="280"/>
-      <c r="P61" s="280"/>
-      <c r="Q61" s="280"/>
-      <c r="R61" s="280"/>
-      <c r="S61" s="280"/>
-      <c r="T61" s="280"/>
-      <c r="U61" s="280"/>
-      <c r="V61" s="280"/>
-      <c r="W61" s="280"/>
-      <c r="X61" s="280"/>
-      <c r="Y61" s="280"/>
-      <c r="Z61" s="280"/>
-      <c r="AA61" s="280"/>
-      <c r="AB61" s="280"/>
-      <c r="AC61" s="280"/>
-      <c r="AD61" s="280"/>
-      <c r="AE61" s="280"/>
-      <c r="AF61" s="280"/>
-      <c r="AG61" s="280"/>
-      <c r="AH61" s="281"/>
+      <c r="N61" s="295"/>
+      <c r="O61" s="295"/>
+      <c r="P61" s="295"/>
+      <c r="Q61" s="295"/>
+      <c r="R61" s="295"/>
+      <c r="S61" s="295"/>
+      <c r="T61" s="295"/>
+      <c r="U61" s="295"/>
+      <c r="V61" s="295"/>
+      <c r="W61" s="295"/>
+      <c r="X61" s="295"/>
+      <c r="Y61" s="295"/>
+      <c r="Z61" s="295"/>
+      <c r="AA61" s="295"/>
+      <c r="AB61" s="295"/>
+      <c r="AC61" s="295"/>
+      <c r="AD61" s="295"/>
+      <c r="AE61" s="295"/>
+      <c r="AF61" s="295"/>
+      <c r="AG61" s="295"/>
+      <c r="AH61" s="296"/>
     </row>
     <row r="62" spans="5:34" ht="15" customHeight="1">
-      <c r="E62" s="300" t="s">
+      <c r="E62" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="301"/>
-      <c r="G62" s="301"/>
-      <c r="H62" s="301"/>
-      <c r="I62" s="301"/>
-      <c r="J62" s="302"/>
-      <c r="K62" s="129" t="s">
-        <v>205</v>
-      </c>
-      <c r="L62" s="130"/>
-      <c r="M62" s="324" t="s">
+      <c r="F62" s="302"/>
+      <c r="G62" s="302"/>
+      <c r="H62" s="302"/>
+      <c r="I62" s="302"/>
+      <c r="J62" s="303"/>
+      <c r="K62" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="L62" s="190"/>
+      <c r="M62" s="309" t="s">
         <v>146</v>
       </c>
-      <c r="N62" s="325"/>
-      <c r="O62" s="325"/>
-      <c r="P62" s="325"/>
-      <c r="Q62" s="325"/>
-      <c r="R62" s="325"/>
-      <c r="S62" s="325"/>
-      <c r="T62" s="325"/>
-      <c r="U62" s="325"/>
-      <c r="V62" s="325"/>
-      <c r="W62" s="325"/>
-      <c r="X62" s="325"/>
-      <c r="Y62" s="325"/>
-      <c r="Z62" s="325"/>
-      <c r="AA62" s="325"/>
-      <c r="AB62" s="325"/>
-      <c r="AC62" s="325"/>
-      <c r="AD62" s="325"/>
-      <c r="AE62" s="325"/>
-      <c r="AF62" s="325"/>
-      <c r="AG62" s="325"/>
-      <c r="AH62" s="326"/>
+      <c r="N62" s="310"/>
+      <c r="O62" s="310"/>
+      <c r="P62" s="310"/>
+      <c r="Q62" s="310"/>
+      <c r="R62" s="310"/>
+      <c r="S62" s="310"/>
+      <c r="T62" s="310"/>
+      <c r="U62" s="310"/>
+      <c r="V62" s="310"/>
+      <c r="W62" s="310"/>
+      <c r="X62" s="310"/>
+      <c r="Y62" s="310"/>
+      <c r="Z62" s="310"/>
+      <c r="AA62" s="310"/>
+      <c r="AB62" s="310"/>
+      <c r="AC62" s="310"/>
+      <c r="AD62" s="310"/>
+      <c r="AE62" s="310"/>
+      <c r="AF62" s="310"/>
+      <c r="AG62" s="310"/>
+      <c r="AH62" s="311"/>
     </row>
     <row r="63" spans="5:34" ht="15" customHeight="1">
-      <c r="E63" s="303"/>
-      <c r="F63" s="304"/>
-      <c r="G63" s="304"/>
-      <c r="H63" s="304"/>
-      <c r="I63" s="304"/>
-      <c r="J63" s="305"/>
-      <c r="K63" s="306"/>
-      <c r="L63" s="307"/>
-      <c r="M63" s="327"/>
-      <c r="N63" s="328"/>
-      <c r="O63" s="328"/>
-      <c r="P63" s="328"/>
-      <c r="Q63" s="328"/>
-      <c r="R63" s="328"/>
-      <c r="S63" s="328"/>
-      <c r="T63" s="328"/>
-      <c r="U63" s="328"/>
-      <c r="V63" s="328"/>
-      <c r="W63" s="328"/>
-      <c r="X63" s="328"/>
-      <c r="Y63" s="328"/>
-      <c r="Z63" s="328"/>
-      <c r="AA63" s="328"/>
-      <c r="AB63" s="328"/>
-      <c r="AC63" s="328"/>
-      <c r="AD63" s="328"/>
-      <c r="AE63" s="328"/>
-      <c r="AF63" s="328"/>
-      <c r="AG63" s="328"/>
-      <c r="AH63" s="329"/>
+      <c r="E63" s="304"/>
+      <c r="F63" s="305"/>
+      <c r="G63" s="305"/>
+      <c r="H63" s="305"/>
+      <c r="I63" s="305"/>
+      <c r="J63" s="306"/>
+      <c r="K63" s="307"/>
+      <c r="L63" s="308"/>
+      <c r="M63" s="312"/>
+      <c r="N63" s="313"/>
+      <c r="O63" s="313"/>
+      <c r="P63" s="313"/>
+      <c r="Q63" s="313"/>
+      <c r="R63" s="313"/>
+      <c r="S63" s="313"/>
+      <c r="T63" s="313"/>
+      <c r="U63" s="313"/>
+      <c r="V63" s="313"/>
+      <c r="W63" s="313"/>
+      <c r="X63" s="313"/>
+      <c r="Y63" s="313"/>
+      <c r="Z63" s="313"/>
+      <c r="AA63" s="313"/>
+      <c r="AB63" s="313"/>
+      <c r="AC63" s="313"/>
+      <c r="AD63" s="313"/>
+      <c r="AE63" s="313"/>
+      <c r="AF63" s="313"/>
+      <c r="AG63" s="313"/>
+      <c r="AH63" s="314"/>
     </row>
     <row r="64" spans="5:34" ht="15" customHeight="1">
       <c r="E64" s="117"/>
@@ -17650,7 +17615,7 @@
     </row>
     <row r="65" spans="4:31" ht="15" customHeight="1">
       <c r="D65" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="4:31" ht="15" customHeight="1">
@@ -17806,7 +17771,7 @@
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M75" s="57"/>
       <c r="N75" s="57"/>
@@ -17839,7 +17804,7 @@
       <c r="J76" s="57"/>
       <c r="K76" s="57"/>
       <c r="L76" s="116" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M76" s="57"/>
       <c r="N76" s="57"/>
@@ -17872,7 +17837,7 @@
       <c r="J77" s="57"/>
       <c r="K77" s="57"/>
       <c r="L77" s="116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M77" s="57"/>
       <c r="N77" s="57"/>
@@ -17990,48 +17955,6 @@
     <row r="81" ht="15" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:AH61"/>
-    <mergeCell ref="E62:J63"/>
-    <mergeCell ref="K62:L63"/>
-    <mergeCell ref="M62:AH63"/>
-    <mergeCell ref="M23:AH24"/>
-    <mergeCell ref="M38:AH40"/>
-    <mergeCell ref="M34:AH37"/>
-    <mergeCell ref="M32:AH33"/>
-    <mergeCell ref="M31:AH31"/>
-    <mergeCell ref="M25:AH27"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:L58"/>
-    <mergeCell ref="M57:AH58"/>
-    <mergeCell ref="E41:J54"/>
-    <mergeCell ref="K41:L54"/>
-    <mergeCell ref="E55:J56"/>
-    <mergeCell ref="K55:L56"/>
-    <mergeCell ref="M55:AH56"/>
-    <mergeCell ref="E34:J37"/>
-    <mergeCell ref="K34:L37"/>
-    <mergeCell ref="E38:J40"/>
-    <mergeCell ref="K38:L40"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="K32:L33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="E25:J27"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:AH22"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -18042,6 +17965,48 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="E25:J27"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E34:J37"/>
+    <mergeCell ref="K34:L37"/>
+    <mergeCell ref="E38:J40"/>
+    <mergeCell ref="K38:L40"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="E32:J33"/>
+    <mergeCell ref="K32:L33"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:L58"/>
+    <mergeCell ref="M57:AH58"/>
+    <mergeCell ref="E41:J54"/>
+    <mergeCell ref="K41:L54"/>
+    <mergeCell ref="E55:J56"/>
+    <mergeCell ref="K55:L56"/>
+    <mergeCell ref="M55:AH56"/>
+    <mergeCell ref="M23:AH24"/>
+    <mergeCell ref="M38:AH40"/>
+    <mergeCell ref="M34:AH37"/>
+    <mergeCell ref="M32:AH33"/>
+    <mergeCell ref="M31:AH31"/>
+    <mergeCell ref="M25:AH27"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:AH61"/>
+    <mergeCell ref="E62:J63"/>
+    <mergeCell ref="K62:L63"/>
+    <mergeCell ref="M62:AH63"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
